--- a/output/compiled_download_data/iTRAQI - ASGS 2016 SA2.xlsx
+++ b/output/compiled_download_data/iTRAQI - ASGS 2016 SA2.xlsx
@@ -14,9 +14,9 @@
   </bookViews>
   <sheets>
     <sheet name="Front page" sheetId="1" r:id="rId1"/>
-    <sheet name="drive_times" r:id="rId5" sheetId="2"/>
-    <sheet name="seifa" r:id="rId6" sheetId="3"/>
-    <sheet name="remoteness" r:id="rId7" sheetId="4"/>
+    <sheet name="Travel time" r:id="rId5" sheetId="2"/>
+    <sheet name="SEIFA" r:id="rId6" sheetId="3"/>
+    <sheet name="Remoteness" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/output/compiled_download_data/iTRAQI - ASGS 2016 SA2.xlsx
+++ b/output/compiled_download_data/iTRAQI - ASGS 2016 SA2.xlsx
@@ -142,6 +142,9 @@
     <t>3B</t>
   </si>
   <si>
+    <t>3D</t>
+  </si>
+  <si>
     <t>3C</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>4D</t>
-  </si>
-  <si>
-    <t>3D</t>
   </si>
   <si>
     <t>2B</t>
@@ -1099,13 +1099,13 @@
         <v>69.0608492086484</v>
       </c>
       <c r="E2" t="n">
-        <v>32.3018886245785</v>
+        <v>32.2990114506987</v>
       </c>
       <c r="F2" t="n">
-        <v>30.2865378687422</v>
+        <v>30.2830134636215</v>
       </c>
       <c r="G2" t="n">
-        <v>35.9441181253053</v>
+        <v>35.940327686214</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -1125,13 +1125,13 @@
         <v>49.9838485279466</v>
       </c>
       <c r="E3" t="n">
-        <v>22.9589507427456</v>
+        <v>22.9551108665725</v>
       </c>
       <c r="F3" t="n">
-        <v>19.3014446010369</v>
+        <v>19.2981134492676</v>
       </c>
       <c r="G3" t="n">
-        <v>29.4879545720152</v>
+        <v>29.4834849978851</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -1151,13 +1151,13 @@
         <v>63.3243298202943</v>
       </c>
       <c r="E4" t="n">
-        <v>33.1463106836619</v>
+        <v>33.1417644725429</v>
       </c>
       <c r="F4" t="n">
-        <v>29.0019081500782</v>
+        <v>28.9976320813837</v>
       </c>
       <c r="G4" t="n">
-        <v>36.1473145202135</v>
+        <v>36.1424746835967</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -1177,13 +1177,13 @@
         <v>59.1403902875497</v>
       </c>
       <c r="E5" t="n">
-        <v>28.7309736595009</v>
+        <v>28.7274223998</v>
       </c>
       <c r="F5" t="n">
-        <v>26.1764054186211</v>
+        <v>26.172984651629</v>
       </c>
       <c r="G5" t="n">
-        <v>31.2392638275581</v>
+        <v>31.2363880981937</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -1203,13 +1203,13 @@
         <v>57.0875467854372</v>
       </c>
       <c r="E6" t="n">
-        <v>32.0234075267305</v>
+        <v>32.0186532115079</v>
       </c>
       <c r="F6" t="n">
-        <v>30.0201367958855</v>
+        <v>30.0154812166348</v>
       </c>
       <c r="G6" t="n">
-        <v>33.0782965729481</v>
+        <v>33.0735650864815</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -1229,13 +1229,13 @@
         <v>73.5483667851002</v>
       </c>
       <c r="E7" t="n">
-        <v>36.9407906048494</v>
+        <v>36.936096490242</v>
       </c>
       <c r="F7" t="n">
-        <v>34.9106486263867</v>
+        <v>34.906510541233</v>
       </c>
       <c r="G7" t="n">
-        <v>41.1781007622243</v>
+        <v>41.1733151937093</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -1255,13 +1255,13 @@
         <v>88.3511900061901</v>
       </c>
       <c r="E8" t="n">
-        <v>38.4017824046328</v>
+        <v>38.3988545692125</v>
       </c>
       <c r="F8" t="n">
-        <v>34.9110132697966</v>
+        <v>34.9080115094557</v>
       </c>
       <c r="G8" t="n">
-        <v>45.1014278574174</v>
+        <v>45.097927834292</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
@@ -1281,13 +1281,13 @@
         <v>76.9022170559261</v>
       </c>
       <c r="E9" t="n">
-        <v>38.8747764589133</v>
+        <v>38.8709242930022</v>
       </c>
       <c r="F9" t="n">
-        <v>36.5205589665372</v>
+        <v>36.5168585957936</v>
       </c>
       <c r="G9" t="n">
-        <v>40.886452240714</v>
+        <v>40.8822630050784</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -1307,13 +1307,13 @@
         <v>86.4205489767499</v>
       </c>
       <c r="E10" t="n">
-        <v>42.4647933826708</v>
+        <v>42.4638368126678</v>
       </c>
       <c r="F10" t="n">
-        <v>33.3922056393561</v>
+        <v>33.3916713034267</v>
       </c>
       <c r="G10" t="n">
-        <v>46.6925137311077</v>
+        <v>46.6914166870566</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -1333,13 +1333,13 @@
         <v>62.8067941172465</v>
       </c>
       <c r="E11" t="n">
-        <v>29.8188279730709</v>
+        <v>29.8179111725429</v>
       </c>
       <c r="F11" t="n">
-        <v>25.7371982381987</v>
+        <v>25.7348600328263</v>
       </c>
       <c r="G11" t="n">
-        <v>33.3853241032241</v>
+        <v>33.3850724178715</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
@@ -1359,13 +1359,13 @@
         <v>87.3731772739214</v>
       </c>
       <c r="E12" t="n">
-        <v>35.8049119101845</v>
+        <v>35.8026024843062</v>
       </c>
       <c r="F12" t="n">
-        <v>31.2579217962145</v>
+        <v>31.2560232943938</v>
       </c>
       <c r="G12" t="n">
-        <v>38.9191151884431</v>
+        <v>38.9174969667908</v>
       </c>
       <c r="H12" t="s">
         <v>31</v>
@@ -1385,13 +1385,13 @@
         <v>99.1551957176679</v>
       </c>
       <c r="E13" t="n">
-        <v>40.3837255557714</v>
+        <v>40.3827004548998</v>
       </c>
       <c r="F13" t="n">
-        <v>34.4498203536582</v>
+        <v>34.4487585576055</v>
       </c>
       <c r="G13" t="n">
-        <v>43.5515817255319</v>
+        <v>43.5508963572547</v>
       </c>
       <c r="H13" t="s">
         <v>31</v>
@@ -1411,13 +1411,13 @@
         <v>123.802741560106</v>
       </c>
       <c r="E14" t="n">
-        <v>84.3845564205541</v>
+        <v>84.3840176591823</v>
       </c>
       <c r="F14" t="n">
-        <v>44.0329729001515</v>
+        <v>44.0328471609229</v>
       </c>
       <c r="G14" t="n">
-        <v>101.555531021076</v>
+        <v>101.557592639549</v>
       </c>
       <c r="H14" t="s">
         <v>33</v>
@@ -1437,13 +1437,13 @@
         <v>72.9387240359783</v>
       </c>
       <c r="E15" t="n">
-        <v>35.5374408452775</v>
+        <v>35.5316875131859</v>
       </c>
       <c r="F15" t="n">
-        <v>23.6346759969194</v>
+        <v>23.6303430613298</v>
       </c>
       <c r="G15" t="n">
-        <v>55.1475075103283</v>
+        <v>55.1428057043438</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -1463,13 +1463,13 @@
         <v>50.8247387340825</v>
       </c>
       <c r="E16" t="n">
-        <v>30.6161934877159</v>
+        <v>30.6112515679827</v>
       </c>
       <c r="F16" t="n">
-        <v>29.0911112468009</v>
+        <v>29.0863899833117</v>
       </c>
       <c r="G16" t="n">
-        <v>31.9903023714995</v>
+        <v>31.9851272162483</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -1489,13 +1489,13 @@
         <v>46.2897040371141</v>
       </c>
       <c r="E17" t="n">
-        <v>27.4228658024587</v>
+        <v>27.4182690490705</v>
       </c>
       <c r="F17" t="n">
-        <v>24.3392879371647</v>
+        <v>24.3350518200976</v>
       </c>
       <c r="G17" t="n">
-        <v>29.0912394760189</v>
+        <v>29.0864022180064</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
@@ -1515,13 +1515,13 @@
         <v>31.0144942709089</v>
       </c>
       <c r="E18" t="n">
-        <v>16.4431212795279</v>
+        <v>16.4402464419489</v>
       </c>
       <c r="F18" t="n">
-        <v>15.2560174818543</v>
+        <v>15.2533986953326</v>
       </c>
       <c r="G18" t="n">
-        <v>22.7144398766075</v>
+        <v>22.7102425648779</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -1541,13 +1541,13 @@
         <v>38.565063919136</v>
       </c>
       <c r="E19" t="n">
-        <v>21.2764893644849</v>
+        <v>21.2727984903242</v>
       </c>
       <c r="F19" t="n">
-        <v>17.7683197277354</v>
+        <v>17.7652446518329</v>
       </c>
       <c r="G19" t="n">
-        <v>25.1315025701075</v>
+        <v>25.1271067462042</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -1567,13 +1567,13 @@
         <v>43.0811987499619</v>
       </c>
       <c r="E20" t="n">
-        <v>24.2501595680453</v>
+        <v>24.2460258178481</v>
       </c>
       <c r="F20" t="n">
-        <v>22.6611537981717</v>
+        <v>22.6572938380298</v>
       </c>
       <c r="G20" t="n">
-        <v>26.7951578704166</v>
+        <v>26.7907116072156</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -1593,13 +1593,13 @@
         <v>47.8349121890457</v>
       </c>
       <c r="E21" t="n">
-        <v>29.0034050526797</v>
+        <v>28.9984181708616</v>
       </c>
       <c r="F21" t="n">
-        <v>26.7683755496416</v>
+        <v>26.7635880264206</v>
       </c>
       <c r="G21" t="n">
-        <v>30.9791496831789</v>
+        <v>30.9739610497902</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -1619,13 +1619,13 @@
         <v>42.0900327996897</v>
       </c>
       <c r="E22" t="n">
-        <v>25.2614151265535</v>
+        <v>25.256967126134</v>
       </c>
       <c r="F22" t="n">
-        <v>20.4394588113238</v>
+        <v>20.4356963651051</v>
       </c>
       <c r="G22" t="n">
-        <v>27.6750385306318</v>
+        <v>27.6702133434171</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
@@ -1645,13 +1645,13 @@
         <v>36.4459513220503</v>
       </c>
       <c r="E23" t="n">
-        <v>26.4723935811826</v>
+        <v>26.4694863388913</v>
       </c>
       <c r="F23" t="n">
-        <v>23.1724339758986</v>
+        <v>23.1698223652451</v>
       </c>
       <c r="G23" t="n">
-        <v>30.6696900947555</v>
+        <v>30.6661683771051</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -1671,13 +1671,13 @@
         <v>27.3093013303839</v>
       </c>
       <c r="E24" t="n">
-        <v>19.6891725434255</v>
+        <v>19.6876059807078</v>
       </c>
       <c r="F24" t="n">
-        <v>18.0527599608491</v>
+        <v>18.051108261945</v>
       </c>
       <c r="G24" t="n">
-        <v>23.5689231313538</v>
+        <v>23.56661017454</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -1697,13 +1697,13 @@
         <v>25.8121494875691</v>
       </c>
       <c r="E25" t="n">
-        <v>21.3048414720365</v>
+        <v>21.3024220621944</v>
       </c>
       <c r="F25" t="n">
-        <v>19.6935630316536</v>
+        <v>19.6914631296665</v>
       </c>
       <c r="G25" t="n">
-        <v>22.6249351163974</v>
+        <v>22.6223862315712</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
@@ -1723,13 +1723,13 @@
         <v>18.7217999972317</v>
       </c>
       <c r="E26" t="n">
-        <v>14.384140328933</v>
+        <v>14.383364911035</v>
       </c>
       <c r="F26" t="n">
-        <v>12.9522030540029</v>
+        <v>12.9513905668341</v>
       </c>
       <c r="G26" t="n">
-        <v>16.6675231409158</v>
+        <v>16.6663803190601</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -1749,13 +1749,13 @@
         <v>21.113919340093</v>
       </c>
       <c r="E27" t="n">
-        <v>16.5069350107435</v>
+        <v>16.5055575299764</v>
       </c>
       <c r="F27" t="n">
-        <v>14.9151158348595</v>
+        <v>14.9140330536941</v>
       </c>
       <c r="G27" t="n">
-        <v>18.4548608613725</v>
+        <v>18.4534838620357</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
@@ -1775,13 +1775,13 @@
         <v>22.1563190954223</v>
       </c>
       <c r="E28" t="n">
-        <v>18.4412551233825</v>
+        <v>18.4390888025864</v>
       </c>
       <c r="F28" t="n">
-        <v>17.1285445583404</v>
+        <v>17.1269569103451</v>
       </c>
       <c r="G28" t="n">
-        <v>20.0326792388879</v>
+        <v>20.0303194476248</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -1801,13 +1801,13 @@
         <v>17.6844296995348</v>
       </c>
       <c r="E29" t="n">
-        <v>15.5572467620407</v>
+        <v>15.5552337469271</v>
       </c>
       <c r="F29" t="n">
-        <v>14.6965188772328</v>
+        <v>14.6947245135625</v>
       </c>
       <c r="G29" t="n">
-        <v>16.8616604420595</v>
+        <v>16.859604686949</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -1827,13 +1827,13 @@
         <v>18.1032960250067</v>
       </c>
       <c r="E30" t="n">
-        <v>15.7993384323405</v>
+        <v>15.7978179850859</v>
       </c>
       <c r="F30" t="n">
-        <v>14.7226300013913</v>
+        <v>14.7210967320461</v>
       </c>
       <c r="G30" t="n">
-        <v>16.9664180421662</v>
+        <v>16.9646668540547</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
@@ -1853,13 +1853,13 @@
         <v>22.1945433015038</v>
       </c>
       <c r="E31" t="n">
-        <v>18.3162054512939</v>
+        <v>18.3136188763244</v>
       </c>
       <c r="F31" t="n">
-        <v>17.2682995137645</v>
+        <v>17.2660109658166</v>
       </c>
       <c r="G31" t="n">
-        <v>20.0310258693648</v>
+        <v>20.0280212816523</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
@@ -1879,13 +1879,13 @@
         <v>13.8621849313336</v>
       </c>
       <c r="E32" t="n">
-        <v>12.0176465452483</v>
+        <v>12.0164085460741</v>
       </c>
       <c r="F32" t="n">
-        <v>9.5777321292237</v>
+        <v>9.57682447393336</v>
       </c>
       <c r="G32" t="n">
-        <v>14.1905985977309</v>
+        <v>14.1889022048831</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
@@ -1905,13 +1905,13 @@
         <v>13.416049756718</v>
       </c>
       <c r="E33" t="n">
-        <v>12.0967144371803</v>
+        <v>12.0957370785899</v>
       </c>
       <c r="F33" t="n">
-        <v>10.4494245948559</v>
+        <v>10.4485451207913</v>
       </c>
       <c r="G33" t="n">
-        <v>13.3564551413667</v>
+        <v>13.3554738906189</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
@@ -1931,13 +1931,13 @@
         <v>15.4691344965047</v>
       </c>
       <c r="E34" t="n">
-        <v>13.9764105112096</v>
+        <v>13.9749576520136</v>
       </c>
       <c r="F34" t="n">
-        <v>12.586006694968</v>
+        <v>12.5847412055332</v>
       </c>
       <c r="G34" t="n">
-        <v>14.8688408286362</v>
+        <v>14.8675919191126</v>
       </c>
       <c r="H34" t="s">
         <v>32</v>
@@ -1957,13 +1957,13 @@
         <v>18.5594372128604</v>
       </c>
       <c r="E35" t="n">
-        <v>15.7859181188963</v>
+        <v>15.7836856858187</v>
       </c>
       <c r="F35" t="n">
-        <v>13.7263864220606</v>
+        <v>13.7245874958472</v>
       </c>
       <c r="G35" t="n">
-        <v>17.4050149949884</v>
+        <v>17.4024054346507</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
@@ -1983,13 +1983,13 @@
         <v>31.3914510070202</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0259645631045</v>
+        <v>23.0223524486875</v>
       </c>
       <c r="F36" t="n">
-        <v>21.2845243580932</v>
+        <v>21.2813266551246</v>
       </c>
       <c r="G36" t="n">
-        <v>26.7403568345642</v>
+        <v>26.7364082535646</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -2009,13 +2009,13 @@
         <v>43.8878067233913</v>
       </c>
       <c r="E37" t="n">
-        <v>25.2959730166783</v>
+        <v>25.2914412031787</v>
       </c>
       <c r="F37" t="n">
-        <v>15.1498275922338</v>
+        <v>15.1471952862559</v>
       </c>
       <c r="G37" t="n">
-        <v>33.3363167598586</v>
+        <v>33.3308397162384</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
@@ -2035,13 +2035,13 @@
         <v>28.8024602089712</v>
       </c>
       <c r="E38" t="n">
-        <v>15.7313696141168</v>
+        <v>15.7285932068772</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0161728163171</v>
+        <v>13.0140522577376</v>
       </c>
       <c r="G38" t="n">
-        <v>21.8850637049668</v>
+        <v>21.8810162870914</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
@@ -2061,13 +2061,13 @@
         <v>23.4272940876278</v>
       </c>
       <c r="E39" t="n">
-        <v>18.3395708449872</v>
+        <v>18.336526389922</v>
       </c>
       <c r="F39" t="n">
-        <v>16.8340413034507</v>
+        <v>16.8313247796619</v>
       </c>
       <c r="G39" t="n">
-        <v>20.8063964712971</v>
+        <v>20.8031434929813</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -2087,13 +2087,13 @@
         <v>33.8615719615852</v>
       </c>
       <c r="E40" t="n">
-        <v>21.6865941971844</v>
+        <v>21.6829724615798</v>
       </c>
       <c r="F40" t="n">
-        <v>19.7652243027851</v>
+        <v>19.7618628471473</v>
       </c>
       <c r="G40" t="n">
-        <v>27.9701737518335</v>
+        <v>27.9656636425929</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
@@ -2113,13 +2113,13 @@
         <v>18.6069913593347</v>
       </c>
       <c r="E41" t="n">
-        <v>15.2995780018903</v>
+        <v>15.2970972759863</v>
       </c>
       <c r="F41" t="n">
-        <v>13.8927166612023</v>
+        <v>13.8907102510071</v>
       </c>
       <c r="G41" t="n">
-        <v>16.8319376897443</v>
+        <v>16.8290870968794</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
@@ -2139,13 +2139,13 @@
         <v>32.7970813074232</v>
       </c>
       <c r="E42" t="n">
-        <v>25.3647758986938</v>
+        <v>25.3618685728082</v>
       </c>
       <c r="F42" t="n">
-        <v>23.9366219740909</v>
+        <v>23.9337336583528</v>
       </c>
       <c r="G42" t="n">
-        <v>27.9593073142103</v>
+        <v>27.9560049694792</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -2165,13 +2165,13 @@
         <v>37.9657477728737</v>
       </c>
       <c r="E43" t="n">
-        <v>29.5187288613744</v>
+        <v>29.5148476477764</v>
       </c>
       <c r="F43" t="n">
-        <v>27.9263583711024</v>
+        <v>27.9227904401212</v>
       </c>
       <c r="G43" t="n">
-        <v>31.8078206030254</v>
+        <v>31.8039352943081</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -2191,13 +2191,13 @@
         <v>31.8558620377184</v>
       </c>
       <c r="E44" t="n">
-        <v>26.0424520369625</v>
+        <v>26.0388036832622</v>
       </c>
       <c r="F44" t="n">
-        <v>25.0959438726339</v>
+        <v>25.0925130531391</v>
       </c>
       <c r="G44" t="n">
-        <v>27.2021874606926</v>
+        <v>27.1983829231192</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -2217,13 +2217,13 @@
         <v>34.2674608168036</v>
       </c>
       <c r="E45" t="n">
-        <v>28.1634181689958</v>
+        <v>28.1596736166794</v>
       </c>
       <c r="F45" t="n">
-        <v>27.1468461146978</v>
+        <v>27.1432924873645</v>
       </c>
       <c r="G45" t="n">
-        <v>29.0244056770858</v>
+        <v>29.0205071428379</v>
       </c>
       <c r="H45" t="s">
         <v>32</v>
@@ -2243,13 +2243,13 @@
         <v>28.4484957525646</v>
       </c>
       <c r="E46" t="n">
-        <v>22.6422280777076</v>
+        <v>22.6394146339644</v>
       </c>
       <c r="F46" t="n">
-        <v>21.21989576216</v>
+        <v>21.2171861713965</v>
       </c>
       <c r="G46" t="n">
-        <v>24.7371927823172</v>
+        <v>24.7338895250925</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
@@ -2269,13 +2269,13 @@
         <v>24.4315905773188</v>
       </c>
       <c r="E47" t="n">
-        <v>20.4378796920155</v>
+        <v>20.4352819761539</v>
       </c>
       <c r="F47" t="n">
-        <v>19.1185174220859</v>
+        <v>19.1161393823566</v>
       </c>
       <c r="G47" t="n">
-        <v>21.7384892449729</v>
+        <v>21.7353878966484</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -2295,13 +2295,13 @@
         <v>20.5536740404538</v>
       </c>
       <c r="E48" t="n">
-        <v>13.9627217735747</v>
+        <v>13.9606928578538</v>
       </c>
       <c r="F48" t="n">
-        <v>12.2751246366533</v>
+        <v>12.2735835437011</v>
       </c>
       <c r="G48" t="n">
-        <v>14.9667242896958</v>
+        <v>14.9645757527099</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
@@ -2321,13 +2321,13 @@
         <v>25.288049214761</v>
       </c>
       <c r="E49" t="n">
-        <v>14.5113080852523</v>
+        <v>14.508885811356</v>
       </c>
       <c r="F49" t="n">
-        <v>13.5993589801587</v>
+        <v>13.5972315164654</v>
       </c>
       <c r="G49" t="n">
-        <v>17.727305533826</v>
+        <v>17.7243112623398</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
@@ -2347,13 +2347,13 @@
         <v>28.0999875887686</v>
       </c>
       <c r="E50" t="n">
-        <v>15.5174919791476</v>
+        <v>15.515067233198</v>
       </c>
       <c r="F50" t="n">
-        <v>14.8278655698525</v>
+        <v>14.8254719590905</v>
       </c>
       <c r="G50" t="n">
-        <v>18.9879462180187</v>
+        <v>18.9847790372991</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -2373,13 +2373,13 @@
         <v>23.8903795495725</v>
       </c>
       <c r="E51" t="n">
-        <v>15.7963251701904</v>
+        <v>15.7940273903778</v>
       </c>
       <c r="F51" t="n">
-        <v>15.1647155164932</v>
+        <v>15.162477891857</v>
       </c>
       <c r="G51" t="n">
-        <v>16.6406248648339</v>
+        <v>16.638158613682</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
@@ -2399,13 +2399,13 @@
         <v>30.4851041414032</v>
       </c>
       <c r="E52" t="n">
-        <v>18.5237414005237</v>
+        <v>18.5208744350017</v>
       </c>
       <c r="F52" t="n">
-        <v>16.8117420294218</v>
+        <v>16.809129772663</v>
       </c>
       <c r="G52" t="n">
-        <v>19.878474670753</v>
+        <v>19.8756495703984</v>
       </c>
       <c r="H52" t="s">
         <v>32</v>
@@ -2425,13 +2425,13 @@
         <v>17.3350621841125</v>
       </c>
       <c r="E53" t="n">
-        <v>12.2387171519966</v>
+        <v>12.2377971250554</v>
       </c>
       <c r="F53" t="n">
-        <v>11.1552826817709</v>
+        <v>11.1545494490016</v>
       </c>
       <c r="G53" t="n">
-        <v>13.1840884771091</v>
+        <v>13.1830430830322</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -2451,13 +2451,13 @@
         <v>19.7385795076176</v>
       </c>
       <c r="E54" t="n">
-        <v>12.4022015263535</v>
+        <v>12.4007388319238</v>
       </c>
       <c r="F54" t="n">
-        <v>10.8852591733462</v>
+        <v>10.8843066987243</v>
       </c>
       <c r="G54" t="n">
-        <v>14.4779976244015</v>
+        <v>14.4761215964793</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -2477,13 +2477,13 @@
         <v>15.2360620010179</v>
       </c>
       <c r="E55" t="n">
-        <v>11.2608057571502</v>
+        <v>11.260152224296</v>
       </c>
       <c r="F55" t="n">
-        <v>10.0968653716245</v>
+        <v>10.0964369002478</v>
       </c>
       <c r="G55" t="n">
-        <v>11.9935007121434</v>
+        <v>11.9927430414642</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
@@ -2503,13 +2503,13 @@
         <v>17.2366626814008</v>
       </c>
       <c r="E56" t="n">
-        <v>12.3212904514097</v>
+        <v>12.3201399196859</v>
       </c>
       <c r="F56" t="n">
-        <v>11.2969268500507</v>
+        <v>11.295957968126</v>
       </c>
       <c r="G56" t="n">
-        <v>13.1198568971558</v>
+        <v>13.1185041569611</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
@@ -2529,13 +2529,13 @@
         <v>22.150813951427</v>
       </c>
       <c r="E57" t="n">
-        <v>14.6554621435265</v>
+        <v>14.6536607328394</v>
       </c>
       <c r="F57" t="n">
-        <v>13.1643308726717</v>
+        <v>13.1629205303601</v>
       </c>
       <c r="G57" t="n">
-        <v>15.7304637673216</v>
+        <v>15.7283616355044</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -2555,13 +2555,13 @@
         <v>21.8757096246406</v>
       </c>
       <c r="E58" t="n">
-        <v>14.8185323890368</v>
+        <v>14.8168288206764</v>
       </c>
       <c r="F58" t="n">
-        <v>13.2840009664194</v>
+        <v>13.2826637986101</v>
       </c>
       <c r="G58" t="n">
-        <v>15.6998228523508</v>
+        <v>15.6980692013755</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -2581,13 +2581,13 @@
         <v>13.7049614942498</v>
       </c>
       <c r="E59" t="n">
-        <v>10.5275480095054</v>
+        <v>10.526798485032</v>
       </c>
       <c r="F59" t="n">
-        <v>9.84481093839804</v>
+        <v>9.84434043299052</v>
       </c>
       <c r="G59" t="n">
-        <v>11.1946836571489</v>
+        <v>11.1938207639082</v>
       </c>
       <c r="H59" t="s">
         <v>32</v>
@@ -2607,13 +2607,13 @@
         <v>19.579597657158</v>
       </c>
       <c r="E60" t="n">
-        <v>12.8031979587499</v>
+        <v>12.8024024935224</v>
       </c>
       <c r="F60" t="n">
-        <v>11.797620916783</v>
+        <v>11.7970380043453</v>
       </c>
       <c r="G60" t="n">
-        <v>14.5159571422899</v>
+        <v>14.5150104180091</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -2633,13 +2633,13 @@
         <v>32.551382513267</v>
       </c>
       <c r="E61" t="n">
-        <v>20.1481185346674</v>
+        <v>20.1457811271414</v>
       </c>
       <c r="F61" t="n">
-        <v>19.1732597320024</v>
+        <v>19.1711654016709</v>
       </c>
       <c r="G61" t="n">
-        <v>22.0091902506867</v>
+        <v>22.0069696195108</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -2659,13 +2659,13 @@
         <v>27.6047732090067</v>
       </c>
       <c r="E62" t="n">
-        <v>18.3056004171143</v>
+        <v>18.3036697880361</v>
       </c>
       <c r="F62" t="n">
-        <v>17.2660612308221</v>
+        <v>17.2641862856226</v>
       </c>
       <c r="G62" t="n">
-        <v>19.0713655695993</v>
+        <v>19.069291572752</v>
       </c>
       <c r="H62" t="s">
         <v>32</v>
@@ -2685,13 +2685,13 @@
         <v>30.3995548782834</v>
       </c>
       <c r="E63" t="n">
-        <v>18.1897026716516</v>
+        <v>18.1873172352569</v>
       </c>
       <c r="F63" t="n">
-        <v>17.3560511406422</v>
+        <v>17.3535904069881</v>
       </c>
       <c r="G63" t="n">
-        <v>19.8657115698089</v>
+        <v>19.8629464973303</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
@@ -2711,13 +2711,13 @@
         <v>25.6735906884792</v>
       </c>
       <c r="E64" t="n">
-        <v>16.5632665406854</v>
+        <v>16.5611018010317</v>
       </c>
       <c r="F64" t="n">
-        <v>15.5329778415878</v>
+        <v>15.5312104235413</v>
       </c>
       <c r="G64" t="n">
-        <v>17.631280550514</v>
+        <v>17.6290204692312</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
@@ -2737,13 +2737,13 @@
         <v>45.3875534387374</v>
       </c>
       <c r="E65" t="n">
-        <v>22.0502991655869</v>
+        <v>22.0477789871434</v>
       </c>
       <c r="F65" t="n">
-        <v>20.0697232648515</v>
+        <v>20.0669766983231</v>
       </c>
       <c r="G65" t="n">
-        <v>26.3564385888703</v>
+        <v>26.3532106324271</v>
       </c>
       <c r="H65" t="s">
         <v>32</v>
@@ -2763,13 +2763,13 @@
         <v>27.5285955139711</v>
       </c>
       <c r="E66" t="n">
-        <v>18.0037775599561</v>
+        <v>18.0017393379779</v>
       </c>
       <c r="F66" t="n">
-        <v>16.4099205623454</v>
+        <v>16.4081361888955</v>
       </c>
       <c r="G66" t="n">
-        <v>18.91440530074</v>
+        <v>18.9122599180629</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
@@ -2789,13 +2789,13 @@
         <v>30.1174558246035</v>
       </c>
       <c r="E67" t="n">
-        <v>19.1908696694584</v>
+        <v>19.1886013359739</v>
       </c>
       <c r="F67" t="n">
-        <v>18.2938329753129</v>
+        <v>18.2915030158684</v>
       </c>
       <c r="G67" t="n">
-        <v>19.9089267041815</v>
+        <v>19.9063724297497</v>
       </c>
       <c r="H67" t="s">
         <v>32</v>
@@ -2815,13 +2815,13 @@
         <v>25.3439521522263</v>
       </c>
       <c r="E68" t="n">
-        <v>17.1439211532236</v>
+        <v>17.1423594769544</v>
       </c>
       <c r="F68" t="n">
-        <v>16.5757902982654</v>
+        <v>16.5743896326627</v>
       </c>
       <c r="G68" t="n">
-        <v>18.0890977084078</v>
+        <v>18.0874911088498</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
@@ -2841,13 +2841,13 @@
         <v>20.4026809321175</v>
       </c>
       <c r="E69" t="n">
-        <v>14.118986821174</v>
+        <v>14.1177738630367</v>
       </c>
       <c r="F69" t="n">
-        <v>13.2836090327481</v>
+        <v>13.2826337127411</v>
       </c>
       <c r="G69" t="n">
-        <v>15.0235549774011</v>
+        <v>15.0224738142354</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -2867,13 +2867,13 @@
         <v>25.6410634885816</v>
       </c>
       <c r="E70" t="n">
-        <v>17.5193854329902</v>
+        <v>17.5176237879797</v>
       </c>
       <c r="F70" t="n">
-        <v>17.0807264757709</v>
+        <v>17.0790739581691</v>
       </c>
       <c r="G70" t="n">
-        <v>18.1378695869272</v>
+        <v>18.1360954977141</v>
       </c>
       <c r="H70" t="s">
         <v>32</v>
@@ -2893,13 +2893,13 @@
         <v>24.1941337381656</v>
       </c>
       <c r="E71" t="n">
-        <v>15.827137599043</v>
+        <v>15.8258436262334</v>
       </c>
       <c r="F71" t="n">
-        <v>14.645595480889</v>
+        <v>14.6443125004131</v>
       </c>
       <c r="G71" t="n">
-        <v>17.1343963107112</v>
+        <v>17.1325895729632</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -2919,13 +2919,13 @@
         <v>20.6988999355971</v>
       </c>
       <c r="E72" t="n">
-        <v>13.8409795302338</v>
+        <v>13.8397499973723</v>
       </c>
       <c r="F72" t="n">
-        <v>12.741602383422</v>
+        <v>12.7405044619995</v>
       </c>
       <c r="G72" t="n">
-        <v>15.0632878138507</v>
+        <v>15.0616990028651</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -2945,13 +2945,13 @@
         <v>31.7353600951005</v>
       </c>
       <c r="E73" t="n">
-        <v>21.5534601143442</v>
+        <v>21.5519783076347</v>
       </c>
       <c r="F73" t="n">
-        <v>20.3596094584706</v>
+        <v>20.358096278579</v>
       </c>
       <c r="G73" t="n">
-        <v>22.6922947129831</v>
+        <v>22.6908423077189</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
@@ -2971,13 +2971,13 @@
         <v>36.4678398010176</v>
       </c>
       <c r="E74" t="n">
-        <v>22.716410176626</v>
+        <v>22.714785597752</v>
       </c>
       <c r="F74" t="n">
-        <v>21.1950343119339</v>
+        <v>21.1934303082188</v>
       </c>
       <c r="G74" t="n">
-        <v>25.7857637657073</v>
+        <v>25.7840521413542</v>
       </c>
       <c r="H74" t="s">
         <v>32</v>
@@ -2997,13 +2997,13 @@
         <v>35.5814106492485</v>
       </c>
       <c r="E75" t="n">
-        <v>23.0334711644893</v>
+        <v>23.0322556021281</v>
       </c>
       <c r="F75" t="n">
-        <v>18.0304815732648</v>
+        <v>18.0293870073118</v>
       </c>
       <c r="G75" t="n">
-        <v>25.4991089859208</v>
+        <v>25.4978513654341</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -3023,13 +3023,13 @@
         <v>36.4143368025277</v>
       </c>
       <c r="E76" t="n">
-        <v>23.9997715379756</v>
+        <v>23.9983547870967</v>
       </c>
       <c r="F76" t="n">
-        <v>22.915253880749</v>
+        <v>22.9138332808044</v>
       </c>
       <c r="G76" t="n">
-        <v>26.0573203996544</v>
+        <v>26.0558281540683</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
@@ -3049,13 +3049,13 @@
         <v>27.6260137850687</v>
       </c>
       <c r="E77" t="n">
-        <v>18.3182272051022</v>
+        <v>18.3169276577242</v>
       </c>
       <c r="F77" t="n">
-        <v>14.595057683572</v>
+        <v>14.5941410456378</v>
       </c>
       <c r="G77" t="n">
-        <v>19.747975392238</v>
+        <v>19.7465579802514</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
@@ -3075,13 +3075,13 @@
         <v>33.3185387258981</v>
       </c>
       <c r="E78" t="n">
-        <v>22.2296181723661</v>
+        <v>22.2275799936436</v>
       </c>
       <c r="F78" t="n">
-        <v>21.6639899038391</v>
+        <v>21.6618855089903</v>
       </c>
       <c r="G78" t="n">
-        <v>23.0567684392707</v>
+        <v>23.0547692161181</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
@@ -3101,13 +3101,13 @@
         <v>31.3382146978856</v>
       </c>
       <c r="E79" t="n">
-        <v>21.1826177061886</v>
+        <v>21.1806752758845</v>
       </c>
       <c r="F79" t="n">
-        <v>19.7000752258442</v>
+        <v>19.6981840622875</v>
       </c>
       <c r="G79" t="n">
-        <v>22.0339976638101</v>
+        <v>22.032161645778</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
@@ -3127,13 +3127,13 @@
         <v>27.8680859147178</v>
       </c>
       <c r="E80" t="n">
-        <v>18.8758214036922</v>
+        <v>18.8740362755044</v>
       </c>
       <c r="F80" t="n">
-        <v>17.9143017181636</v>
+        <v>17.9127981631688</v>
       </c>
       <c r="G80" t="n">
-        <v>19.5885047147157</v>
+        <v>19.5866985809953</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
@@ -3153,13 +3153,13 @@
         <v>30.5643386536457</v>
       </c>
       <c r="E81" t="n">
-        <v>20.4239434452562</v>
+        <v>20.4222223475859</v>
       </c>
       <c r="F81" t="n">
-        <v>18.3937467140765</v>
+        <v>18.3921940884652</v>
       </c>
       <c r="G81" t="n">
-        <v>21.6357485528277</v>
+        <v>21.6340154520649</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
@@ -3179,13 +3179,13 @@
         <v>29.0554775415035</v>
       </c>
       <c r="E82" t="n">
-        <v>18.2232359060534</v>
+        <v>18.2226691116986</v>
       </c>
       <c r="F82" t="n">
-        <v>17.2933486026046</v>
+        <v>17.2927741505024</v>
       </c>
       <c r="G82" t="n">
-        <v>19.4947493114066</v>
+        <v>19.4941024629056</v>
       </c>
       <c r="H82" t="s">
         <v>32</v>
@@ -3205,13 +3205,13 @@
         <v>30.7885816767775</v>
       </c>
       <c r="E83" t="n">
-        <v>19.6062773136053</v>
+        <v>19.6055473563514</v>
       </c>
       <c r="F83" t="n">
-        <v>18.7750177373077</v>
+        <v>18.7743098824363</v>
       </c>
       <c r="G83" t="n">
-        <v>20.4274004375652</v>
+        <v>20.4267496258682</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
@@ -3231,13 +3231,13 @@
         <v>33.3716657668338</v>
       </c>
       <c r="E84" t="n">
-        <v>21.0607695533138</v>
+        <v>21.0600983195595</v>
       </c>
       <c r="F84" t="n">
-        <v>20.5349521053491</v>
+        <v>20.5342524647795</v>
       </c>
       <c r="G84" t="n">
-        <v>21.8387031252057</v>
+        <v>21.8380466955191</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
@@ -3257,13 +3257,13 @@
         <v>27.1563557201395</v>
       </c>
       <c r="E85" t="n">
-        <v>17.6680905787281</v>
+        <v>17.6674255082798</v>
       </c>
       <c r="F85" t="n">
-        <v>16.5797217670167</v>
+        <v>16.5790880556218</v>
       </c>
       <c r="G85" t="n">
-        <v>18.6669055260777</v>
+        <v>18.6661674602312</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
@@ -3283,13 +3283,13 @@
         <v>31.8085851378914</v>
       </c>
       <c r="E86" t="n">
-        <v>20.5968569854969</v>
+        <v>20.5962271846395</v>
       </c>
       <c r="F86" t="n">
-        <v>19.6498607976741</v>
+        <v>19.649247105154</v>
       </c>
       <c r="G86" t="n">
-        <v>20.9283528069093</v>
+        <v>20.927717325009</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
@@ -3309,13 +3309,13 @@
         <v>40.2152232357042</v>
       </c>
       <c r="E87" t="n">
-        <v>23.5245582872998</v>
+        <v>23.5239202383794</v>
       </c>
       <c r="F87" t="n">
-        <v>21.4126826083909</v>
+        <v>21.4120557709655</v>
       </c>
       <c r="G87" t="n">
-        <v>25.7298253120947</v>
+        <v>25.7292787943369</v>
       </c>
       <c r="H87" t="s">
         <v>32</v>
@@ -3335,13 +3335,13 @@
         <v>54.8405142535217</v>
       </c>
       <c r="E88" t="n">
-        <v>20.1374916143839</v>
+        <v>20.1371040624005</v>
       </c>
       <c r="F88" t="n">
-        <v>16.6372297836226</v>
+        <v>16.636827625789</v>
       </c>
       <c r="G88" t="n">
-        <v>30.8818704185903</v>
+        <v>30.8816651945511</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -3361,13 +3361,13 @@
         <v>23.5681067343113</v>
       </c>
       <c r="E89" t="n">
-        <v>15.5056721329552</v>
+        <v>15.5052160602838</v>
       </c>
       <c r="F89" t="n">
-        <v>14.3692840929995</v>
+        <v>14.3689135167142</v>
       </c>
       <c r="G89" t="n">
-        <v>16.4169644500499</v>
+        <v>16.4165709703522</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -3387,13 +3387,13 @@
         <v>22.8663371316579</v>
       </c>
       <c r="E90" t="n">
-        <v>15.9785522398267</v>
+        <v>15.9778319638472</v>
       </c>
       <c r="F90" t="n">
-        <v>14.9910436717482</v>
+        <v>14.9905142317994</v>
       </c>
       <c r="G90" t="n">
-        <v>16.2799607397581</v>
+        <v>16.2792473406362</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
@@ -3413,13 +3413,13 @@
         <v>26.8826720840262</v>
       </c>
       <c r="E91" t="n">
-        <v>16.7893390027907</v>
+        <v>16.7888647469659</v>
       </c>
       <c r="F91" t="n">
-        <v>15.7696060272132</v>
+        <v>15.7691660114087</v>
       </c>
       <c r="G91" t="n">
-        <v>18.1674973926281</v>
+        <v>18.1669704887103</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -3439,13 +3439,13 @@
         <v>45.8839165514964</v>
       </c>
       <c r="E92" t="n">
-        <v>23.0435086164644</v>
+        <v>23.0430121754711</v>
       </c>
       <c r="F92" t="n">
-        <v>18.6594538142118</v>
+        <v>18.6589625722274</v>
       </c>
       <c r="G92" t="n">
-        <v>26.8733463142191</v>
+        <v>26.8730361401017</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
@@ -3465,13 +3465,13 @@
         <v>19.9877218841489</v>
       </c>
       <c r="E93" t="n">
-        <v>13.9275360357937</v>
+        <v>13.9270648189636</v>
       </c>
       <c r="F93" t="n">
-        <v>13.6000488584853</v>
+        <v>13.5996024129997</v>
       </c>
       <c r="G93" t="n">
-        <v>14.6095468014951</v>
+        <v>14.6089859010184</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
@@ -3491,13 +3491,13 @@
         <v>22.8893814855529</v>
       </c>
       <c r="E94" t="n">
-        <v>15.6956026905106</v>
+        <v>15.6948163345337</v>
       </c>
       <c r="F94" t="n">
-        <v>14.7633728126057</v>
+        <v>14.7626195963554</v>
       </c>
       <c r="G94" t="n">
-        <v>16.3708890438664</v>
+        <v>16.370094820071</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
@@ -3517,13 +3517,13 @@
         <v>21.3562467327917</v>
       </c>
       <c r="E95" t="n">
-        <v>13.183599995506</v>
+        <v>13.1831931365746</v>
       </c>
       <c r="F95" t="n">
-        <v>12.3779382701417</v>
+        <v>12.3775914675387</v>
       </c>
       <c r="G95" t="n">
-        <v>15.2946600561338</v>
+        <v>15.2941856958101</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
@@ -3543,13 +3543,13 @@
         <v>21.390244192395</v>
       </c>
       <c r="E96" t="n">
-        <v>14.7985322177998</v>
+        <v>14.7979011150807</v>
       </c>
       <c r="F96" t="n">
-        <v>14.1573362864251</v>
+        <v>14.1566745220254</v>
       </c>
       <c r="G96" t="n">
-        <v>15.4438038597447</v>
+        <v>15.4431208739857</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
@@ -3569,13 +3569,13 @@
         <v>15.2843526978776</v>
       </c>
       <c r="E97" t="n">
-        <v>11.2379056975461</v>
+        <v>11.2375843717251</v>
       </c>
       <c r="F97" t="n">
-        <v>10.4964419514315</v>
+        <v>10.496124558131</v>
       </c>
       <c r="G97" t="n">
-        <v>12.036943951717</v>
+        <v>12.0365613828878</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
@@ -3595,13 +3595,13 @@
         <v>17.2422680297654</v>
       </c>
       <c r="E98" t="n">
-        <v>12.1542432398847</v>
+        <v>12.1539708292437</v>
       </c>
       <c r="F98" t="n">
-        <v>11.3402487094099</v>
+        <v>11.3399923625925</v>
       </c>
       <c r="G98" t="n">
-        <v>13.1461233928026</v>
+        <v>13.1458293018892</v>
       </c>
       <c r="H98" t="s">
         <v>32</v>
@@ -3621,13 +3621,13 @@
         <v>18.4458971552305</v>
       </c>
       <c r="E99" t="n">
-        <v>12.5276448933419</v>
+        <v>12.5270103327675</v>
       </c>
       <c r="F99" t="n">
-        <v>10.9677234846955</v>
+        <v>10.9673371138153</v>
       </c>
       <c r="G99" t="n">
-        <v>14.8129964534791</v>
+        <v>14.8126575037915</v>
       </c>
       <c r="H99" t="s">
         <v>32</v>
@@ -3647,13 +3647,13 @@
         <v>58.5470765217228</v>
       </c>
       <c r="E100" t="n">
-        <v>25.2173324190892</v>
+        <v>25.2171994503381</v>
       </c>
       <c r="F100" t="n">
-        <v>18.183341301613</v>
+        <v>18.1830878101014</v>
       </c>
       <c r="G100" t="n">
-        <v>36.0600694870596</v>
+        <v>36.0600443365589</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
@@ -3673,13 +3673,13 @@
         <v>23.4401665572436</v>
       </c>
       <c r="E101" t="n">
-        <v>16.5852141503573</v>
+        <v>16.5845913229917</v>
       </c>
       <c r="F101" t="n">
-        <v>15.4006737562167</v>
+        <v>15.4002587487903</v>
       </c>
       <c r="G101" t="n">
-        <v>17.8180065961208</v>
+        <v>17.8175538641328</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
@@ -3699,13 +3699,13 @@
         <v>19.0283518703757</v>
       </c>
       <c r="E102" t="n">
-        <v>14.7359500699106</v>
+        <v>14.7354413372695</v>
       </c>
       <c r="F102" t="n">
-        <v>13.5355059230992</v>
+        <v>13.5349658765347</v>
       </c>
       <c r="G102" t="n">
-        <v>16.064549382751</v>
+        <v>16.0638228988241</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -3725,13 +3725,13 @@
         <v>26.3362915517053</v>
       </c>
       <c r="E103" t="n">
-        <v>14.7219572796789</v>
+        <v>14.7217012094587</v>
       </c>
       <c r="F103" t="n">
-        <v>11.9751886983013</v>
+        <v>11.9750135242393</v>
       </c>
       <c r="G103" t="n">
-        <v>18.0340327348636</v>
+        <v>18.0337642666783</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -3751,13 +3751,13 @@
         <v>25.4215162934833</v>
       </c>
       <c r="E104" t="n">
-        <v>16.0477901778116</v>
+        <v>16.0475163469696</v>
       </c>
       <c r="F104" t="n">
-        <v>13.2278851480919</v>
+        <v>13.2276628142617</v>
       </c>
       <c r="G104" t="n">
-        <v>18.2809436259971</v>
+        <v>18.2806697248013</v>
       </c>
       <c r="H104" t="s">
         <v>32</v>
@@ -3777,13 +3777,13 @@
         <v>32.4255499979974</v>
       </c>
       <c r="E105" t="n">
-        <v>20.1704167181354</v>
+        <v>20.1700324201126</v>
       </c>
       <c r="F105" t="n">
-        <v>17.4885386125035</v>
+        <v>17.4881877327863</v>
       </c>
       <c r="G105" t="n">
-        <v>22.2771287668157</v>
+        <v>22.2769333949558</v>
       </c>
       <c r="H105" t="s">
         <v>32</v>
@@ -3803,13 +3803,13 @@
         <v>8.93168112070907</v>
       </c>
       <c r="E106" t="n">
-        <v>7.87336036275985</v>
+        <v>7.87331100412689</v>
       </c>
       <c r="F106" t="n">
-        <v>7.18140783101512</v>
+        <v>7.18125513450593</v>
       </c>
       <c r="G106" t="n">
-        <v>8.65940442061947</v>
+        <v>8.65921912631359</v>
       </c>
       <c r="H106" t="s">
         <v>32</v>
@@ -3829,13 +3829,13 @@
         <v>5.44409091458289</v>
       </c>
       <c r="E107" t="n">
-        <v>6.90648516744812</v>
+        <v>6.9063217234895</v>
       </c>
       <c r="F107" t="n">
-        <v>5.83795874453608</v>
+        <v>5.83789712196176</v>
       </c>
       <c r="G107" t="n">
-        <v>7.34782797596813</v>
+        <v>7.34742544919072</v>
       </c>
       <c r="H107" t="s">
         <v>32</v>
@@ -3855,13 +3855,13 @@
         <v>12.1659846915072</v>
       </c>
       <c r="E108" t="n">
-        <v>9.92599370038988</v>
+        <v>9.92571354076199</v>
       </c>
       <c r="F108" t="n">
-        <v>9.40476831795081</v>
+        <v>9.40458094847349</v>
       </c>
       <c r="G108" t="n">
-        <v>10.3144280739081</v>
+        <v>10.3140338632642</v>
       </c>
       <c r="H108" t="s">
         <v>32</v>
@@ -3881,13 +3881,13 @@
         <v>11.0121473270952</v>
       </c>
       <c r="E109" t="n">
-        <v>8.87468507799451</v>
+        <v>8.8742577864125</v>
       </c>
       <c r="F109" t="n">
-        <v>7.81362337987093</v>
+        <v>7.81332992108787</v>
       </c>
       <c r="G109" t="n">
-        <v>9.82020040682153</v>
+        <v>9.81957405290518</v>
       </c>
       <c r="H109" t="s">
         <v>32</v>
@@ -3907,13 +3907,13 @@
         <v>9.95442405808427</v>
       </c>
       <c r="E110" t="n">
-        <v>8.61922792704263</v>
+        <v>8.61868220018891</v>
       </c>
       <c r="F110" t="n">
-        <v>7.49119609890306</v>
+        <v>7.49077524708082</v>
       </c>
       <c r="G110" t="n">
-        <v>9.47852558495458</v>
+        <v>9.47775336440964</v>
       </c>
       <c r="H110" t="s">
         <v>32</v>
@@ -3933,13 +3933,13 @@
         <v>11.165387437335</v>
       </c>
       <c r="E111" t="n">
-        <v>8.9434694678701</v>
+        <v>8.94341148626961</v>
       </c>
       <c r="F111" t="n">
-        <v>8.34151838309504</v>
+        <v>8.34152039234982</v>
       </c>
       <c r="G111" t="n">
-        <v>9.79290389804646</v>
+        <v>9.79252006948946</v>
       </c>
       <c r="H111" t="s">
         <v>32</v>
@@ -3959,13 +3959,13 @@
         <v>5.87693123615526</v>
       </c>
       <c r="E112" t="n">
-        <v>7.00398188410566</v>
+        <v>7.00398470522236</v>
       </c>
       <c r="F112" t="n">
-        <v>6.15074422696694</v>
+        <v>6.15074725522777</v>
       </c>
       <c r="G112" t="n">
-        <v>7.30587896013549</v>
+        <v>7.30590402674966</v>
       </c>
       <c r="H112" t="s">
         <v>32</v>
@@ -3985,13 +3985,13 @@
         <v>12.6170593479159</v>
       </c>
       <c r="E113" t="n">
-        <v>9.92109860056496</v>
+        <v>9.92090951288935</v>
       </c>
       <c r="F113" t="n">
-        <v>9.11423836023334</v>
+        <v>9.11418724760051</v>
       </c>
       <c r="G113" t="n">
-        <v>10.6458437496825</v>
+        <v>10.6456379327382</v>
       </c>
       <c r="H113" t="s">
         <v>32</v>
@@ -4011,13 +4011,13 @@
         <v>14.0711123127607</v>
       </c>
       <c r="E114" t="n">
-        <v>11.1832968934929</v>
+        <v>11.1817378151893</v>
       </c>
       <c r="F114" t="n">
-        <v>10.5801280891424</v>
+        <v>10.5787248525467</v>
       </c>
       <c r="G114" t="n">
-        <v>12.3798828461162</v>
+        <v>12.3779823640614</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
@@ -4037,13 +4037,13 @@
         <v>11.7728133832794</v>
       </c>
       <c r="E115" t="n">
-        <v>10.0838032840331</v>
+        <v>10.0824738801775</v>
       </c>
       <c r="F115" t="n">
-        <v>9.12974305377122</v>
+        <v>9.12865237721132</v>
       </c>
       <c r="G115" t="n">
-        <v>11.4406976856886</v>
+        <v>11.4389930054767</v>
       </c>
       <c r="H115" t="s">
         <v>32</v>
@@ -4063,13 +4063,13 @@
         <v>12.6389818436014</v>
       </c>
       <c r="E116" t="n">
-        <v>10.120451431282</v>
+        <v>10.1196650191827</v>
       </c>
       <c r="F116" t="n">
-        <v>9.49559271121279</v>
+        <v>9.49490268774355</v>
       </c>
       <c r="G116" t="n">
-        <v>10.7388323200712</v>
+        <v>10.7378681666994</v>
       </c>
       <c r="H116" t="s">
         <v>32</v>
@@ -4089,13 +4089,13 @@
         <v>11.9966968494656</v>
       </c>
       <c r="E117" t="n">
-        <v>10.1931144891216</v>
+        <v>10.1918453024456</v>
       </c>
       <c r="F117" t="n">
-        <v>9.52089189313892</v>
+        <v>9.51978511053142</v>
       </c>
       <c r="G117" t="n">
-        <v>10.808551129888</v>
+        <v>10.8072265665949</v>
       </c>
       <c r="H117" t="s">
         <v>32</v>
@@ -4115,13 +4115,13 @@
         <v>18.2559280301576</v>
       </c>
       <c r="E118" t="n">
-        <v>12.5907379584604</v>
+        <v>12.5888988484704</v>
       </c>
       <c r="F118" t="n">
-        <v>11.0988408123501</v>
+        <v>11.0973690628321</v>
       </c>
       <c r="G118" t="n">
-        <v>14.088866283339</v>
+        <v>14.0866927982447</v>
       </c>
       <c r="H118" t="s">
         <v>32</v>
@@ -4141,13 +4141,13 @@
         <v>16.3271209545759</v>
       </c>
       <c r="E119" t="n">
-        <v>11.2562478571781</v>
+        <v>11.2548834169295</v>
       </c>
       <c r="F119" t="n">
-        <v>9.9966556484751</v>
+        <v>9.99571974062496</v>
       </c>
       <c r="G119" t="n">
-        <v>12.9339406814938</v>
+        <v>12.9321385954469</v>
       </c>
       <c r="H119" t="s">
         <v>32</v>
@@ -4167,13 +4167,13 @@
         <v>8.49793857575429</v>
       </c>
       <c r="E120" t="n">
-        <v>9.46279830436606</v>
+        <v>9.46163737665415</v>
       </c>
       <c r="F120" t="n">
-        <v>8.52117408304787</v>
+        <v>8.5202454364337</v>
       </c>
       <c r="G120" t="n">
-        <v>10.2235673996977</v>
+        <v>10.2222157636149</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
@@ -4193,13 +4193,13 @@
         <v>10.1730040827975</v>
       </c>
       <c r="E121" t="n">
-        <v>10.3785893686963</v>
+        <v>10.3782317484478</v>
       </c>
       <c r="F121" t="n">
-        <v>9.62494847481526</v>
+        <v>9.62452438325374</v>
       </c>
       <c r="G121" t="n">
-        <v>11.1658269869183</v>
+        <v>11.1651131270239</v>
       </c>
       <c r="H121" t="s">
         <v>32</v>
@@ -4219,13 +4219,13 @@
         <v>15.6418248905971</v>
       </c>
       <c r="E122" t="n">
-        <v>12.1504679363389</v>
+        <v>12.1486132140315</v>
       </c>
       <c r="F122" t="n">
-        <v>10.3462958195813</v>
+        <v>10.3448872451022</v>
       </c>
       <c r="G122" t="n">
-        <v>14.1741795109124</v>
+        <v>14.1717840187941</v>
       </c>
       <c r="H122" t="s">
         <v>32</v>
@@ -4245,13 +4245,13 @@
         <v>13.9654448103878</v>
       </c>
       <c r="E123" t="n">
-        <v>11.9603491797744</v>
+        <v>11.958589288673</v>
       </c>
       <c r="F123" t="n">
-        <v>10.2928677910913</v>
+        <v>10.291552312738</v>
       </c>
       <c r="G123" t="n">
-        <v>13.8483628977667</v>
+        <v>13.8461875132216</v>
       </c>
       <c r="H123" t="s">
         <v>32</v>
@@ -4271,13 +4271,13 @@
         <v>9.05726730395185</v>
       </c>
       <c r="E124" t="n">
-        <v>9.47583071392165</v>
+        <v>9.47524501522292</v>
       </c>
       <c r="F124" t="n">
-        <v>8.64365098414657</v>
+        <v>8.64315372569513</v>
       </c>
       <c r="G124" t="n">
-        <v>10.607149220066</v>
+        <v>10.6064189294871</v>
       </c>
       <c r="H124" t="s">
         <v>32</v>
@@ -4297,13 +4297,13 @@
         <v>14.9776330111922</v>
       </c>
       <c r="E125" t="n">
-        <v>11.1253874982275</v>
+        <v>11.123752852757</v>
       </c>
       <c r="F125" t="n">
-        <v>9.06876740651273</v>
+        <v>9.06767762248069</v>
       </c>
       <c r="G125" t="n">
-        <v>13.7203787636666</v>
+        <v>13.718089561436</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
@@ -4323,13 +4323,13 @@
         <v>16.9877973816321</v>
       </c>
       <c r="E126" t="n">
-        <v>14.079643213621</v>
+        <v>14.0773724847013</v>
       </c>
       <c r="F126" t="n">
-        <v>12.6053786410495</v>
+        <v>12.6034348425175</v>
       </c>
       <c r="G126" t="n">
-        <v>15.5756085015206</v>
+        <v>15.5729743145546</v>
       </c>
       <c r="H126" t="s">
         <v>32</v>
@@ -4349,13 +4349,13 @@
         <v>5.87501958616809</v>
       </c>
       <c r="E127" t="n">
-        <v>7.03799629451549</v>
+        <v>7.03797223526055</v>
       </c>
       <c r="F127" t="n">
-        <v>5.15392344305701</v>
+        <v>5.15391107668518</v>
       </c>
       <c r="G127" t="n">
-        <v>7.92774626692551</v>
+        <v>7.92767229217134</v>
       </c>
       <c r="H127" t="s">
         <v>32</v>
@@ -4375,13 +4375,13 @@
         <v>8.18319250394921</v>
       </c>
       <c r="E128" t="n">
-        <v>8.49150804744932</v>
+        <v>8.49136535367666</v>
       </c>
       <c r="F128" t="n">
-        <v>7.78163797072648</v>
+        <v>7.78143496642247</v>
       </c>
       <c r="G128" t="n">
-        <v>9.64191734342103</v>
+        <v>9.64154995777778</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -4401,13 +4401,13 @@
         <v>8.02271414479509</v>
       </c>
       <c r="E129" t="n">
-        <v>7.79838547209511</v>
+        <v>7.79764311322663</v>
       </c>
       <c r="F129" t="n">
-        <v>5.59088019804449</v>
+        <v>5.59072231785262</v>
       </c>
       <c r="G129" t="n">
-        <v>8.89281012884658</v>
+        <v>8.89192325238764</v>
       </c>
       <c r="H129" t="s">
         <v>32</v>
@@ -4427,13 +4427,13 @@
         <v>5.35759942570604</v>
       </c>
       <c r="E130" t="n">
-        <v>7.58901172496195</v>
+        <v>7.58865973267814</v>
       </c>
       <c r="F130" t="n">
-        <v>6.69152932744248</v>
+        <v>6.69133676594117</v>
       </c>
       <c r="G130" t="n">
-        <v>8.30007108647737</v>
+        <v>8.29954147040871</v>
       </c>
       <c r="H130" t="s">
         <v>32</v>
@@ -4453,13 +4453,13 @@
         <v>5.98857818954951</v>
       </c>
       <c r="E131" t="n">
-        <v>7.90282346870362</v>
+        <v>7.90226007687829</v>
       </c>
       <c r="F131" t="n">
-        <v>6.14275307964192</v>
+        <v>6.14255458787545</v>
       </c>
       <c r="G131" t="n">
-        <v>8.83927702965707</v>
+        <v>8.83838370181684</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -4479,13 +4479,13 @@
         <v>12.7628509570749</v>
       </c>
       <c r="E132" t="n">
-        <v>10.5798315162297</v>
+        <v>10.5784881903562</v>
       </c>
       <c r="F132" t="n">
-        <v>9.14554432937393</v>
+        <v>9.14475230136577</v>
       </c>
       <c r="G132" t="n">
-        <v>13.3043393496476</v>
+        <v>13.3024252754781</v>
       </c>
       <c r="H132" t="s">
         <v>32</v>
@@ -4505,13 +4505,13 @@
         <v>16.1278443783672</v>
       </c>
       <c r="E133" t="n">
-        <v>10.4510677991091</v>
+        <v>10.450866233791</v>
       </c>
       <c r="F133" t="n">
-        <v>8.81574815118836</v>
+        <v>8.81554688180427</v>
       </c>
       <c r="G133" t="n">
-        <v>13.0646122925277</v>
+        <v>13.0644071098575</v>
       </c>
       <c r="H133" t="s">
         <v>32</v>
@@ -4531,13 +4531,13 @@
         <v>11.9360340589479</v>
       </c>
       <c r="E134" t="n">
-        <v>9.97224529674133</v>
+        <v>9.97214466719822</v>
       </c>
       <c r="F134" t="n">
-        <v>9.49095274937417</v>
+        <v>9.49088558882306</v>
       </c>
       <c r="G134" t="n">
-        <v>10.4393372655979</v>
+        <v>10.4392258861297</v>
       </c>
       <c r="H134" t="s">
         <v>32</v>
@@ -4557,13 +4557,13 @@
         <v>14.9471840560767</v>
       </c>
       <c r="E135" t="n">
-        <v>10.8181697335086</v>
+        <v>10.8180556759615</v>
       </c>
       <c r="F135" t="n">
-        <v>9.91477286427664</v>
+        <v>9.91466486764148</v>
       </c>
       <c r="G135" t="n">
-        <v>12.2584627842663</v>
+        <v>12.2582936207316</v>
       </c>
       <c r="H135" t="s">
         <v>32</v>
@@ -4583,13 +4583,13 @@
         <v>10.6192546644385</v>
       </c>
       <c r="E136" t="n">
-        <v>8.96938715066585</v>
+        <v>8.9693558976453</v>
       </c>
       <c r="F136" t="n">
-        <v>7.81975609127039</v>
+        <v>7.81980001970612</v>
       </c>
       <c r="G136" t="n">
-        <v>10.0679017043155</v>
+        <v>10.067812079403</v>
       </c>
       <c r="H136" t="s">
         <v>32</v>
@@ -4609,13 +4609,13 @@
         <v>9.3657848706406</v>
       </c>
       <c r="E137" t="n">
-        <v>8.44753185375976</v>
+        <v>8.44750164307379</v>
       </c>
       <c r="F137" t="n">
-        <v>7.39543163776739</v>
+        <v>7.39547747358586</v>
       </c>
       <c r="G137" t="n">
-        <v>9.56635551952195</v>
+        <v>9.56626639200886</v>
       </c>
       <c r="H137" t="s">
         <v>32</v>
@@ -4635,13 +4635,13 @@
         <v>16.088339637651</v>
       </c>
       <c r="E138" t="n">
-        <v>11.1430901615221</v>
+        <v>11.1429289779176</v>
       </c>
       <c r="F138" t="n">
-        <v>10.2492054775012</v>
+        <v>10.2490755938727</v>
       </c>
       <c r="G138" t="n">
-        <v>12.5684183844955</v>
+        <v>12.5681735360408</v>
       </c>
       <c r="H138" t="s">
         <v>32</v>
@@ -4661,13 +4661,13 @@
         <v>179.356279111309</v>
       </c>
       <c r="E139" t="n">
-        <v>128.580598982959</v>
+        <v>245.96649836061</v>
       </c>
       <c r="F139" t="n">
-        <v>127.371274033305</v>
+        <v>244.6419997682</v>
       </c>
       <c r="G139" t="n">
-        <v>129.819497220814</v>
+        <v>247.211843332143</v>
       </c>
       <c r="H139" t="s">
         <v>34</v>
@@ -4687,13 +4687,13 @@
         <v>202.366129127715</v>
       </c>
       <c r="E140" t="n">
-        <v>147.348640013451</v>
+        <v>265.133381976208</v>
       </c>
       <c r="F140" t="n">
-        <v>135.795226298807</v>
+        <v>253.709540318597</v>
       </c>
       <c r="G140" t="n">
-        <v>155.759938073311</v>
+        <v>273.585050608415</v>
       </c>
       <c r="H140" t="s">
         <v>34</v>
@@ -4713,13 +4713,13 @@
         <v>179.552607056824</v>
       </c>
       <c r="E141" t="n">
-        <v>129.395676401049</v>
+        <v>246.828506701178</v>
       </c>
       <c r="F141" t="n">
-        <v>126.886467832045</v>
+        <v>244.257923508812</v>
       </c>
       <c r="G141" t="n">
-        <v>131.81162693171</v>
+        <v>247.923366978188</v>
       </c>
       <c r="H141" t="s">
         <v>34</v>
@@ -4739,13 +4739,13 @@
         <v>190.391832637154</v>
       </c>
       <c r="E142" t="n">
-        <v>131.231928106986</v>
+        <v>248.353757823245</v>
       </c>
       <c r="F142" t="n">
-        <v>128.28781582722</v>
+        <v>241.844985140029</v>
       </c>
       <c r="G142" t="n">
-        <v>141.215431322277</v>
+        <v>258.644652162536</v>
       </c>
       <c r="H142" t="s">
         <v>34</v>
@@ -4765,13 +4765,13 @@
         <v>190.034513542163</v>
       </c>
       <c r="E143" t="n">
-        <v>138.099538448305</v>
+        <v>255.763563855119</v>
       </c>
       <c r="F143" t="n">
-        <v>133.489660556686</v>
+        <v>251.41387924001</v>
       </c>
       <c r="G143" t="n">
-        <v>143.754886026782</v>
+        <v>261.263158625041</v>
       </c>
       <c r="H143" t="s">
         <v>34</v>
@@ -4791,13 +4791,13 @@
         <v>183.904598142832</v>
       </c>
       <c r="E144" t="n">
-        <v>133.99533601797</v>
+        <v>251.379901570225</v>
       </c>
       <c r="F144" t="n">
-        <v>130.323407069258</v>
+        <v>247.261349119482</v>
       </c>
       <c r="G144" t="n">
-        <v>138.698007774161</v>
+        <v>255.853122426006</v>
       </c>
       <c r="H144" t="s">
         <v>34</v>
@@ -4817,16 +4817,16 @@
         <v>185.02407650755</v>
       </c>
       <c r="E145" t="n">
-        <v>127.802325584419</v>
+        <v>235.250830382081</v>
       </c>
       <c r="F145" t="n">
-        <v>126.396033951879</v>
+        <v>233.412018259808</v>
       </c>
       <c r="G145" t="n">
-        <v>130.239760953621</v>
+        <v>237.977028086128</v>
       </c>
       <c r="H145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
@@ -4843,13 +4843,13 @@
         <v>173.636506645248</v>
       </c>
       <c r="E146" t="n">
-        <v>124.105366188623</v>
+        <v>241.112097703445</v>
       </c>
       <c r="F146" t="n">
-        <v>122.086533826494</v>
+        <v>239.577581633723</v>
       </c>
       <c r="G146" t="n">
-        <v>127.129406581385</v>
+        <v>244.050705987588</v>
       </c>
       <c r="H146" t="s">
         <v>34</v>
@@ -4869,16 +4869,16 @@
         <v>179.655344165096</v>
       </c>
       <c r="E147" t="n">
-        <v>125.754205089553</v>
+        <v>239.734054858289</v>
       </c>
       <c r="F147" t="n">
-        <v>124.025280678264</v>
+        <v>238.082752196193</v>
       </c>
       <c r="G147" t="n">
-        <v>127.300831379645</v>
+        <v>241.683505017678</v>
       </c>
       <c r="H147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
@@ -4895,16 +4895,16 @@
         <v>186.608335648518</v>
       </c>
       <c r="E148" t="n">
-        <v>127.219406392716</v>
+        <v>232.612668284274</v>
       </c>
       <c r="F148" t="n">
-        <v>125.57642024694</v>
+        <v>230.541594709192</v>
       </c>
       <c r="G148" t="n">
-        <v>130.523506837358</v>
+        <v>235.663236299392</v>
       </c>
       <c r="H148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
@@ -4921,16 +4921,16 @@
         <v>203.540876880558</v>
       </c>
       <c r="E149" t="n">
-        <v>127.887746161825</v>
+        <v>226.17889292491</v>
       </c>
       <c r="F149" t="n">
-        <v>122.996694261753</v>
+        <v>214.155245922472</v>
       </c>
       <c r="G149" t="n">
-        <v>148.123246959443</v>
+        <v>248.846981383723</v>
       </c>
       <c r="H149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
@@ -4947,13 +4947,13 @@
         <v>178.563509905753</v>
       </c>
       <c r="E150" t="n">
-        <v>125.72675634188</v>
+        <v>241.595041094003</v>
       </c>
       <c r="F150" t="n">
-        <v>123.966723362737</v>
+        <v>240.430497214091</v>
       </c>
       <c r="G150" t="n">
-        <v>127.450791219166</v>
+        <v>244.042243354774</v>
       </c>
       <c r="H150" t="s">
         <v>34</v>
@@ -4973,16 +4973,16 @@
         <v>198.625082762232</v>
       </c>
       <c r="E151" t="n">
-        <v>135.406324509861</v>
+        <v>238.606127245552</v>
       </c>
       <c r="F151" t="n">
-        <v>125.25829304798</v>
+        <v>221.871158361891</v>
       </c>
       <c r="G151" t="n">
-        <v>146.814412725939</v>
+        <v>249.586509296805</v>
       </c>
       <c r="H151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
@@ -4999,13 +4999,13 @@
         <v>176.307390526538</v>
       </c>
       <c r="E152" t="n">
-        <v>125.295592956671</v>
+        <v>242.625658002704</v>
       </c>
       <c r="F152" t="n">
-        <v>124.438587202791</v>
+        <v>241.900694085872</v>
       </c>
       <c r="G152" t="n">
-        <v>125.79709888796</v>
+        <v>243.403890394594</v>
       </c>
       <c r="H152" t="s">
         <v>34</v>
@@ -5025,13 +5025,13 @@
         <v>175.258512799799</v>
       </c>
       <c r="E153" t="n">
-        <v>123.874418752843</v>
+        <v>241.511643988071</v>
       </c>
       <c r="F153" t="n">
-        <v>123.220030196451</v>
+        <v>240.58024970318</v>
       </c>
       <c r="G153" t="n">
-        <v>124.932479165939</v>
+        <v>242.667300567593</v>
       </c>
       <c r="H153" t="s">
         <v>34</v>
@@ -5051,16 +5051,16 @@
         <v>182.81271327801</v>
       </c>
       <c r="E154" t="n">
-        <v>126.590503263988</v>
+        <v>236.20338313896</v>
       </c>
       <c r="F154" t="n">
-        <v>125.713710940214</v>
+        <v>234.882178952106</v>
       </c>
       <c r="G154" t="n">
-        <v>127.752053729725</v>
+        <v>237.679966318635</v>
       </c>
       <c r="H154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
@@ -5077,16 +5077,16 @@
         <v>175.946430445683</v>
       </c>
       <c r="E155" t="n">
-        <v>123.086059400082</v>
+        <v>239.732916264847</v>
       </c>
       <c r="F155" t="n">
-        <v>122.429926478451</v>
+        <v>237.23102861453</v>
       </c>
       <c r="G155" t="n">
-        <v>124.551321102661</v>
+        <v>240.472245351084</v>
       </c>
       <c r="H155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
@@ -5103,16 +5103,16 @@
         <v>181.107176158757</v>
       </c>
       <c r="E156" t="n">
-        <v>125.38856125937</v>
+        <v>235.832167920917</v>
       </c>
       <c r="F156" t="n">
-        <v>124.68582255512</v>
+        <v>234.496620024111</v>
       </c>
       <c r="G156" t="n">
-        <v>126.148450774424</v>
+        <v>237.001634438867</v>
       </c>
       <c r="H156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
@@ -5129,13 +5129,13 @@
         <v>177.119568829516</v>
       </c>
       <c r="E157" t="n">
-        <v>126.415681444064</v>
+        <v>244.00019910143</v>
       </c>
       <c r="F157" t="n">
-        <v>125.493046059388</v>
+        <v>243.207637364326</v>
       </c>
       <c r="G157" t="n">
-        <v>127.636198418273</v>
+        <v>245.22346418894</v>
       </c>
       <c r="H157" t="s">
         <v>34</v>
@@ -5155,16 +5155,16 @@
         <v>179.079713445789</v>
       </c>
       <c r="E158" t="n">
-        <v>124.904004256052</v>
+        <v>238.254096111143</v>
       </c>
       <c r="F158" t="n">
-        <v>124.313162585106</v>
+        <v>236.965296424808</v>
       </c>
       <c r="G158" t="n">
-        <v>125.582929374158</v>
+        <v>239.494066926046</v>
       </c>
       <c r="H158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
@@ -5181,16 +5181,16 @@
         <v>221.887284348272</v>
       </c>
       <c r="E159" t="n">
-        <v>126.142154672992</v>
+        <v>192.407036584204</v>
       </c>
       <c r="F159" t="n">
-        <v>122.485275388968</v>
+        <v>178.466215278264</v>
       </c>
       <c r="G159" t="n">
-        <v>132.317822395616</v>
+        <v>222.901924527477</v>
       </c>
       <c r="H159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
@@ -5207,16 +5207,16 @@
         <v>172.516844251249</v>
       </c>
       <c r="E160" t="n">
-        <v>123.695759875988</v>
+        <v>175.589610481005</v>
       </c>
       <c r="F160" t="n">
-        <v>122.709646243335</v>
+        <v>171.912883273195</v>
       </c>
       <c r="G160" t="n">
-        <v>130.994852954585</v>
+        <v>183.271441061739</v>
       </c>
       <c r="H160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
@@ -5233,16 +5233,16 @@
         <v>188.283886743851</v>
       </c>
       <c r="E161" t="n">
-        <v>125.625752733121</v>
+        <v>165.828398865779</v>
       </c>
       <c r="F161" t="n">
-        <v>122.206204943724</v>
+        <v>147.521563181542</v>
       </c>
       <c r="G161" t="n">
-        <v>148.155067735575</v>
+        <v>196.276124666199</v>
       </c>
       <c r="H161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
@@ -5259,16 +5259,16 @@
         <v>191.441264272653</v>
       </c>
       <c r="E162" t="n">
-        <v>123.949633931104</v>
+        <v>134.999833001297</v>
       </c>
       <c r="F162" t="n">
-        <v>87.1141464549239</v>
+        <v>86.9576455052392</v>
       </c>
       <c r="G162" t="n">
-        <v>153.282192216719</v>
+        <v>197.909059083738</v>
       </c>
       <c r="H162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
@@ -5285,16 +5285,16 @@
         <v>219.202924483625</v>
       </c>
       <c r="E163" t="n">
-        <v>129.486201527197</v>
+        <v>201.735762906271</v>
       </c>
       <c r="F163" t="n">
-        <v>123.519219827884</v>
+        <v>181.01369984752</v>
       </c>
       <c r="G163" t="n">
-        <v>145.321311472174</v>
+        <v>221.759265811632</v>
       </c>
       <c r="H163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
@@ -5311,16 +5311,16 @@
         <v>192.95840048963</v>
       </c>
       <c r="E164" t="n">
-        <v>137.191293078969</v>
+        <v>235.701178496696</v>
       </c>
       <c r="F164" t="n">
-        <v>128.577061676377</v>
+        <v>213.320546837358</v>
       </c>
       <c r="G164" t="n">
-        <v>149.787599393944</v>
+        <v>248.532232224112</v>
       </c>
       <c r="H164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
@@ -5337,13 +5337,13 @@
         <v>228.503185219497</v>
       </c>
       <c r="E165" t="n">
-        <v>231.964418543813</v>
+        <v>349.893082163424</v>
       </c>
       <c r="F165" t="n">
-        <v>179.968518234784</v>
+        <v>297.8583026267</v>
       </c>
       <c r="G165" t="n">
-        <v>278.399417632874</v>
+        <v>394.413481593979</v>
       </c>
       <c r="H165" t="s">
         <v>34</v>
@@ -5363,13 +5363,13 @@
         <v>225.38042043503</v>
       </c>
       <c r="E166" t="n">
-        <v>171.174269850207</v>
+        <v>289.041474243071</v>
       </c>
       <c r="F166" t="n">
-        <v>156.269704530353</v>
+        <v>274.140847174648</v>
       </c>
       <c r="G166" t="n">
-        <v>181.56374133064</v>
+        <v>299.515018543607</v>
       </c>
       <c r="H166" t="s">
         <v>34</v>
@@ -5389,13 +5389,13 @@
         <v>181.892776823705</v>
       </c>
       <c r="E167" t="n">
-        <v>161.902149404004</v>
+        <v>246.735252000065</v>
       </c>
       <c r="F167" t="n">
-        <v>158.266522914495</v>
+        <v>237.766468566786</v>
       </c>
       <c r="G167" t="n">
-        <v>164.953168517592</v>
+        <v>261.830559699957</v>
       </c>
       <c r="H167" t="s">
         <v>34</v>
@@ -5415,16 +5415,16 @@
         <v>205.003906799633</v>
       </c>
       <c r="E168" t="n">
-        <v>167.173086037441</v>
+        <v>205.736664219949</v>
       </c>
       <c r="F168" t="n">
-        <v>103.906193999449</v>
+        <v>109.688901811201</v>
       </c>
       <c r="G168" t="n">
-        <v>208.342916711545</v>
+        <v>274.365799749908</v>
       </c>
       <c r="H168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169">
@@ -5441,13 +5441,13 @@
         <v>214.161616328989</v>
       </c>
       <c r="E169" t="n">
-        <v>154.26626745233</v>
+        <v>270.209608843414</v>
       </c>
       <c r="F169" t="n">
-        <v>135.101046802013</v>
+        <v>246.80272185386</v>
       </c>
       <c r="G169" t="n">
-        <v>165.200148653038</v>
+        <v>282.967280412859</v>
       </c>
       <c r="H169" t="s">
         <v>34</v>
@@ -5467,16 +5467,16 @@
         <v>206.158779073269</v>
       </c>
       <c r="E170" t="n">
-        <v>151.534300160808</v>
+        <v>224.97578929754</v>
       </c>
       <c r="F170" t="n">
-        <v>129.78013943937</v>
+        <v>189.939758238015</v>
       </c>
       <c r="G170" t="n">
-        <v>168.458287017932</v>
+        <v>252.011180546295</v>
       </c>
       <c r="H170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
@@ -5493,13 +5493,13 @@
         <v>187.803039831624</v>
       </c>
       <c r="E171" t="n">
-        <v>159.88569540871</v>
+        <v>260.210927383765</v>
       </c>
       <c r="F171" t="n">
-        <v>141.187882117292</v>
+        <v>243.570137635797</v>
       </c>
       <c r="G171" t="n">
-        <v>166.597802122884</v>
+        <v>276.036752808935</v>
       </c>
       <c r="H171" t="s">
         <v>34</v>
@@ -5519,16 +5519,16 @@
         <v>356.977583341562</v>
       </c>
       <c r="E172" t="n">
-        <v>376.333364329223</v>
+        <v>376.306356755938</v>
       </c>
       <c r="F172" t="n">
-        <v>266.232467466208</v>
+        <v>266.229569943467</v>
       </c>
       <c r="G172" t="n">
-        <v>457.15296572388</v>
+        <v>456.987404204181</v>
       </c>
       <c r="H172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
@@ -5545,16 +5545,16 @@
         <v>309.492230663303</v>
       </c>
       <c r="E173" t="n">
-        <v>208.399554558472</v>
+        <v>208.389890709892</v>
       </c>
       <c r="F173" t="n">
-        <v>172.342461556108</v>
+        <v>172.341774968115</v>
       </c>
       <c r="G173" t="n">
-        <v>271.986285827517</v>
+        <v>271.973321109423</v>
       </c>
       <c r="H173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174">
@@ -5571,16 +5571,16 @@
         <v>221.226317459652</v>
       </c>
       <c r="E174" t="n">
-        <v>219.891251754013</v>
+        <v>219.895033101705</v>
       </c>
       <c r="F174" t="n">
-        <v>208.173704068054</v>
+        <v>208.18000213283</v>
       </c>
       <c r="G174" t="n">
-        <v>229.237483853213</v>
+        <v>229.233508120952</v>
       </c>
       <c r="H174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175">
@@ -5597,16 +5597,16 @@
         <v>322.470807397839</v>
       </c>
       <c r="E175" t="n">
-        <v>214.047149868979</v>
+        <v>214.051579686843</v>
       </c>
       <c r="F175" t="n">
-        <v>140.4106366644</v>
+        <v>140.413371675244</v>
       </c>
       <c r="G175" t="n">
-        <v>336.85295243197</v>
+        <v>336.786835927268</v>
       </c>
       <c r="H175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176">
@@ -5623,16 +5623,16 @@
         <v>364.27249823318</v>
       </c>
       <c r="E176" t="n">
-        <v>255.315037107963</v>
+        <v>255.313491646337</v>
       </c>
       <c r="F176" t="n">
-        <v>202.98771582368</v>
+        <v>202.987135127163</v>
       </c>
       <c r="G176" t="n">
-        <v>333.803999017862</v>
+        <v>333.796525466582</v>
       </c>
       <c r="H176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
@@ -5649,16 +5649,16 @@
         <v>333.09185525422</v>
       </c>
       <c r="E177" t="n">
-        <v>318.732107720904</v>
+        <v>318.732042765974</v>
       </c>
       <c r="F177" t="n">
-        <v>313.937087782052</v>
+        <v>313.936877258075</v>
       </c>
       <c r="G177" t="n">
-        <v>322.280387237332</v>
+        <v>322.280151208739</v>
       </c>
       <c r="H177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178">
@@ -5675,16 +5675,16 @@
         <v>397.912911962864</v>
       </c>
       <c r="E178" t="n">
-        <v>371.453277158415</v>
+        <v>371.450525660139</v>
       </c>
       <c r="F178" t="n">
-        <v>252.717916195132</v>
+        <v>252.716300929896</v>
       </c>
       <c r="G178" t="n">
-        <v>476.779469108666</v>
+        <v>476.755168488945</v>
       </c>
       <c r="H178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179">
@@ -5701,16 +5701,16 @@
         <v>319.157968163731</v>
       </c>
       <c r="E179" t="n">
-        <v>216.446762213291</v>
+        <v>216.446640393783</v>
       </c>
       <c r="F179" t="n">
-        <v>165.776226101116</v>
+        <v>165.776525629371</v>
       </c>
       <c r="G179" t="n">
-        <v>272.284846697918</v>
+        <v>272.278225240669</v>
       </c>
       <c r="H179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180">
@@ -5727,13 +5727,13 @@
         <v>172.875824036483</v>
       </c>
       <c r="E180" t="n">
-        <v>117.371143209089</v>
+        <v>117.370788638771</v>
       </c>
       <c r="F180" t="n">
-        <v>76.9422279761847</v>
+        <v>76.942077604308</v>
       </c>
       <c r="G180" t="n">
-        <v>146.082155983687</v>
+        <v>146.081033223321</v>
       </c>
       <c r="H180" t="s">
         <v>33</v>
@@ -5753,16 +5753,16 @@
         <v>209.291992845727</v>
       </c>
       <c r="E181" t="n">
-        <v>121.543367038988</v>
+        <v>121.542746743059</v>
       </c>
       <c r="F181" t="n">
-        <v>94.0586349567272</v>
+        <v>94.058635047369</v>
       </c>
       <c r="G181" t="n">
-        <v>146.733178204122</v>
+        <v>146.732958662655</v>
       </c>
       <c r="H181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
@@ -5779,16 +5779,16 @@
         <v>212.393053421831</v>
       </c>
       <c r="E182" t="n">
-        <v>150.348119385278</v>
+        <v>150.349314482178</v>
       </c>
       <c r="F182" t="n">
-        <v>122.961346304642</v>
+        <v>122.961480840129</v>
       </c>
       <c r="G182" t="n">
-        <v>181.609254432817</v>
+        <v>181.613464481976</v>
       </c>
       <c r="H182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183">
@@ -5805,13 +5805,13 @@
         <v>189.665266499212</v>
       </c>
       <c r="E183" t="n">
-        <v>116.713068181656</v>
+        <v>116.713166025422</v>
       </c>
       <c r="F183" t="n">
-        <v>101.246668472398</v>
+        <v>101.246644487016</v>
       </c>
       <c r="G183" t="n">
-        <v>130.583587140531</v>
+        <v>130.583245045251</v>
       </c>
       <c r="H183" t="s">
         <v>33</v>
@@ -5831,16 +5831,16 @@
         <v>308.709939651602</v>
       </c>
       <c r="E184" t="n">
-        <v>160.117868178288</v>
+        <v>160.117153740845</v>
       </c>
       <c r="F184" t="n">
-        <v>129.337681756358</v>
+        <v>129.337176223384</v>
       </c>
       <c r="G184" t="n">
-        <v>184.472784778516</v>
+        <v>184.468633680179</v>
       </c>
       <c r="H184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185">
@@ -5857,13 +5857,13 @@
         <v>168.683057901576</v>
       </c>
       <c r="E185" t="n">
-        <v>111.910471181943</v>
+        <v>111.910471107954</v>
       </c>
       <c r="F185" t="n">
-        <v>84.8423118836564</v>
+        <v>84.8418084534842</v>
       </c>
       <c r="G185" t="n">
-        <v>126.867295760603</v>
+        <v>126.867762834569</v>
       </c>
       <c r="H185" t="s">
         <v>33</v>
@@ -5883,13 +5883,13 @@
         <v>163.506465332321</v>
       </c>
       <c r="E186" t="n">
-        <v>110.109071251421</v>
+        <v>110.10897575391</v>
       </c>
       <c r="F186" t="n">
-        <v>79.3958749392098</v>
+        <v>79.3952085082542</v>
       </c>
       <c r="G186" t="n">
-        <v>135.505954891844</v>
+        <v>135.505734620638</v>
       </c>
       <c r="H186" t="s">
         <v>33</v>
@@ -5909,16 +5909,16 @@
         <v>172.781108709953</v>
       </c>
       <c r="E187" t="n">
-        <v>129.357611540601</v>
+        <v>129.358275406286</v>
       </c>
       <c r="F187" t="n">
-        <v>76.2550424965101</v>
+        <v>76.2544090413425</v>
       </c>
       <c r="G187" t="n">
-        <v>146.939365297658</v>
+        <v>146.942377075015</v>
       </c>
       <c r="H187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
@@ -5935,16 +5935,16 @@
         <v>174.617139042421</v>
       </c>
       <c r="E188" t="n">
-        <v>152.719510628782</v>
+        <v>152.719731023571</v>
       </c>
       <c r="F188" t="n">
-        <v>150.082955080384</v>
+        <v>150.082943375508</v>
       </c>
       <c r="G188" t="n">
-        <v>155.133438128691</v>
+        <v>155.133630125334</v>
       </c>
       <c r="H188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189">
@@ -5961,16 +5961,16 @@
         <v>212.621615535785</v>
       </c>
       <c r="E189" t="n">
-        <v>168.229985101753</v>
+        <v>168.230200553992</v>
       </c>
       <c r="F189" t="n">
-        <v>141.071981939174</v>
+        <v>141.073116292776</v>
       </c>
       <c r="G189" t="n">
-        <v>202.651904987546</v>
+        <v>202.616319430578</v>
       </c>
       <c r="H189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190">
@@ -5987,13 +5987,13 @@
         <v>158.165261719018</v>
       </c>
       <c r="E190" t="n">
-        <v>112.95670695445</v>
+        <v>112.956874507835</v>
       </c>
       <c r="F190" t="n">
-        <v>108.958941804741</v>
+        <v>108.958904360982</v>
       </c>
       <c r="G190" t="n">
-        <v>126.231238448827</v>
+        <v>126.232362549422</v>
       </c>
       <c r="H190" t="s">
         <v>33</v>
@@ -6013,16 +6013,16 @@
         <v>375.82350191697</v>
       </c>
       <c r="E191" t="n">
-        <v>450.115287503161</v>
+        <v>450.089203138524</v>
       </c>
       <c r="F191" t="n">
-        <v>383.738083628025</v>
+        <v>383.725628047186</v>
       </c>
       <c r="G191" t="n">
-        <v>489.772988227533</v>
+        <v>489.772759905546</v>
       </c>
       <c r="H191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192">
@@ -6039,16 +6039,16 @@
         <v>375.828197322927</v>
       </c>
       <c r="E192" t="n">
-        <v>487.541754503743</v>
+        <v>487.535989602054</v>
       </c>
       <c r="F192" t="n">
-        <v>358.577950483248</v>
+        <v>358.565462020051</v>
       </c>
       <c r="G192" t="n">
-        <v>567.700298226523</v>
+        <v>567.698127703472</v>
       </c>
       <c r="H192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193">
@@ -6065,16 +6065,16 @@
         <v>346.759225161665</v>
       </c>
       <c r="E193" t="n">
-        <v>485.260047032209</v>
+        <v>485.26001396729</v>
       </c>
       <c r="F193" t="n">
-        <v>484.360696385475</v>
+        <v>484.360694597399</v>
       </c>
       <c r="G193" t="n">
-        <v>487.413285578807</v>
+        <v>487.41339216917</v>
       </c>
       <c r="H193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194">
@@ -6091,16 +6091,16 @@
         <v>313.654278074531</v>
       </c>
       <c r="E194" t="n">
-        <v>395.250434118341</v>
+        <v>395.24673366437</v>
       </c>
       <c r="F194" t="n">
-        <v>392.777322612212</v>
+        <v>392.77420983822</v>
       </c>
       <c r="G194" t="n">
-        <v>397.004031218776</v>
+        <v>396.999729241456</v>
       </c>
       <c r="H194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195">
@@ -6117,16 +6117,16 @@
         <v>344.61588311531</v>
       </c>
       <c r="E195" t="n">
-        <v>386.248598258941</v>
+        <v>386.241402289302</v>
       </c>
       <c r="F195" t="n">
-        <v>367.919880851677</v>
+        <v>367.90266137661</v>
       </c>
       <c r="G195" t="n">
-        <v>404.21752836313</v>
+        <v>404.212291232855</v>
       </c>
       <c r="H195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196">
@@ -6143,16 +6143,16 @@
         <v>343.504139637731</v>
       </c>
       <c r="E196" t="n">
-        <v>423.001571070635</v>
+        <v>423.000139112457</v>
       </c>
       <c r="F196" t="n">
-        <v>420.850424461687</v>
+        <v>420.843251658427</v>
       </c>
       <c r="G196" t="n">
-        <v>425.738569554282</v>
+        <v>425.737133119685</v>
       </c>
       <c r="H196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197">
@@ -6169,16 +6169,16 @@
         <v>324.657599284574</v>
       </c>
       <c r="E197" t="n">
-        <v>399.121067813071</v>
+        <v>399.115746556738</v>
       </c>
       <c r="F197" t="n">
-        <v>397.357479024787</v>
+        <v>397.353243513168</v>
       </c>
       <c r="G197" t="n">
-        <v>406.661366221222</v>
+        <v>406.649174524335</v>
       </c>
       <c r="H197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198">
@@ -6195,16 +6195,16 @@
         <v>334.787852598681</v>
       </c>
       <c r="E198" t="n">
-        <v>411.75809537843</v>
+        <v>411.740215248681</v>
       </c>
       <c r="F198" t="n">
-        <v>399.317096700888</v>
+        <v>399.313964928437</v>
       </c>
       <c r="G198" t="n">
-        <v>416.871924470308</v>
+        <v>416.863473241926</v>
       </c>
       <c r="H198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199">
@@ -6221,16 +6221,16 @@
         <v>330.675162922178</v>
       </c>
       <c r="E199" t="n">
-        <v>392.009669023354</v>
+        <v>392.007007446315</v>
       </c>
       <c r="F199" t="n">
-        <v>388.136466413077</v>
+        <v>388.136291797748</v>
       </c>
       <c r="G199" t="n">
-        <v>402.839890591371</v>
+        <v>402.833601546833</v>
       </c>
       <c r="H199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200">
@@ -6247,16 +6247,16 @@
         <v>319.229766322539</v>
       </c>
       <c r="E200" t="n">
-        <v>396.749545838558</v>
+        <v>396.744401470029</v>
       </c>
       <c r="F200" t="n">
-        <v>395.56668162301</v>
+        <v>395.562239357256</v>
       </c>
       <c r="G200" t="n">
-        <v>400.521031645428</v>
+        <v>400.512595854968</v>
       </c>
       <c r="H200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201">
@@ -6273,16 +6273,16 @@
         <v>338.424809068191</v>
       </c>
       <c r="E201" t="n">
-        <v>400.54322699936</v>
+        <v>400.538263621469</v>
       </c>
       <c r="F201" t="n">
-        <v>387.263015255756</v>
+        <v>387.245610055053</v>
       </c>
       <c r="G201" t="n">
-        <v>411.259024591439</v>
+        <v>411.244723475634</v>
       </c>
       <c r="H201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202">
@@ -6299,16 +6299,16 @@
         <v>327.131950755446</v>
       </c>
       <c r="E202" t="n">
-        <v>401.332198335907</v>
+        <v>401.327027220345</v>
       </c>
       <c r="F202" t="n">
-        <v>397.887496162612</v>
+        <v>397.883522470638</v>
       </c>
       <c r="G202" t="n">
-        <v>411.096309222824</v>
+        <v>411.08460559359</v>
       </c>
       <c r="H202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203">
@@ -6325,16 +6325,16 @@
         <v>313.592119066046</v>
       </c>
       <c r="E203" t="n">
-        <v>396.335948033701</v>
+        <v>396.333332412188</v>
       </c>
       <c r="F203" t="n">
-        <v>393.624399050899</v>
+        <v>393.622287134723</v>
       </c>
       <c r="G203" t="n">
-        <v>397.886116079276</v>
+        <v>397.882573905195</v>
       </c>
       <c r="H203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204">
@@ -6351,16 +6351,16 @@
         <v>322.965182473757</v>
       </c>
       <c r="E204" t="n">
-        <v>400.42116824336</v>
+        <v>400.417407571242</v>
       </c>
       <c r="F204" t="n">
-        <v>394.476753456313</v>
+        <v>394.475046283499</v>
       </c>
       <c r="G204" t="n">
-        <v>407.359816869065</v>
+        <v>407.354924700065</v>
       </c>
       <c r="H204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205">
@@ -6377,16 +6377,16 @@
         <v>314.973374375178</v>
       </c>
       <c r="E205" t="n">
-        <v>391.839372673188</v>
+        <v>391.838416703659</v>
       </c>
       <c r="F205" t="n">
-        <v>388.485238656764</v>
+        <v>388.484919560819</v>
       </c>
       <c r="G205" t="n">
-        <v>394.257929360038</v>
+        <v>394.256280173762</v>
       </c>
       <c r="H205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206">
@@ -6403,16 +6403,16 @@
         <v>317.837670734877</v>
       </c>
       <c r="E206" t="n">
-        <v>391.518361158135</v>
+        <v>391.514231856554</v>
       </c>
       <c r="F206" t="n">
-        <v>388.854622923692</v>
+        <v>388.85359398247</v>
       </c>
       <c r="G206" t="n">
-        <v>395.255367927566</v>
+        <v>395.250304458662</v>
       </c>
       <c r="H206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207">
@@ -6429,16 +6429,16 @@
         <v>345.739398961584</v>
       </c>
       <c r="E207" t="n">
-        <v>407.642731703436</v>
+        <v>407.628980390899</v>
       </c>
       <c r="F207" t="n">
-        <v>386.839022657251</v>
+        <v>386.845336896586</v>
       </c>
       <c r="G207" t="n">
-        <v>425.457420177939</v>
+        <v>425.448957074348</v>
       </c>
       <c r="H207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208">
@@ -6455,16 +6455,16 @@
         <v>380.718493290142</v>
       </c>
       <c r="E208" t="n">
-        <v>417.57586328058</v>
+        <v>417.536949821776</v>
       </c>
       <c r="F208" t="n">
-        <v>359.001618767172</v>
+        <v>359.328932042163</v>
       </c>
       <c r="G208" t="n">
-        <v>445.395605806397</v>
+        <v>445.39755318162</v>
       </c>
       <c r="H208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209">
@@ -6481,16 +6481,16 @@
         <v>366.794514269175</v>
       </c>
       <c r="E209" t="n">
-        <v>423.69821271149</v>
+        <v>423.640438596774</v>
       </c>
       <c r="F209" t="n">
-        <v>392.988338154246</v>
+        <v>392.984913884944</v>
       </c>
       <c r="G209" t="n">
-        <v>445.186208312511</v>
+        <v>445.162323030583</v>
       </c>
       <c r="H209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210">
@@ -6507,16 +6507,16 @@
         <v>379.390819979202</v>
       </c>
       <c r="E210" t="n">
-        <v>423.350141673677</v>
+        <v>423.496085710393</v>
       </c>
       <c r="F210" t="n">
-        <v>397.376817882763</v>
+        <v>398.195825384457</v>
       </c>
       <c r="G210" t="n">
-        <v>443.866878469977</v>
+        <v>443.910857005388</v>
       </c>
       <c r="H210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211">
@@ -6533,16 +6533,16 @@
         <v>307.751668159977</v>
       </c>
       <c r="E211" t="n">
-        <v>389.875712084921</v>
+        <v>389.875636214839</v>
       </c>
       <c r="F211" t="n">
-        <v>389.116399231754</v>
+        <v>389.116077710817</v>
       </c>
       <c r="G211" t="n">
-        <v>391.718780786414</v>
+        <v>391.717949646483</v>
       </c>
       <c r="H211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212">
@@ -6559,16 +6559,16 @@
         <v>345.64168009577</v>
       </c>
       <c r="E212" t="n">
-        <v>425.883743003238</v>
+        <v>425.876499418813</v>
       </c>
       <c r="F212" t="n">
-        <v>423.302992863782</v>
+        <v>423.286954946836</v>
       </c>
       <c r="G212" t="n">
-        <v>428.676601364108</v>
+        <v>428.679622249622</v>
       </c>
       <c r="H212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213">
@@ -6585,16 +6585,16 @@
         <v>350.584344166153</v>
       </c>
       <c r="E213" t="n">
-        <v>354.714683513526</v>
+        <v>354.70547054704</v>
       </c>
       <c r="F213" t="n">
-        <v>261.508301225869</v>
+        <v>261.496652661957</v>
       </c>
       <c r="G213" t="n">
-        <v>436.788114661782</v>
+        <v>436.787485548306</v>
       </c>
       <c r="H213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214">
@@ -6611,16 +6611,16 @@
         <v>275.81917821085</v>
       </c>
       <c r="E214" t="n">
-        <v>359.626682434667</v>
+        <v>359.626008389322</v>
       </c>
       <c r="F214" t="n">
-        <v>356.877967173165</v>
+        <v>356.87683274746</v>
       </c>
       <c r="G214" t="n">
-        <v>362.482189448043</v>
+        <v>362.479576210626</v>
       </c>
       <c r="H214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215">
@@ -6637,16 +6637,16 @@
         <v>302.51147275296</v>
       </c>
       <c r="E215" t="n">
-        <v>280.624987188511</v>
+        <v>280.608530090838</v>
       </c>
       <c r="F215" t="n">
-        <v>246.921640718894</v>
+        <v>246.890733602535</v>
       </c>
       <c r="G215" t="n">
-        <v>312.007924801025</v>
+        <v>312.0951883391</v>
       </c>
       <c r="H215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216">
@@ -6663,16 +6663,16 @@
         <v>235.061186453617</v>
       </c>
       <c r="E216" t="n">
-        <v>314.881668399021</v>
+        <v>314.880994550168</v>
       </c>
       <c r="F216" t="n">
-        <v>307.631995749813</v>
+        <v>307.630825115626</v>
       </c>
       <c r="G216" t="n">
-        <v>323.390781375935</v>
+        <v>323.402619898918</v>
       </c>
       <c r="H216" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217">
@@ -6689,16 +6689,16 @@
         <v>268.470556165318</v>
       </c>
       <c r="E217" t="n">
-        <v>332.334742325179</v>
+        <v>332.338824913742</v>
       </c>
       <c r="F217" t="n">
-        <v>329.160395518153</v>
+        <v>329.158055799691</v>
       </c>
       <c r="G217" t="n">
-        <v>336.569063581763</v>
+        <v>336.578615120059</v>
       </c>
       <c r="H217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218">
@@ -6715,16 +6715,16 @@
         <v>250.913323868373</v>
       </c>
       <c r="E218" t="n">
-        <v>328.415982221328</v>
+        <v>328.411729297679</v>
       </c>
       <c r="F218" t="n">
-        <v>324.362835341951</v>
+        <v>324.358967462266</v>
       </c>
       <c r="G218" t="n">
-        <v>331.307144299631</v>
+        <v>331.305112203691</v>
       </c>
       <c r="H218" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219">
@@ -6741,16 +6741,16 @@
         <v>236.551013865749</v>
       </c>
       <c r="E219" t="n">
-        <v>328.306408636397</v>
+        <v>328.30858073331</v>
       </c>
       <c r="F219" t="n">
-        <v>326.300031130714</v>
+        <v>326.300859391653</v>
       </c>
       <c r="G219" t="n">
-        <v>331.10718280189</v>
+        <v>331.111033456473</v>
       </c>
       <c r="H219" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220">
@@ -6767,16 +6767,16 @@
         <v>353.871773752078</v>
       </c>
       <c r="E220" t="n">
-        <v>331.453811315059</v>
+        <v>331.450469190848</v>
       </c>
       <c r="F220" t="n">
-        <v>282.114956155138</v>
+        <v>282.083614991127</v>
       </c>
       <c r="G220" t="n">
-        <v>385.937242367565</v>
+        <v>386.020681599799</v>
       </c>
       <c r="H220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221">
@@ -6793,16 +6793,16 @@
         <v>231.027418945943</v>
       </c>
       <c r="E221" t="n">
-        <v>327.09412715287</v>
+        <v>327.091616220639</v>
       </c>
       <c r="F221" t="n">
-        <v>326.26956566169</v>
+        <v>326.26753047109</v>
       </c>
       <c r="G221" t="n">
-        <v>327.956049918685</v>
+        <v>327.953001104593</v>
       </c>
       <c r="H221" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="222">
@@ -6819,16 +6819,16 @@
         <v>228.618691651363</v>
       </c>
       <c r="E222" t="n">
-        <v>324.547986410681</v>
+        <v>324.548093630146</v>
       </c>
       <c r="F222" t="n">
-        <v>321.102276115057</v>
+        <v>321.102674390569</v>
       </c>
       <c r="G222" t="n">
-        <v>327.853626973679</v>
+        <v>327.858713738869</v>
       </c>
       <c r="H222" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223">
@@ -6845,16 +6845,16 @@
         <v>228.860964535443</v>
       </c>
       <c r="E223" t="n">
-        <v>324.493138223725</v>
+        <v>324.491814747994</v>
       </c>
       <c r="F223" t="n">
-        <v>319.937232499614</v>
+        <v>319.936036747456</v>
       </c>
       <c r="G223" t="n">
-        <v>326.41640884544597</v>
+        <v>326.413286309959</v>
       </c>
       <c r="H223" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224">
@@ -6871,16 +6871,16 @@
         <v>233.250685649077</v>
       </c>
       <c r="E224" t="n">
-        <v>328.88775596467</v>
+        <v>328.886817218826</v>
       </c>
       <c r="F224" t="n">
-        <v>327.85056549649</v>
+        <v>327.849553011825</v>
       </c>
       <c r="G224" t="n">
-        <v>330.294869520218</v>
+        <v>330.295731930634</v>
       </c>
       <c r="H224" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="225">
@@ -6897,13 +6897,13 @@
         <v>31.6654671881446</v>
       </c>
       <c r="E225" t="n">
-        <v>15.0821188691701</v>
+        <v>15.0848730730935</v>
       </c>
       <c r="F225" t="n">
-        <v>14.0358975376945</v>
+        <v>14.0387855198832</v>
       </c>
       <c r="G225" t="n">
-        <v>16.0203754845691</v>
+        <v>16.0273289432898</v>
       </c>
       <c r="H225" t="s">
         <v>32</v>
@@ -6923,13 +6923,13 @@
         <v>43.1659410403024</v>
       </c>
       <c r="E226" t="n">
-        <v>25.1854335630184</v>
+        <v>25.2005066844827</v>
       </c>
       <c r="F226" t="n">
-        <v>22.6913779532792</v>
+        <v>22.7096374404292</v>
       </c>
       <c r="G226" t="n">
-        <v>26.9074536247567</v>
+        <v>26.9298442118496</v>
       </c>
       <c r="H226" t="s">
         <v>32</v>
@@ -6949,13 +6949,13 @@
         <v>40.8659262136689</v>
       </c>
       <c r="E227" t="n">
-        <v>23.2689815908371</v>
+        <v>23.2839138754716</v>
       </c>
       <c r="F227" t="n">
-        <v>20.5323953392709</v>
+        <v>20.5443626123778</v>
       </c>
       <c r="G227" t="n">
-        <v>24.689866053812</v>
+        <v>24.706268726408</v>
       </c>
       <c r="H227" t="s">
         <v>32</v>
@@ -6975,13 +6975,13 @@
         <v>36.0346539256096</v>
       </c>
       <c r="E228" t="n">
-        <v>17.1693840902053</v>
+        <v>17.1792257973162</v>
       </c>
       <c r="F228" t="n">
-        <v>14.4328294004496</v>
+        <v>14.4380973181825</v>
       </c>
       <c r="G228" t="n">
-        <v>20.1513947193152</v>
+        <v>20.1660909399717</v>
       </c>
       <c r="H228" t="s">
         <v>32</v>
@@ -7001,13 +7001,13 @@
         <v>36.1310226616847</v>
       </c>
       <c r="E229" t="n">
-        <v>18.1664598163285</v>
+        <v>18.1757387416039</v>
       </c>
       <c r="F229" t="n">
-        <v>16.3754093722678</v>
+        <v>16.3815279380102</v>
       </c>
       <c r="G229" t="n">
-        <v>20.1599191717497</v>
+        <v>20.1708530249919</v>
       </c>
       <c r="H229" t="s">
         <v>32</v>
@@ -7027,13 +7027,13 @@
         <v>38.402217606338</v>
       </c>
       <c r="E230" t="n">
-        <v>21.2917592254482</v>
+        <v>21.3079963585341</v>
       </c>
       <c r="F230" t="n">
-        <v>20.0587684430545</v>
+        <v>20.0719256705942</v>
       </c>
       <c r="G230" t="n">
-        <v>22.3843867606302</v>
+        <v>22.4017538563916</v>
       </c>
       <c r="H230" t="s">
         <v>32</v>
@@ -7053,13 +7053,13 @@
         <v>55.391321872956</v>
       </c>
       <c r="E231" t="n">
-        <v>37.4078095739949</v>
+        <v>37.4661671438685</v>
       </c>
       <c r="F231" t="n">
-        <v>36.5185946251928</v>
+        <v>36.5727787606093</v>
       </c>
       <c r="G231" t="n">
-        <v>37.93383886672</v>
+        <v>37.99767673274</v>
       </c>
       <c r="H231" t="s">
         <v>32</v>
@@ -7079,13 +7079,13 @@
         <v>53.3218458767784</v>
       </c>
       <c r="E232" t="n">
-        <v>32.9822114492306</v>
+        <v>33.0212250164751</v>
       </c>
       <c r="F232" t="n">
-        <v>30.6891553198986</v>
+        <v>30.7260801987543</v>
       </c>
       <c r="G232" t="n">
-        <v>36.1621961177375</v>
+        <v>36.2150489984371</v>
       </c>
       <c r="H232" t="s">
         <v>32</v>
@@ -7105,13 +7105,13 @@
         <v>50.6680615335989</v>
       </c>
       <c r="E233" t="n">
-        <v>32.2008551933956</v>
+        <v>32.2320165084349</v>
       </c>
       <c r="F233" t="n">
-        <v>30.6764054417707</v>
+        <v>30.705888268481</v>
       </c>
       <c r="G233" t="n">
-        <v>33.9437429706128</v>
+        <v>33.9779075333828</v>
       </c>
       <c r="H233" t="s">
         <v>32</v>
@@ -7131,13 +7131,13 @@
         <v>49.0872523840224</v>
       </c>
       <c r="E234" t="n">
-        <v>29.7586438179708</v>
+        <v>29.7844624794994</v>
       </c>
       <c r="F234" t="n">
-        <v>27.7644320580325</v>
+        <v>27.788212264944</v>
       </c>
       <c r="G234" t="n">
-        <v>32.5220450314559</v>
+        <v>32.5501494585311</v>
       </c>
       <c r="H234" t="s">
         <v>32</v>
@@ -7157,13 +7157,13 @@
         <v>47.1427025306591</v>
       </c>
       <c r="E235" t="n">
-        <v>27.9780312511587</v>
+        <v>28.0075682138471</v>
       </c>
       <c r="F235" t="n">
-        <v>26.0492544615856</v>
+        <v>26.074755894535</v>
       </c>
       <c r="G235" t="n">
-        <v>30.5852951852428</v>
+        <v>30.6197823453805</v>
       </c>
       <c r="H235" t="s">
         <v>32</v>
@@ -7183,13 +7183,13 @@
         <v>30.2234462304754</v>
       </c>
       <c r="E236" t="n">
-        <v>14.2811861039027</v>
+        <v>14.2796602079073</v>
       </c>
       <c r="F236" t="n">
-        <v>13.6331885205334</v>
+        <v>13.6320700782447</v>
       </c>
       <c r="G236" t="n">
-        <v>14.9367008655075</v>
+        <v>14.9352347353391</v>
       </c>
       <c r="H236" t="s">
         <v>32</v>
@@ -7209,13 +7209,13 @@
         <v>31.4753685464998</v>
       </c>
       <c r="E237" t="n">
-        <v>15.1785599320401</v>
+        <v>15.1784942954009</v>
       </c>
       <c r="F237" t="n">
-        <v>14.775282637599</v>
+        <v>14.7751960484974</v>
       </c>
       <c r="G237" t="n">
-        <v>15.8932454000537</v>
+        <v>15.895045083072</v>
       </c>
       <c r="H237" t="s">
         <v>32</v>
@@ -7235,13 +7235,13 @@
         <v>33.7214797850872</v>
       </c>
       <c r="E238" t="n">
-        <v>16.9122424869752</v>
+        <v>16.9129301167362</v>
       </c>
       <c r="F238" t="n">
-        <v>14.8072395678169</v>
+        <v>14.8064008700599</v>
       </c>
       <c r="G238" t="n">
-        <v>18.30427254235</v>
+        <v>18.3055734832369</v>
       </c>
       <c r="H238" t="s">
         <v>32</v>
@@ -7261,13 +7261,13 @@
         <v>30.3968609767605</v>
       </c>
       <c r="E239" t="n">
-        <v>14.0337205630044</v>
+        <v>14.0337609913699</v>
       </c>
       <c r="F239" t="n">
-        <v>13.4110563558443</v>
+        <v>13.4106025815664</v>
       </c>
       <c r="G239" t="n">
-        <v>14.8725785589689</v>
+        <v>14.8738421347823</v>
       </c>
       <c r="H239" t="s">
         <v>32</v>
@@ -7287,13 +7287,13 @@
         <v>38.5011914628402</v>
       </c>
       <c r="E240" t="n">
-        <v>19.3805405097898</v>
+        <v>19.3830040367884</v>
       </c>
       <c r="F240" t="n">
-        <v>18.2070466265159</v>
+        <v>18.2088786544981</v>
       </c>
       <c r="G240" t="n">
-        <v>22.376892505234</v>
+        <v>22.381198772908</v>
       </c>
       <c r="H240" t="s">
         <v>32</v>
@@ -7313,13 +7313,13 @@
         <v>33.956458864939</v>
       </c>
       <c r="E241" t="n">
-        <v>16.4950264604151</v>
+        <v>16.4966926923869</v>
       </c>
       <c r="F241" t="n">
-        <v>15.6221344090627</v>
+        <v>15.622800530698</v>
       </c>
       <c r="G241" t="n">
-        <v>18.2298918475841</v>
+        <v>18.2327193621438</v>
       </c>
       <c r="H241" t="s">
         <v>32</v>
@@ -7339,13 +7339,13 @@
         <v>77.4810293844106</v>
       </c>
       <c r="E242" t="n">
-        <v>35.0543736923045</v>
+        <v>35.0542646401349</v>
       </c>
       <c r="F242" t="n">
-        <v>19.8342809797025</v>
+        <v>19.8342104795294</v>
       </c>
       <c r="G242" t="n">
-        <v>54.6006768713345</v>
+        <v>54.6035489177899</v>
       </c>
       <c r="H242" t="s">
         <v>32</v>
@@ -7365,13 +7365,13 @@
         <v>115.611699743614</v>
       </c>
       <c r="E243" t="n">
-        <v>42.2819092479878</v>
+        <v>42.2810577936648</v>
       </c>
       <c r="F243" t="n">
-        <v>25.395844833459</v>
+        <v>25.3957604341273</v>
       </c>
       <c r="G243" t="n">
-        <v>76.9078771959544</v>
+        <v>76.9059275556702</v>
       </c>
       <c r="H243" t="s">
         <v>31</v>
@@ -7391,13 +7391,13 @@
         <v>64.504953477819</v>
       </c>
       <c r="E244" t="n">
-        <v>35.7248987837188</v>
+        <v>35.74679305302</v>
       </c>
       <c r="F244" t="n">
-        <v>27.602796379153</v>
+        <v>27.6183197770664</v>
       </c>
       <c r="G244" t="n">
-        <v>46.8634439008927</v>
+        <v>46.8735498018195</v>
       </c>
       <c r="H244" t="s">
         <v>32</v>
@@ -7417,13 +7417,13 @@
         <v>55.8543552230996</v>
       </c>
       <c r="E245" t="n">
-        <v>25.8285293247487</v>
+        <v>25.8328831784661</v>
       </c>
       <c r="F245" t="n">
-        <v>20.5024594752293</v>
+        <v>20.5049669918633</v>
       </c>
       <c r="G245" t="n">
-        <v>39.3054418886209</v>
+        <v>39.3134217807724</v>
       </c>
       <c r="H245" t="s">
         <v>32</v>
@@ -7443,13 +7443,13 @@
         <v>44.2633196277059</v>
       </c>
       <c r="E246" t="n">
-        <v>26.3339276841073</v>
+        <v>26.3486145932907</v>
       </c>
       <c r="F246" t="n">
-        <v>24.3524894255538</v>
+        <v>24.3631370518743</v>
       </c>
       <c r="G246" t="n">
-        <v>27.8025164558403</v>
+        <v>27.8147474953797</v>
       </c>
       <c r="H246" t="s">
         <v>32</v>
@@ -7469,13 +7469,13 @@
         <v>34.3267659043836</v>
       </c>
       <c r="E247" t="n">
-        <v>15.6793721605228</v>
+        <v>15.6784530204598</v>
       </c>
       <c r="F247" t="n">
-        <v>14.2919183759259</v>
+        <v>14.2917910392659</v>
       </c>
       <c r="G247" t="n">
-        <v>17.5569666759498</v>
+        <v>17.5585345342063</v>
       </c>
       <c r="H247" t="s">
         <v>32</v>
@@ -7495,13 +7495,13 @@
         <v>35.5238215045614</v>
       </c>
       <c r="E248" t="n">
-        <v>17.0914438780882</v>
+        <v>17.0904102684792</v>
       </c>
       <c r="F248" t="n">
-        <v>16.1938924767067</v>
+        <v>16.1927238035388</v>
       </c>
       <c r="G248" t="n">
-        <v>18.0476807321868</v>
+        <v>18.0467773759516</v>
       </c>
       <c r="H248" t="s">
         <v>32</v>
@@ -7521,13 +7521,13 @@
         <v>41.5421080687262</v>
       </c>
       <c r="E249" t="n">
-        <v>17.3021382870001</v>
+        <v>17.3010498801719</v>
       </c>
       <c r="F249" t="n">
-        <v>14.6039909799412</v>
+        <v>14.6021107583761</v>
       </c>
       <c r="G249" t="n">
-        <v>23.5090365695644</v>
+        <v>23.5090428140107</v>
       </c>
       <c r="H249" t="s">
         <v>32</v>
@@ -7547,13 +7547,13 @@
         <v>32.5020367678845</v>
       </c>
       <c r="E250" t="n">
-        <v>15.1123198201973</v>
+        <v>15.1109475371412</v>
       </c>
       <c r="F250" t="n">
-        <v>14.2771734301471</v>
+        <v>14.2752886566185</v>
       </c>
       <c r="G250" t="n">
-        <v>16.1517803252964</v>
+        <v>16.1508467271401</v>
       </c>
       <c r="H250" t="s">
         <v>32</v>
@@ -7573,13 +7573,13 @@
         <v>42.1544281023259</v>
       </c>
       <c r="E251" t="n">
-        <v>21.3863012479064</v>
+        <v>21.3873556144198</v>
       </c>
       <c r="F251" t="n">
-        <v>17.760938821782</v>
+        <v>17.7602134624231</v>
       </c>
       <c r="G251" t="n">
-        <v>24.1214864707533</v>
+        <v>24.1230961245504</v>
       </c>
       <c r="H251" t="s">
         <v>32</v>
@@ -7599,13 +7599,13 @@
         <v>40.0870223455925</v>
       </c>
       <c r="E252" t="n">
-        <v>20.3337466876192</v>
+        <v>20.3329398134463</v>
       </c>
       <c r="F252" t="n">
-        <v>18.2323678330172</v>
+        <v>18.2309153052886</v>
       </c>
       <c r="G252" t="n">
-        <v>24.5478926427909</v>
+        <v>24.5496250815337</v>
       </c>
       <c r="H252" t="s">
         <v>32</v>
@@ -7625,13 +7625,13 @@
         <v>33.5580597650743</v>
       </c>
       <c r="E253" t="n">
-        <v>16.2961429307459</v>
+        <v>16.2947838534221</v>
       </c>
       <c r="F253" t="n">
-        <v>14.521949704901</v>
+        <v>14.5203217940863</v>
       </c>
       <c r="G253" t="n">
-        <v>18.2620206170974</v>
+        <v>18.2628907404847</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
@@ -7651,13 +7651,13 @@
         <v>77.2369725872213</v>
       </c>
       <c r="E254" t="n">
-        <v>19.8779905950951</v>
+        <v>19.8776218547122</v>
       </c>
       <c r="F254" t="n">
-        <v>17.6192461974999</v>
+        <v>17.6239927914586</v>
       </c>
       <c r="G254" t="n">
-        <v>52.3103072451976</v>
+        <v>52.3207618211846</v>
       </c>
       <c r="H254" t="s">
         <v>32</v>
@@ -7677,13 +7677,13 @@
         <v>82.8978437604522</v>
       </c>
       <c r="E255" t="n">
-        <v>30.7983867936115</v>
+        <v>30.7965512852669</v>
       </c>
       <c r="F255" t="n">
-        <v>22.8838395960604</v>
+        <v>22.8822726482285</v>
       </c>
       <c r="G255" t="n">
-        <v>55.7724312791023</v>
+        <v>55.7738964826608</v>
       </c>
       <c r="H255" t="s">
         <v>32</v>
@@ -7703,13 +7703,13 @@
         <v>51.2436455865277</v>
       </c>
       <c r="E256" t="n">
-        <v>28.8319243366325</v>
+        <v>28.8298884759731</v>
       </c>
       <c r="F256" t="n">
-        <v>25.7863372972641</v>
+        <v>25.784132341601</v>
       </c>
       <c r="G256" t="n">
-        <v>35.7600371881142</v>
+        <v>35.7589737109708</v>
       </c>
       <c r="H256" t="s">
         <v>32</v>
@@ -7729,13 +7729,13 @@
         <v>36.9809525567512</v>
       </c>
       <c r="E257" t="n">
-        <v>16.4464247801228</v>
+        <v>16.4454342102038</v>
       </c>
       <c r="F257" t="n">
-        <v>15.1690334475675</v>
+        <v>15.1675992158682</v>
       </c>
       <c r="G257" t="n">
-        <v>20.0906337895669</v>
+        <v>20.0906084753403</v>
       </c>
       <c r="H257" t="s">
         <v>32</v>
@@ -7755,13 +7755,13 @@
         <v>40.3227845418308</v>
       </c>
       <c r="E258" t="n">
-        <v>22.394800445708</v>
+        <v>22.3934110654508</v>
       </c>
       <c r="F258" t="n">
-        <v>20.7060906150999</v>
+        <v>20.704500579626</v>
       </c>
       <c r="G258" t="n">
-        <v>25.8399284899372</v>
+        <v>25.8377170793326</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
@@ -7781,13 +7781,13 @@
         <v>51.6975890038329</v>
       </c>
       <c r="E259" t="n">
-        <v>21.2614935986408</v>
+        <v>21.2597594629759</v>
       </c>
       <c r="F259" t="n">
-        <v>17.5451574041264</v>
+        <v>17.5441981737321</v>
       </c>
       <c r="G259" t="n">
-        <v>35.678191693165</v>
+        <v>35.6773817853622</v>
       </c>
       <c r="H259" t="s">
         <v>32</v>
@@ -7807,13 +7807,13 @@
         <v>34.3406386547547</v>
       </c>
       <c r="E260" t="n">
-        <v>16.783825476839</v>
+        <v>16.7869227284297</v>
       </c>
       <c r="F260" t="n">
-        <v>15.6743781037361</v>
+        <v>15.6770744387352</v>
       </c>
       <c r="G260" t="n">
-        <v>18.2559925826696</v>
+        <v>18.2612736807586</v>
       </c>
       <c r="H260" t="s">
         <v>32</v>
@@ -7833,13 +7833,13 @@
         <v>37.0200401032558</v>
       </c>
       <c r="E261" t="n">
-        <v>18.7935085048967</v>
+        <v>18.7946618737997</v>
       </c>
       <c r="F261" t="n">
-        <v>17.2140238798147</v>
+        <v>17.2162064230369</v>
       </c>
       <c r="G261" t="n">
-        <v>20.2476594664212</v>
+        <v>20.2506252121184</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
@@ -7859,13 +7859,13 @@
         <v>39.7848681400847</v>
       </c>
       <c r="E262" t="n">
-        <v>20.621897606285</v>
+        <v>20.6289160712834</v>
       </c>
       <c r="F262" t="n">
-        <v>17.8584419883261</v>
+        <v>17.8646499440799</v>
       </c>
       <c r="G262" t="n">
-        <v>23.4191895435214</v>
+        <v>23.4285361075493</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
@@ -7885,13 +7885,13 @@
         <v>40.7177214877813</v>
       </c>
       <c r="E263" t="n">
-        <v>22.7410911339663</v>
+        <v>22.7538453187439</v>
       </c>
       <c r="F263" t="n">
-        <v>21.3829894896788</v>
+        <v>21.3939787230202</v>
       </c>
       <c r="G263" t="n">
-        <v>24.5057113366584</v>
+        <v>24.5199700191664</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -7911,13 +7911,13 @@
         <v>31.098188708851</v>
       </c>
       <c r="E264" t="n">
-        <v>13.1848950572615</v>
+        <v>13.1831944228928</v>
       </c>
       <c r="F264" t="n">
-        <v>12.4693602248841</v>
+        <v>12.4684008503131</v>
       </c>
       <c r="G264" t="n">
-        <v>14.7487760732765</v>
+        <v>14.7469493166607</v>
       </c>
       <c r="H264" t="s">
         <v>32</v>
@@ -7937,13 +7937,13 @@
         <v>30.2305321394226</v>
       </c>
       <c r="E265" t="n">
-        <v>13.412379571169</v>
+        <v>13.4104586694665</v>
       </c>
       <c r="F265" t="n">
-        <v>12.9422778925556</v>
+        <v>12.9404943566091</v>
       </c>
       <c r="G265" t="n">
-        <v>14.1411732323197</v>
+        <v>14.1392312987873</v>
       </c>
       <c r="H265" t="s">
         <v>32</v>
@@ -7963,13 +7963,13 @@
         <v>30.0444473879132</v>
       </c>
       <c r="E266" t="n">
-        <v>13.6834772501662</v>
+        <v>13.68181381656</v>
       </c>
       <c r="F266" t="n">
-        <v>13.3186906581773</v>
+        <v>13.3169788098917</v>
       </c>
       <c r="G266" t="n">
-        <v>14.2755111780382</v>
+        <v>14.2736976112027</v>
       </c>
       <c r="H266" t="s">
         <v>32</v>
@@ -7989,13 +7989,13 @@
         <v>28.8330398236537</v>
       </c>
       <c r="E267" t="n">
-        <v>12.902351103935</v>
+        <v>12.9006993623321</v>
       </c>
       <c r="F267" t="n">
-        <v>12.3088435265104</v>
+        <v>12.3088062263041</v>
       </c>
       <c r="G267" t="n">
-        <v>13.3995138302055</v>
+        <v>13.3998725667562</v>
       </c>
       <c r="H267" t="s">
         <v>32</v>
@@ -8015,13 +8015,13 @@
         <v>27.9159453067759</v>
       </c>
       <c r="E268" t="n">
-        <v>12.1162299037299</v>
+        <v>12.1161763713815</v>
       </c>
       <c r="F268" t="n">
-        <v>11.4552408247625</v>
+        <v>11.4545907919629</v>
       </c>
       <c r="G268" t="n">
-        <v>12.463256156467</v>
+        <v>12.4619349822776</v>
       </c>
       <c r="H268" t="s">
         <v>32</v>
@@ -8041,13 +8041,13 @@
         <v>30.7534458551417</v>
       </c>
       <c r="E269" t="n">
-        <v>13.7466097169118</v>
+        <v>13.7471726999493</v>
       </c>
       <c r="F269" t="n">
-        <v>12.5282529044347</v>
+        <v>12.5274373370455</v>
       </c>
       <c r="G269" t="n">
-        <v>14.8930738770825</v>
+        <v>14.8944603980831</v>
       </c>
       <c r="H269" t="s">
         <v>32</v>
@@ -8067,13 +8067,13 @@
         <v>30.5193545064549</v>
       </c>
       <c r="E270" t="n">
-        <v>13.4821741740625</v>
+        <v>13.4829280343197</v>
       </c>
       <c r="F270" t="n">
-        <v>12.1197685547017</v>
+        <v>12.1196768482654</v>
       </c>
       <c r="G270" t="n">
-        <v>14.7957022112538</v>
+        <v>14.7982037330306</v>
       </c>
       <c r="H270" t="s">
         <v>32</v>
@@ -8093,13 +8093,13 @@
         <v>31.5994645480786</v>
       </c>
       <c r="E271" t="n">
-        <v>11.9545043415368</v>
+        <v>11.955742806514</v>
       </c>
       <c r="F271" t="n">
-        <v>11.7193095620464</v>
+        <v>11.7199817821481</v>
       </c>
       <c r="G271" t="n">
-        <v>15.9509986945309</v>
+        <v>15.9537605032866</v>
       </c>
       <c r="H271" t="s">
         <v>32</v>
@@ -8119,13 +8119,13 @@
         <v>29.7703187493823</v>
       </c>
       <c r="E272" t="n">
-        <v>12.2918228582287</v>
+        <v>12.2931319947959</v>
       </c>
       <c r="F272" t="n">
-        <v>10.9958982606852</v>
+        <v>10.9959413223881</v>
       </c>
       <c r="G272" t="n">
-        <v>14.3002099118237</v>
+        <v>14.3055746025074</v>
       </c>
       <c r="H272" t="s">
         <v>32</v>
@@ -8145,13 +8145,13 @@
         <v>29.6327501471497</v>
       </c>
       <c r="E273" t="n">
-        <v>19.0581485924978</v>
+        <v>19.0572711596185</v>
       </c>
       <c r="F273" t="n">
-        <v>17.8444698491578</v>
+        <v>17.843668056812</v>
       </c>
       <c r="G273" t="n">
-        <v>20.159583972885</v>
+        <v>20.1587158337304</v>
       </c>
       <c r="H273" t="s">
         <v>32</v>
@@ -8171,13 +8171,13 @@
         <v>28.8109018297511</v>
       </c>
       <c r="E274" t="n">
-        <v>19.5678680787958</v>
+        <v>19.5667619270318</v>
       </c>
       <c r="F274" t="n">
-        <v>18.4593462286367</v>
+        <v>18.4582874964141</v>
       </c>
       <c r="G274" t="n">
-        <v>20.4956232961014</v>
+        <v>20.494423807662</v>
       </c>
       <c r="H274" t="s">
         <v>32</v>
@@ -8197,13 +8197,13 @@
         <v>34.1865035061159</v>
       </c>
       <c r="E275" t="n">
-        <v>22.4488464296664</v>
+        <v>22.4477257269209</v>
       </c>
       <c r="F275" t="n">
-        <v>21.0852819903216</v>
+        <v>21.0841100507264</v>
       </c>
       <c r="G275" t="n">
-        <v>23.8934376903667</v>
+        <v>23.8924174000775</v>
       </c>
       <c r="H275" t="s">
         <v>32</v>
@@ -8223,13 +8223,13 @@
         <v>31.1184885892264</v>
       </c>
       <c r="E276" t="n">
-        <v>20.5586530346362</v>
+        <v>20.5576089559484</v>
       </c>
       <c r="F276" t="n">
-        <v>18.7690326487746</v>
+        <v>18.768069998757</v>
       </c>
       <c r="G276" t="n">
-        <v>21.6264302292356</v>
+        <v>21.6253837022</v>
       </c>
       <c r="H276" t="s">
         <v>32</v>
@@ -8249,13 +8249,13 @@
         <v>26.171040066722</v>
       </c>
       <c r="E277" t="n">
-        <v>17.4820382605714</v>
+        <v>17.4811879336352</v>
       </c>
       <c r="F277" t="n">
-        <v>16.5563379830893</v>
+        <v>16.555453376226</v>
       </c>
       <c r="G277" t="n">
-        <v>18.513694232112</v>
+        <v>18.5127120952324</v>
       </c>
       <c r="H277" t="s">
         <v>32</v>
@@ -8275,13 +8275,13 @@
         <v>34.3071921476486</v>
       </c>
       <c r="E278" t="n">
-        <v>22.1232270556194</v>
+        <v>22.122420910911</v>
       </c>
       <c r="F278" t="n">
-        <v>20.0694699242074</v>
+        <v>20.0686535012672</v>
       </c>
       <c r="G278" t="n">
-        <v>23.2529795812308</v>
+        <v>23.2520424733651</v>
       </c>
       <c r="H278" t="s">
         <v>32</v>
@@ -8301,13 +8301,13 @@
         <v>141.555884294501</v>
       </c>
       <c r="E279" t="n">
-        <v>63.898445753842</v>
+        <v>63.8980185643838</v>
       </c>
       <c r="F279" t="n">
-        <v>39.8793535310607</v>
+        <v>39.879267988583</v>
       </c>
       <c r="G279" t="n">
-        <v>103.100896261635</v>
+        <v>103.096867568485</v>
       </c>
       <c r="H279" t="s">
         <v>39</v>
@@ -8327,13 +8327,13 @@
         <v>158.676109931436</v>
       </c>
       <c r="E280" t="n">
-        <v>71.0807069738058</v>
+        <v>71.0804873209739</v>
       </c>
       <c r="F280" t="n">
-        <v>46.8381511701309</v>
+        <v>46.8379938816037</v>
       </c>
       <c r="G280" t="n">
-        <v>103.343773928846</v>
+        <v>103.34323665348</v>
       </c>
       <c r="H280" t="s">
         <v>33</v>
@@ -8353,13 +8353,13 @@
         <v>98.6108202215406</v>
       </c>
       <c r="E281" t="n">
-        <v>38.3524807577685</v>
+        <v>38.3523516484876</v>
       </c>
       <c r="F281" t="n">
-        <v>30.2599669629576</v>
+        <v>30.259783423966</v>
       </c>
       <c r="G281" t="n">
-        <v>48.584181779879</v>
+        <v>48.5839625735396</v>
       </c>
       <c r="H281" t="s">
         <v>31</v>
@@ -8379,13 +8379,13 @@
         <v>133.840721876515</v>
       </c>
       <c r="E282" t="n">
-        <v>61.2922184950133</v>
+        <v>61.2922276316658</v>
       </c>
       <c r="F282" t="n">
-        <v>47.9305230207358</v>
+        <v>47.9305034162893</v>
       </c>
       <c r="G282" t="n">
-        <v>76.1071951089896</v>
+        <v>76.1065328047141</v>
       </c>
       <c r="H282" t="s">
         <v>39</v>
@@ -8405,13 +8405,13 @@
         <v>133.672294323527</v>
       </c>
       <c r="E283" t="n">
-        <v>49.0483820065008</v>
+        <v>49.0482640269378</v>
       </c>
       <c r="F283" t="n">
-        <v>37.0331017466216</v>
+        <v>37.0329377307706</v>
       </c>
       <c r="G283" t="n">
-        <v>66.0891232363775</v>
+        <v>66.088922641479</v>
       </c>
       <c r="H283" t="s">
         <v>31</v>
@@ -8431,13 +8431,13 @@
         <v>121.507120825136</v>
       </c>
       <c r="E284" t="n">
-        <v>44.5606752618399</v>
+        <v>44.5606681908882</v>
       </c>
       <c r="F284" t="n">
-        <v>36.1714650484512</v>
+        <v>36.1712943065123</v>
       </c>
       <c r="G284" t="n">
-        <v>66.8145183917641</v>
+        <v>66.8139837656749</v>
       </c>
       <c r="H284" t="s">
         <v>31</v>
@@ -8457,13 +8457,13 @@
         <v>57.8344520342527</v>
       </c>
       <c r="E285" t="n">
-        <v>34.4868772727782</v>
+        <v>34.4867219436599</v>
       </c>
       <c r="F285" t="n">
-        <v>33.3892496916801</v>
+        <v>33.3890667416229</v>
       </c>
       <c r="G285" t="n">
-        <v>36.157284798698</v>
+        <v>36.1571702721918</v>
       </c>
       <c r="H285" t="s">
         <v>32</v>
@@ -8483,13 +8483,13 @@
         <v>49.258490818394</v>
       </c>
       <c r="E286" t="n">
-        <v>29.0254941907083</v>
+        <v>29.0251734173376</v>
       </c>
       <c r="F286" t="n">
-        <v>27.1943931837432</v>
+        <v>27.193939336206</v>
       </c>
       <c r="G286" t="n">
-        <v>30.4709039663746</v>
+        <v>30.4707297652923</v>
       </c>
       <c r="H286" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>52.9343261916206</v>
       </c>
       <c r="E287" t="n">
-        <v>34.3224943253359</v>
+        <v>34.3224687627304</v>
       </c>
       <c r="F287" t="n">
-        <v>33.6211422888316</v>
+        <v>33.6210700559191</v>
       </c>
       <c r="G287" t="n">
-        <v>36.5921700213074</v>
+        <v>36.5921404560887</v>
       </c>
       <c r="H287" t="s">
         <v>32</v>
@@ -8535,13 +8535,13 @@
         <v>53.2119514632368</v>
       </c>
       <c r="E288" t="n">
-        <v>33.3947158321145</v>
+        <v>33.3945657298971</v>
       </c>
       <c r="F288" t="n">
-        <v>32.2338466270803</v>
+        <v>32.2336971925355</v>
       </c>
       <c r="G288" t="n">
-        <v>34.4118035975379</v>
+        <v>34.4116813256501</v>
       </c>
       <c r="H288" t="s">
         <v>32</v>
@@ -8561,13 +8561,13 @@
         <v>51.1362132694418</v>
       </c>
       <c r="E289" t="n">
-        <v>31.1672408901477</v>
+        <v>31.1670628922054</v>
       </c>
       <c r="F289" t="n">
-        <v>29.8653987351287</v>
+        <v>29.8651096135907</v>
       </c>
       <c r="G289" t="n">
-        <v>32.529202310322</v>
+        <v>32.5290917198075</v>
       </c>
       <c r="H289" t="s">
         <v>32</v>
@@ -8587,13 +8587,13 @@
         <v>80.9561894529518</v>
       </c>
       <c r="E290" t="n">
-        <v>35.2891581304459</v>
+        <v>35.2889607991693</v>
       </c>
       <c r="F290" t="n">
-        <v>29.8641680706057</v>
+        <v>29.8638381864444</v>
       </c>
       <c r="G290" t="n">
-        <v>38.6564936035055</v>
+        <v>38.6563953015269</v>
       </c>
       <c r="H290" t="s">
         <v>31</v>
@@ -8613,13 +8613,13 @@
         <v>49.3132893058392</v>
       </c>
       <c r="E291" t="n">
-        <v>27.1400065989718</v>
+        <v>27.1395772483598</v>
       </c>
       <c r="F291" t="n">
-        <v>25.5141254350415</v>
+        <v>25.5136815931647</v>
       </c>
       <c r="G291" t="n">
-        <v>29.3181857777454</v>
+        <v>29.3178366833679</v>
       </c>
       <c r="H291" t="s">
         <v>32</v>
@@ -8639,13 +8639,13 @@
         <v>75.331052463688</v>
       </c>
       <c r="E292" t="n">
-        <v>28.9500985607413</v>
+        <v>28.9497444636611</v>
       </c>
       <c r="F292" t="n">
-        <v>26.3512105701221</v>
+        <v>26.3508056279173</v>
       </c>
       <c r="G292" t="n">
-        <v>36.3571078217616</v>
+        <v>36.3569294812861</v>
       </c>
       <c r="H292" t="s">
         <v>32</v>
@@ -8665,13 +8665,13 @@
         <v>58.5771018585556</v>
       </c>
       <c r="E293" t="n">
-        <v>35.1909665795052</v>
+        <v>35.1908610258</v>
       </c>
       <c r="F293" t="n">
-        <v>34.4486789899721</v>
+        <v>34.4485788129014</v>
       </c>
       <c r="G293" t="n">
-        <v>38.6461893781773</v>
+        <v>38.6461563806939</v>
       </c>
       <c r="H293" t="s">
         <v>32</v>
@@ -8691,13 +8691,13 @@
         <v>54.2296023028764</v>
       </c>
       <c r="E294" t="n">
-        <v>32.4627569719047</v>
+        <v>32.4625427811261</v>
       </c>
       <c r="F294" t="n">
-        <v>30.0161236484723</v>
+        <v>30.0158063480613</v>
       </c>
       <c r="G294" t="n">
-        <v>33.1118102248303</v>
+        <v>33.1116263012667</v>
       </c>
       <c r="H294" t="s">
         <v>32</v>
@@ -8717,13 +8717,13 @@
         <v>49.9787170304906</v>
       </c>
       <c r="E295" t="n">
-        <v>32.1936529506038</v>
+        <v>32.1936142813382</v>
       </c>
       <c r="F295" t="n">
-        <v>30.8003566090002</v>
+        <v>30.8001941346411</v>
       </c>
       <c r="G295" t="n">
-        <v>33.5818912571549</v>
+        <v>33.5818610232393</v>
       </c>
       <c r="H295" t="s">
         <v>32</v>
@@ -8743,13 +8743,13 @@
         <v>57.3762692992646</v>
       </c>
       <c r="E296" t="n">
-        <v>32.9777793057905</v>
+        <v>32.9775574142764</v>
       </c>
       <c r="F296" t="n">
-        <v>29.0588689096573</v>
+        <v>29.0585476684043</v>
       </c>
       <c r="G296" t="n">
-        <v>37.4993499521401</v>
+        <v>37.4991651630497</v>
       </c>
       <c r="H296" t="s">
         <v>32</v>
@@ -8769,13 +8769,13 @@
         <v>45.3415874455308</v>
       </c>
       <c r="E297" t="n">
-        <v>26.6481662055135</v>
+        <v>26.6476731896296</v>
       </c>
       <c r="F297" t="n">
-        <v>26.0149519059723</v>
+        <v>26.0144028747884</v>
       </c>
       <c r="G297" t="n">
-        <v>27.9981327019717</v>
+        <v>27.9977297592507</v>
       </c>
       <c r="H297" t="s">
         <v>32</v>
@@ -8795,13 +8795,13 @@
         <v>42.6842882514615</v>
       </c>
       <c r="E298" t="n">
-        <v>27.0536216890646</v>
+        <v>27.0529603076553</v>
       </c>
       <c r="F298" t="n">
-        <v>25.4556543077316</v>
+        <v>25.4549012778114</v>
       </c>
       <c r="G298" t="n">
-        <v>29.0229514592303</v>
+        <v>29.0223629010369</v>
       </c>
       <c r="H298" t="s">
         <v>32</v>
@@ -8821,13 +8821,13 @@
         <v>37.8371722671145</v>
       </c>
       <c r="E299" t="n">
-        <v>24.7893704311331</v>
+        <v>24.7885554597441</v>
       </c>
       <c r="F299" t="n">
-        <v>23.2175730950472</v>
+        <v>23.2167430722807</v>
       </c>
       <c r="G299" t="n">
-        <v>25.8886262477317</v>
+        <v>25.8877790545847</v>
       </c>
       <c r="H299" t="s">
         <v>32</v>
@@ -8847,13 +8847,13 @@
         <v>34.9343025136299</v>
       </c>
       <c r="E300" t="n">
-        <v>23.8115736250181</v>
+        <v>23.8106874019568</v>
       </c>
       <c r="F300" t="n">
-        <v>23.5546951487669</v>
+        <v>23.5538013100323</v>
       </c>
       <c r="G300" t="n">
-        <v>23.9449666259377</v>
+        <v>23.9440244637925</v>
       </c>
       <c r="H300" t="s">
         <v>32</v>
@@ -8873,13 +8873,13 @@
         <v>42.3172681414295</v>
       </c>
       <c r="E301" t="n">
-        <v>26.5597764751953</v>
+        <v>26.5592095641175</v>
       </c>
       <c r="F301" t="n">
-        <v>24.2850237097301</v>
+        <v>24.2844139501475</v>
       </c>
       <c r="G301" t="n">
-        <v>27.9339353535742</v>
+        <v>27.9334670353511</v>
       </c>
       <c r="H301" t="s">
         <v>32</v>
@@ -8899,13 +8899,13 @@
         <v>39.1448537698282</v>
       </c>
       <c r="E302" t="n">
-        <v>24.7066775891877</v>
+        <v>24.7059790452953</v>
       </c>
       <c r="F302" t="n">
-        <v>24.011497606715</v>
+        <v>24.0107889051671</v>
       </c>
       <c r="G302" t="n">
-        <v>26.0022774588389</v>
+        <v>26.001640195156</v>
       </c>
       <c r="H302" t="s">
         <v>32</v>
@@ -8925,13 +8925,13 @@
         <v>44.2860785105876</v>
       </c>
       <c r="E303" t="n">
-        <v>27.8526302114324</v>
+        <v>27.8522042779518</v>
       </c>
       <c r="F303" t="n">
-        <v>27.0969503119352</v>
+        <v>27.0964827822653</v>
       </c>
       <c r="G303" t="n">
-        <v>28.8043204258478</v>
+        <v>28.8039796131665</v>
       </c>
       <c r="H303" t="s">
         <v>32</v>
@@ -8951,13 +8951,13 @@
         <v>44.8256036794313</v>
       </c>
       <c r="E304" t="n">
-        <v>28.2870127569474</v>
+        <v>28.286561355628</v>
       </c>
       <c r="F304" t="n">
-        <v>26.467437237824</v>
+        <v>26.4668219134619</v>
       </c>
       <c r="G304" t="n">
-        <v>30.0665953412787</v>
+        <v>30.0662146801009</v>
       </c>
       <c r="H304" t="s">
         <v>32</v>
@@ -8977,13 +8977,13 @@
         <v>40.4775482320113</v>
       </c>
       <c r="E305" t="n">
-        <v>26.6268887642586</v>
+        <v>26.62606068805</v>
       </c>
       <c r="F305" t="n">
-        <v>25.6645526887461</v>
+        <v>25.663723821178</v>
       </c>
       <c r="G305" t="n">
-        <v>27.9865859450568</v>
+        <v>27.9858277539845</v>
       </c>
       <c r="H305" t="s">
         <v>32</v>
@@ -9003,13 +9003,13 @@
         <v>44.4501098283528</v>
       </c>
       <c r="E306" t="n">
-        <v>28.6004086050077</v>
+        <v>28.5996342594904</v>
       </c>
       <c r="F306" t="n">
-        <v>26.8623401824235</v>
+        <v>26.8614931147163</v>
       </c>
       <c r="G306" t="n">
-        <v>30.6782047908806</v>
+        <v>30.6775418852826</v>
       </c>
       <c r="H306" t="s">
         <v>32</v>
@@ -9029,13 +9029,13 @@
         <v>141.398309560672</v>
       </c>
       <c r="E307" t="n">
-        <v>70.7446993581332</v>
+        <v>70.744514233382</v>
       </c>
       <c r="F307" t="n">
-        <v>38.3603185609193</v>
+        <v>38.3600646733684</v>
       </c>
       <c r="G307" t="n">
-        <v>96.6074084672759</v>
+        <v>96.6022145576821</v>
       </c>
       <c r="H307" t="s">
         <v>39</v>
@@ -9055,13 +9055,13 @@
         <v>45.3672594003567</v>
       </c>
       <c r="E308" t="n">
-        <v>31.0971945292081</v>
+        <v>31.0956813142374</v>
       </c>
       <c r="F308" t="n">
-        <v>30.5663255415642</v>
+        <v>30.5647942905123</v>
       </c>
       <c r="G308" t="n">
-        <v>32.0817875261733</v>
+        <v>32.0803109403556</v>
       </c>
       <c r="H308" t="s">
         <v>32</v>
@@ -9081,13 +9081,13 @@
         <v>45.8562291820588</v>
       </c>
       <c r="E309" t="n">
-        <v>30.5360456940246</v>
+        <v>30.5344885309136</v>
       </c>
       <c r="F309" t="n">
-        <v>29.9888777715262</v>
+        <v>29.9874864303085</v>
       </c>
       <c r="G309" t="n">
-        <v>31.4570280057733</v>
+        <v>31.4556078427069</v>
       </c>
       <c r="H309" t="s">
         <v>32</v>
@@ -9107,13 +9107,13 @@
         <v>45.8865857154734</v>
       </c>
       <c r="E310" t="n">
-        <v>31.2795082666197</v>
+        <v>31.2780809783548</v>
       </c>
       <c r="F310" t="n">
-        <v>30.6614422449154</v>
+        <v>30.6599413131454</v>
       </c>
       <c r="G310" t="n">
-        <v>32.5606676141213</v>
+        <v>32.5593052838011</v>
       </c>
       <c r="H310" t="s">
         <v>32</v>
@@ -9133,13 +9133,13 @@
         <v>45.0208860442531</v>
       </c>
       <c r="E311" t="n">
-        <v>31.1130384656586</v>
+        <v>31.1113170305566</v>
       </c>
       <c r="F311" t="n">
-        <v>30.6968909923837</v>
+        <v>30.6951457400476</v>
       </c>
       <c r="G311" t="n">
-        <v>31.6416002277931</v>
+        <v>31.6399825933098</v>
       </c>
       <c r="H311" t="s">
         <v>32</v>
@@ -9159,13 +9159,13 @@
         <v>52.5819087539456</v>
       </c>
       <c r="E312" t="n">
-        <v>32.9893162089128</v>
+        <v>32.9878758297044</v>
       </c>
       <c r="F312" t="n">
-        <v>31.8457754323912</v>
+        <v>31.8441689536363</v>
       </c>
       <c r="G312" t="n">
-        <v>36.7847404627242</v>
+        <v>36.7838343234822</v>
       </c>
       <c r="H312" t="s">
         <v>32</v>
@@ -9185,13 +9185,13 @@
         <v>46.9418550714224</v>
       </c>
       <c r="E313" t="n">
-        <v>30.0278261151931</v>
+        <v>30.0268236814106</v>
       </c>
       <c r="F313" t="n">
-        <v>28.2327098547812</v>
+        <v>28.2315417445378</v>
       </c>
       <c r="G313" t="n">
-        <v>33.703454282601</v>
+        <v>33.7025516100667</v>
       </c>
       <c r="H313" t="s">
         <v>32</v>
@@ -9211,13 +9211,13 @@
         <v>38.7666919175818</v>
       </c>
       <c r="E314" t="n">
-        <v>26.7234805070787</v>
+        <v>26.7220646936668</v>
       </c>
       <c r="F314" t="n">
-        <v>25.9538117877589</v>
+        <v>25.9524150858614</v>
       </c>
       <c r="G314" t="n">
-        <v>27.8457169951824</v>
+        <v>27.8443756594139</v>
       </c>
       <c r="H314" t="s">
         <v>32</v>
@@ -9237,13 +9237,13 @@
         <v>54.950984203249</v>
       </c>
       <c r="E315" t="n">
-        <v>35.2913962542713</v>
+        <v>35.2908155191167</v>
       </c>
       <c r="F315" t="n">
-        <v>31.0676508213476</v>
+        <v>31.0663805029336</v>
       </c>
       <c r="G315" t="n">
-        <v>39.2255986166522</v>
+        <v>39.2253602498997</v>
       </c>
       <c r="H315" t="s">
         <v>32</v>
@@ -9263,13 +9263,13 @@
         <v>43.532200758979</v>
       </c>
       <c r="E316" t="n">
-        <v>30.179199627717</v>
+        <v>30.1779265581761</v>
       </c>
       <c r="F316" t="n">
-        <v>28.1589386285856</v>
+        <v>28.1575311671039</v>
       </c>
       <c r="G316" t="n">
-        <v>31.2040233634771</v>
+        <v>31.2028215399569</v>
       </c>
       <c r="H316" t="s">
         <v>32</v>
@@ -9289,13 +9289,13 @@
         <v>43.6365949153072</v>
       </c>
       <c r="E317" t="n">
-        <v>27.2477850661534</v>
+        <v>27.2467605906769</v>
       </c>
       <c r="F317" t="n">
-        <v>24.0804766431411</v>
+        <v>24.0794028805948</v>
       </c>
       <c r="G317" t="n">
-        <v>31.4295865239171</v>
+        <v>31.428797363719</v>
       </c>
       <c r="H317" t="s">
         <v>32</v>
@@ -9315,13 +9315,13 @@
         <v>38.6900276524682</v>
       </c>
       <c r="E318" t="n">
-        <v>26.6552901636558</v>
+        <v>26.6539855540963</v>
       </c>
       <c r="F318" t="n">
-        <v>25.48442864869</v>
+        <v>25.4832578660474</v>
       </c>
       <c r="G318" t="n">
-        <v>27.8532147099885</v>
+        <v>27.8520115651562</v>
       </c>
       <c r="H318" t="s">
         <v>32</v>
@@ -9341,13 +9341,13 @@
         <v>41.8740957756798</v>
       </c>
       <c r="E319" t="n">
-        <v>28.7283689046702</v>
+        <v>28.7268670179308</v>
       </c>
       <c r="F319" t="n">
-        <v>27.0289043572203</v>
+        <v>27.0273296854259</v>
       </c>
       <c r="G319" t="n">
-        <v>29.9037661458598</v>
+        <v>29.9023861303932</v>
       </c>
       <c r="H319" t="s">
         <v>32</v>
@@ -9367,13 +9367,13 @@
         <v>49.5130007971347</v>
       </c>
       <c r="E320" t="n">
-        <v>33.8958077728923</v>
+        <v>33.8951278301663</v>
       </c>
       <c r="F320" t="n">
-        <v>32.1469480707378</v>
+        <v>32.1460751178157</v>
       </c>
       <c r="G320" t="n">
-        <v>35.71586184546</v>
+        <v>35.7153642763261</v>
       </c>
       <c r="H320" t="s">
         <v>32</v>
@@ -9393,13 +9393,13 @@
         <v>41.9871038323277</v>
       </c>
       <c r="E321" t="n">
-        <v>28.4139104703365</v>
+        <v>28.412646890333</v>
       </c>
       <c r="F321" t="n">
-        <v>26.8877537515184</v>
+        <v>26.8864295220469</v>
       </c>
       <c r="G321" t="n">
-        <v>30.2194972851742</v>
+        <v>30.2183366529035</v>
       </c>
       <c r="H321" t="s">
         <v>32</v>
@@ -9419,13 +9419,13 @@
         <v>78.3436771040111</v>
       </c>
       <c r="E322" t="n">
-        <v>36.3941341763602</v>
+        <v>36.3937958404995</v>
       </c>
       <c r="F322" t="n">
-        <v>27.6299988143833</v>
+        <v>27.6291202340091</v>
       </c>
       <c r="G322" t="n">
-        <v>47.2276014564056</v>
+        <v>47.2273581653768</v>
       </c>
       <c r="H322" t="s">
         <v>32</v>
@@ -9445,13 +9445,13 @@
         <v>67.0957166397628</v>
       </c>
       <c r="E323" t="n">
-        <v>41.6099155944868</v>
+        <v>41.6098640496704</v>
       </c>
       <c r="F323" t="n">
-        <v>35.958873551325</v>
+        <v>35.9578549277231</v>
       </c>
       <c r="G323" t="n">
-        <v>48.892868932391</v>
+        <v>48.8928173818061</v>
       </c>
       <c r="H323" t="s">
         <v>32</v>
@@ -9471,13 +9471,13 @@
         <v>59.0460653293781</v>
       </c>
       <c r="E324" t="n">
-        <v>38.4842007720264</v>
+        <v>38.4837704553423</v>
       </c>
       <c r="F324" t="n">
-        <v>33.2022995074359</v>
+        <v>33.2011389533269</v>
       </c>
       <c r="G324" t="n">
-        <v>41.4387665298275</v>
+        <v>41.4386948958401</v>
       </c>
       <c r="H324" t="s">
         <v>32</v>
@@ -9497,13 +9497,13 @@
         <v>46.2320066029439</v>
       </c>
       <c r="E325" t="n">
-        <v>30.6606277373193</v>
+        <v>30.6591994256231</v>
       </c>
       <c r="F325" t="n">
-        <v>29.0977295182641</v>
+        <v>29.0961592280969</v>
       </c>
       <c r="G325" t="n">
-        <v>32.9325182306698</v>
+        <v>32.9312910427965</v>
       </c>
       <c r="H325" t="s">
         <v>32</v>
@@ -9523,13 +9523,13 @@
         <v>58.5904338133109</v>
       </c>
       <c r="E326" t="n">
-        <v>29.8391418552447</v>
+        <v>29.8379979463288</v>
       </c>
       <c r="F326" t="n">
-        <v>28.5896581331942</v>
+        <v>28.5883051928378</v>
       </c>
       <c r="G326" t="n">
-        <v>37.1930891452198</v>
+        <v>37.192005608202</v>
       </c>
       <c r="H326" t="s">
         <v>32</v>
@@ -9549,13 +9549,13 @@
         <v>43.2542408792108</v>
       </c>
       <c r="E327" t="n">
-        <v>29.5414490925749</v>
+        <v>29.5399519644525</v>
       </c>
       <c r="F327" t="n">
-        <v>28.3373586724708</v>
+        <v>28.3357319145525</v>
       </c>
       <c r="G327" t="n">
-        <v>30.5855618154137</v>
+        <v>30.5840648078064</v>
       </c>
       <c r="H327" t="s">
         <v>32</v>
@@ -9575,13 +9575,13 @@
         <v>42.3878210848465</v>
       </c>
       <c r="E328" t="n">
-        <v>28.8760489656848</v>
+        <v>28.8744489728326</v>
       </c>
       <c r="F328" t="n">
-        <v>27.3179240971156</v>
+        <v>27.3161956995967</v>
       </c>
       <c r="G328" t="n">
-        <v>30.1020948611538</v>
+        <v>30.1006282324186</v>
       </c>
       <c r="H328" t="s">
         <v>32</v>
@@ -9601,13 +9601,13 @@
         <v>41.4985220431423</v>
       </c>
       <c r="E329" t="n">
-        <v>28.1584428943155</v>
+        <v>28.1568390975834</v>
       </c>
       <c r="F329" t="n">
-        <v>27.2099811650687</v>
+        <v>27.2082225203804</v>
       </c>
       <c r="G329" t="n">
-        <v>28.7929830762039</v>
+        <v>28.7915122347902</v>
       </c>
       <c r="H329" t="s">
         <v>32</v>
@@ -9627,13 +9627,13 @@
         <v>44.0953543165705</v>
       </c>
       <c r="E330" t="n">
-        <v>30.4298354751652</v>
+        <v>30.4284168843532</v>
       </c>
       <c r="F330" t="n">
-        <v>29.4058367917195</v>
+        <v>29.4043439681457</v>
       </c>
       <c r="G330" t="n">
-        <v>31.4073418893689</v>
+        <v>31.4059978856205</v>
       </c>
       <c r="H330" t="s">
         <v>32</v>
@@ -9653,13 +9653,13 @@
         <v>40.307729611703</v>
       </c>
       <c r="E331" t="n">
-        <v>26.5693576968222</v>
+        <v>26.5674937268764</v>
       </c>
       <c r="F331" t="n">
-        <v>25.2777237886072</v>
+        <v>25.2755792899067</v>
       </c>
       <c r="G331" t="n">
-        <v>27.4427604369557</v>
+        <v>27.4410307504235</v>
       </c>
       <c r="H331" t="s">
         <v>32</v>
@@ -9679,13 +9679,13 @@
         <v>40.6098552261605</v>
       </c>
       <c r="E332" t="n">
-        <v>27.1163020337284</v>
+        <v>27.114615291112</v>
       </c>
       <c r="F332" t="n">
-        <v>26.4314648258073</v>
+        <v>26.4296971893342</v>
       </c>
       <c r="G332" t="n">
-        <v>28.8050442556988</v>
+        <v>28.8034953852921</v>
       </c>
       <c r="H332" t="s">
         <v>32</v>
@@ -9705,13 +9705,13 @@
         <v>38.0860807403021</v>
       </c>
       <c r="E333" t="n">
-        <v>26.0163520830856</v>
+        <v>26.0145957362063</v>
       </c>
       <c r="F333" t="n">
-        <v>25.3254980614271</v>
+        <v>25.3236521812394</v>
       </c>
       <c r="G333" t="n">
-        <v>26.8231351689685</v>
+        <v>26.8214164545163</v>
       </c>
       <c r="H333" t="s">
         <v>32</v>
@@ -9731,13 +9731,13 @@
         <v>41.7922711151937</v>
       </c>
       <c r="E334" t="n">
-        <v>23.6514620807641</v>
+        <v>23.6493049178179</v>
       </c>
       <c r="F334" t="n">
-        <v>22.6142635026674</v>
+        <v>22.6120600492787</v>
       </c>
       <c r="G334" t="n">
-        <v>26.9620382671495</v>
+        <v>26.9601965331153</v>
       </c>
       <c r="H334" t="s">
         <v>32</v>
@@ -9757,13 +9757,13 @@
         <v>40.3657229884711</v>
       </c>
       <c r="E335" t="n">
-        <v>26.2379253474733</v>
+        <v>26.2360999531962</v>
       </c>
       <c r="F335" t="n">
-        <v>24.9416415989751</v>
+        <v>24.9396854113361</v>
       </c>
       <c r="G335" t="n">
-        <v>28.0622682243376</v>
+        <v>28.0606043561769</v>
       </c>
       <c r="H335" t="s">
         <v>32</v>
@@ -9783,13 +9783,13 @@
         <v>38.3345810067408</v>
       </c>
       <c r="E336" t="n">
-        <v>25.2256381062458</v>
+        <v>25.2236146271931</v>
       </c>
       <c r="F336" t="n">
-        <v>24.0205664816176</v>
+        <v>24.0184199697952</v>
       </c>
       <c r="G336" t="n">
-        <v>26.0848714163851</v>
+        <v>26.0829420021945</v>
       </c>
       <c r="H336" t="s">
         <v>32</v>
@@ -9809,13 +9809,13 @@
         <v>35.4312072347041</v>
       </c>
       <c r="E337" t="n">
-        <v>23.2706038810728</v>
+        <v>23.2685505462854</v>
       </c>
       <c r="F337" t="n">
-        <v>22.2908434604343</v>
+        <v>22.2886486921183</v>
       </c>
       <c r="G337" t="n">
-        <v>24.2718721618135</v>
+        <v>24.2698355653005</v>
       </c>
       <c r="H337" t="s">
         <v>32</v>
@@ -9835,13 +9835,13 @@
         <v>36.9005763979783</v>
       </c>
       <c r="E338" t="n">
-        <v>24.6778530895864</v>
+        <v>24.6759562166325</v>
       </c>
       <c r="F338" t="n">
-        <v>23.6457748952215</v>
+        <v>23.643813893014</v>
       </c>
       <c r="G338" t="n">
-        <v>25.6458206003589</v>
+        <v>25.6439444055111</v>
       </c>
       <c r="H338" t="s">
         <v>32</v>
@@ -9861,16 +9861,16 @@
         <v>189.099154588331</v>
       </c>
       <c r="E339" t="n">
-        <v>135.698886152394</v>
+        <v>135.695866356855</v>
       </c>
       <c r="F339" t="n">
-        <v>132.154092615061</v>
+        <v>132.229929126645</v>
       </c>
       <c r="G339" t="n">
-        <v>144.574210836274</v>
+        <v>144.473265978499</v>
       </c>
       <c r="H339" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="340">
@@ -9887,16 +9887,16 @@
         <v>350.328564782138</v>
       </c>
       <c r="E340" t="n">
-        <v>349.048492329001</v>
+        <v>349.023287699622</v>
       </c>
       <c r="F340" t="n">
-        <v>218.336976769727</v>
+        <v>218.215385036985</v>
       </c>
       <c r="G340" t="n">
-        <v>489.069979997057</v>
+        <v>489.065213342335</v>
       </c>
       <c r="H340" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="341">
@@ -9913,16 +9913,16 @@
         <v>356.023757508419</v>
       </c>
       <c r="E341" t="n">
-        <v>361.092802016743</v>
+        <v>360.761509053607</v>
       </c>
       <c r="F341" t="n">
-        <v>279.134384695219</v>
+        <v>278.277314432215</v>
       </c>
       <c r="G341" t="n">
-        <v>519.131216721306</v>
+        <v>519.0053447951</v>
       </c>
       <c r="H341" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="342">
@@ -9939,16 +9939,16 @@
         <v>244.70509432724</v>
       </c>
       <c r="E342" t="n">
-        <v>192.480626030441</v>
+        <v>192.073734174048</v>
       </c>
       <c r="F342" t="n">
-        <v>88.5616007523548</v>
+        <v>88.3910087453957</v>
       </c>
       <c r="G342" t="n">
-        <v>296.443490594707</v>
+        <v>295.987271510997</v>
       </c>
       <c r="H342" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="343">
@@ -9965,16 +9965,16 @@
         <v>261.295471644386</v>
       </c>
       <c r="E343" t="n">
-        <v>334.600047252263</v>
+        <v>334.467274222873</v>
       </c>
       <c r="F343" t="n">
-        <v>290.270243224815</v>
+        <v>290.125494861854</v>
       </c>
       <c r="G343" t="n">
-        <v>357.69750312352</v>
+        <v>357.676229000674</v>
       </c>
       <c r="H343" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="344">
@@ -9991,16 +9991,16 @@
         <v>212.555718507908</v>
       </c>
       <c r="E344" t="n">
-        <v>259.081371978979</v>
+        <v>259.098098585035</v>
       </c>
       <c r="F344" t="n">
-        <v>255.322700209406</v>
+        <v>255.323948075094</v>
       </c>
       <c r="G344" t="n">
-        <v>261.973997002206</v>
+        <v>262.019297698069</v>
       </c>
       <c r="H344" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="345">
@@ -10017,16 +10017,16 @@
         <v>218.516706843524</v>
       </c>
       <c r="E345" t="n">
-        <v>260.559358984081</v>
+        <v>260.574937688411</v>
       </c>
       <c r="F345" t="n">
-        <v>259.991612301733</v>
+        <v>260.006816380363</v>
       </c>
       <c r="G345" t="n">
-        <v>268.270669493898</v>
+        <v>268.339634143655</v>
       </c>
       <c r="H345" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346">
@@ -10043,16 +10043,16 @@
         <v>216.245375471102</v>
       </c>
       <c r="E346" t="n">
-        <v>260.181009174859</v>
+        <v>260.195401073597</v>
       </c>
       <c r="F346" t="n">
-        <v>254.185052931017</v>
+        <v>254.185626018692</v>
       </c>
       <c r="G346" t="n">
-        <v>261.79085016213</v>
+        <v>261.83607657007</v>
       </c>
       <c r="H346" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="347">
@@ -10069,16 +10069,16 @@
         <v>246.327496880976</v>
       </c>
       <c r="E347" t="n">
-        <v>231.356932442821</v>
+        <v>231.291497929546</v>
       </c>
       <c r="F347" t="n">
-        <v>198.27496698455</v>
+        <v>198.156257897802</v>
       </c>
       <c r="G347" t="n">
-        <v>271.290946940272</v>
+        <v>271.278613058781</v>
       </c>
       <c r="H347" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348">
@@ -10095,16 +10095,16 @@
         <v>206.125499314372</v>
       </c>
       <c r="E348" t="n">
-        <v>258.522279918695</v>
+        <v>258.531522633519</v>
       </c>
       <c r="F348" t="n">
-        <v>257.296083708308</v>
+        <v>257.30197049306</v>
       </c>
       <c r="G348" t="n">
-        <v>259.768194440523</v>
+        <v>259.783204619677</v>
       </c>
       <c r="H348" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="349">
@@ -10121,16 +10121,16 @@
         <v>212.560698704591</v>
       </c>
       <c r="E349" t="n">
-        <v>261.783720143089</v>
+        <v>261.824295738244</v>
       </c>
       <c r="F349" t="n">
-        <v>260.67609568458</v>
+        <v>260.704020892797</v>
       </c>
       <c r="G349" t="n">
-        <v>262.802398645689</v>
+        <v>262.858425580657</v>
       </c>
       <c r="H349" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="350">
@@ -10147,16 +10147,16 @@
         <v>213.686276208135</v>
       </c>
       <c r="E350" t="n">
-        <v>253.626458860304</v>
+        <v>253.625546801211</v>
       </c>
       <c r="F350" t="n">
-        <v>246.010944360692</v>
+        <v>246.010664429888</v>
       </c>
       <c r="G350" t="n">
-        <v>256.947837919747</v>
+        <v>256.947158012754</v>
       </c>
       <c r="H350" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351">
@@ -10173,16 +10173,16 @@
         <v>209.343874913361</v>
       </c>
       <c r="E351" t="n">
-        <v>258.406527417192</v>
+        <v>258.41909701534</v>
       </c>
       <c r="F351" t="n">
-        <v>256.092310815568</v>
+        <v>256.095557520306</v>
       </c>
       <c r="G351" t="n">
-        <v>260.763682849182</v>
+        <v>260.793952516243</v>
       </c>
       <c r="H351" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="352">
@@ -10199,16 +10199,16 @@
         <v>212.042672374929</v>
       </c>
       <c r="E352" t="n">
-        <v>257.173068719346</v>
+        <v>257.173863719416</v>
       </c>
       <c r="F352" t="n">
-        <v>252.264111759005</v>
+        <v>252.26128837845</v>
       </c>
       <c r="G352" t="n">
-        <v>262.454499625196</v>
+        <v>262.454149281227</v>
       </c>
       <c r="H352" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="353">
@@ -10225,16 +10225,16 @@
         <v>243.94297432745</v>
       </c>
       <c r="E353" t="n">
-        <v>251.545596474756</v>
+        <v>251.532760001154</v>
       </c>
       <c r="F353" t="n">
-        <v>234.001907816499</v>
+        <v>233.937459822318</v>
       </c>
       <c r="G353" t="n">
-        <v>269.93775672844</v>
+        <v>269.920550918288</v>
       </c>
       <c r="H353" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354">
@@ -10251,16 +10251,16 @@
         <v>262.317352022982</v>
       </c>
       <c r="E354" t="n">
-        <v>291.304519223951</v>
+        <v>291.280175697418</v>
       </c>
       <c r="F354" t="n">
-        <v>267.283248259739</v>
+        <v>267.263265798673</v>
       </c>
       <c r="G354" t="n">
-        <v>312.501904609303</v>
+        <v>313.130325533122</v>
       </c>
       <c r="H354" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="355">
@@ -10277,16 +10277,16 @@
         <v>281.407558447014</v>
       </c>
       <c r="E355" t="n">
-        <v>226.80464958787</v>
+        <v>226.797528742003</v>
       </c>
       <c r="F355" t="n">
-        <v>185.897117223192</v>
+        <v>185.809975911528</v>
       </c>
       <c r="G355" t="n">
-        <v>303.189506457194</v>
+        <v>305.066804056244</v>
       </c>
       <c r="H355" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="356">
@@ -10303,16 +10303,16 @@
         <v>218.153157548365</v>
       </c>
       <c r="E356" t="n">
-        <v>257.850562189028</v>
+        <v>257.871429269737</v>
       </c>
       <c r="F356" t="n">
-        <v>255.979904156676</v>
+        <v>255.992289043627</v>
       </c>
       <c r="G356" t="n">
-        <v>259.314401159401</v>
+        <v>259.340298416505</v>
       </c>
       <c r="H356" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="357">
@@ -10329,16 +10329,16 @@
         <v>215.194505418957</v>
       </c>
       <c r="E357" t="n">
-        <v>262.887508431114</v>
+        <v>262.951825392713</v>
       </c>
       <c r="F357" t="n">
-        <v>261.343029364529</v>
+        <v>261.381058865736</v>
       </c>
       <c r="G357" t="n">
-        <v>263.625091527414</v>
+        <v>263.704435028383</v>
       </c>
       <c r="H357" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="358">
@@ -10355,16 +10355,16 @@
         <v>206.569412925719</v>
       </c>
       <c r="E358" t="n">
-        <v>258.211238299819</v>
+        <v>258.214922856059</v>
       </c>
       <c r="F358" t="n">
-        <v>256.910493498724</v>
+        <v>256.91099212416</v>
       </c>
       <c r="G358" t="n">
-        <v>260.364117271298</v>
+        <v>260.376151870067</v>
       </c>
       <c r="H358" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="359">
@@ -10381,16 +10381,16 @@
         <v>229.912375465574</v>
       </c>
       <c r="E359" t="n">
-        <v>258.086665712343</v>
+        <v>258.074521355987</v>
       </c>
       <c r="F359" t="n">
-        <v>243.136608321183</v>
+        <v>243.133563046845</v>
       </c>
       <c r="G359" t="n">
-        <v>271.636571300154</v>
+        <v>271.609734693771</v>
       </c>
       <c r="H359" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="360">
@@ -10407,16 +10407,16 @@
         <v>202.89277953434</v>
       </c>
       <c r="E360" t="n">
-        <v>256.333550253934</v>
+        <v>256.333140047321</v>
       </c>
       <c r="F360" t="n">
-        <v>254.943786278403</v>
+        <v>254.94254738727</v>
       </c>
       <c r="G360" t="n">
-        <v>257.425108808966</v>
+        <v>257.429626503914</v>
       </c>
       <c r="H360" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="361">
@@ -10433,16 +10433,16 @@
         <v>246.71864282438</v>
       </c>
       <c r="E361" t="n">
-        <v>215.368351866045</v>
+        <v>216.117787598773</v>
       </c>
       <c r="F361" t="n">
-        <v>177.737172589913</v>
+        <v>177.717466812731</v>
       </c>
       <c r="G361" t="n">
-        <v>243.508018349773</v>
+        <v>244.542326740152</v>
       </c>
       <c r="H361" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="362">
@@ -10459,16 +10459,16 @@
         <v>236.807118779695</v>
       </c>
       <c r="E362" t="n">
-        <v>199.708112058382</v>
+        <v>199.631683813428</v>
       </c>
       <c r="F362" t="n">
-        <v>180.369990266551</v>
+        <v>180.345583980695</v>
       </c>
       <c r="G362" t="n">
-        <v>225.573188768005</v>
+        <v>225.538410458256</v>
       </c>
       <c r="H362" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="363">
@@ -10485,16 +10485,16 @@
         <v>250.91504329666</v>
       </c>
       <c r="E363" t="n">
-        <v>177.357520766189</v>
+        <v>177.281879400461</v>
       </c>
       <c r="F363" t="n">
-        <v>161.095407762689</v>
+        <v>160.827304928529</v>
       </c>
       <c r="G363" t="n">
-        <v>199.224935348762</v>
+        <v>199.145681813889</v>
       </c>
       <c r="H363" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="364">
@@ -10511,13 +10511,13 @@
         <v>70.4107501869319</v>
       </c>
       <c r="E364" t="n">
-        <v>43.3422903911692</v>
+        <v>43.3418552209104</v>
       </c>
       <c r="F364" t="n">
-        <v>39.8181081017144</v>
+        <v>39.8180001127738</v>
       </c>
       <c r="G364" t="n">
-        <v>51.7189281401196</v>
+        <v>51.7189105849563</v>
       </c>
       <c r="H364" t="s">
         <v>31</v>
@@ -10537,13 +10537,13 @@
         <v>112.484034174723</v>
       </c>
       <c r="E365" t="n">
-        <v>51.1468214941071</v>
+        <v>51.1479566312908</v>
       </c>
       <c r="F365" t="n">
-        <v>42.1485335726189</v>
+        <v>42.1524089476544</v>
       </c>
       <c r="G365" t="n">
-        <v>59.6946596314428</v>
+        <v>59.6949013163222</v>
       </c>
       <c r="H365" t="s">
         <v>31</v>
@@ -10563,13 +10563,13 @@
         <v>56.2274328091917</v>
       </c>
       <c r="E366" t="n">
-        <v>40.6377431841135</v>
+        <v>40.6368670981029</v>
       </c>
       <c r="F366" t="n">
-        <v>39.9781158898221</v>
+        <v>39.9769651575292</v>
       </c>
       <c r="G366" t="n">
-        <v>41.9312455751033</v>
+        <v>41.9306998768807</v>
       </c>
       <c r="H366" t="s">
         <v>32</v>
@@ -10589,13 +10589,13 @@
         <v>60.5375354390352</v>
       </c>
       <c r="E367" t="n">
-        <v>40.5567908368863</v>
+        <v>40.5559746696451</v>
       </c>
       <c r="F367" t="n">
-        <v>40.0556357659907</v>
+        <v>40.0548867078631</v>
       </c>
       <c r="G367" t="n">
-        <v>41.8101170959065</v>
+        <v>41.8095609128251</v>
       </c>
       <c r="H367" t="s">
         <v>32</v>
@@ -10615,13 +10615,13 @@
         <v>55.274823363323</v>
       </c>
       <c r="E368" t="n">
-        <v>40.7381053272426</v>
+        <v>40.7372666161281</v>
       </c>
       <c r="F368" t="n">
-        <v>40.3100845161159</v>
+        <v>40.3090946145671</v>
       </c>
       <c r="G368" t="n">
-        <v>41.3074517462878</v>
+        <v>41.3067074566208</v>
       </c>
       <c r="H368" t="s">
         <v>32</v>
@@ -10641,13 +10641,13 @@
         <v>69.8427115719469</v>
       </c>
       <c r="E369" t="n">
-        <v>40.0292791620177</v>
+        <v>40.0289591460262</v>
       </c>
       <c r="F369" t="n">
-        <v>39.1318457970227</v>
+        <v>39.1316100173182</v>
       </c>
       <c r="G369" t="n">
-        <v>44.7837891004867</v>
+        <v>44.7835779952659</v>
       </c>
       <c r="H369" t="s">
         <v>31</v>
@@ -10667,13 +10667,13 @@
         <v>54.8995348292001</v>
       </c>
       <c r="E370" t="n">
-        <v>40.3828756858577</v>
+        <v>40.3819354480796</v>
       </c>
       <c r="F370" t="n">
-        <v>40.2188783681379</v>
+        <v>40.2178623283223</v>
       </c>
       <c r="G370" t="n">
-        <v>40.479907344285</v>
+        <v>40.4790315756532</v>
       </c>
       <c r="H370" t="s">
         <v>32</v>
@@ -10693,13 +10693,13 @@
         <v>67.1729502664249</v>
       </c>
       <c r="E371" t="n">
-        <v>43.3713643555318</v>
+        <v>43.3711506909324</v>
       </c>
       <c r="F371" t="n">
-        <v>41.3508959644521</v>
+        <v>41.350168335477</v>
       </c>
       <c r="G371" t="n">
-        <v>46.9578955901754</v>
+        <v>46.9576755141098</v>
       </c>
       <c r="H371" t="s">
         <v>32</v>
@@ -10719,13 +10719,13 @@
         <v>156.575469404062</v>
       </c>
       <c r="E372" t="n">
-        <v>94.5755066893136</v>
+        <v>94.573742874125</v>
       </c>
       <c r="F372" t="n">
-        <v>57.4834085077408</v>
+        <v>57.4829595466983</v>
       </c>
       <c r="G372" t="n">
-        <v>129.32604359024</v>
+        <v>129.323719972629</v>
       </c>
       <c r="H372" t="s">
         <v>33</v>
@@ -10745,13 +10745,13 @@
         <v>128.928400090803</v>
       </c>
       <c r="E373" t="n">
-        <v>55.2766364464354</v>
+        <v>55.2765044967634</v>
       </c>
       <c r="F373" t="n">
-        <v>44.9770523515233</v>
+        <v>44.9769639015724</v>
       </c>
       <c r="G373" t="n">
-        <v>67.8994595698344</v>
+        <v>67.8980650737569</v>
       </c>
       <c r="H373" t="s">
         <v>31</v>
@@ -10771,13 +10771,13 @@
         <v>52.9155481789328</v>
       </c>
       <c r="E374" t="n">
-        <v>39.4026107683088</v>
+        <v>39.4013706294868</v>
       </c>
       <c r="F374" t="n">
-        <v>38.3246741456086</v>
+        <v>38.3231186350329</v>
       </c>
       <c r="G374" t="n">
-        <v>40.1757318182835</v>
+        <v>40.1746976816838</v>
       </c>
       <c r="H374" t="s">
         <v>32</v>
@@ -10797,13 +10797,13 @@
         <v>53.6366376074434</v>
       </c>
       <c r="E375" t="n">
-        <v>38.950888785888</v>
+        <v>38.9487648167342</v>
       </c>
       <c r="F375" t="n">
-        <v>36.9611543015621</v>
+        <v>36.959163752294</v>
       </c>
       <c r="G375" t="n">
-        <v>40.8985489315407</v>
+        <v>40.8973302400419</v>
       </c>
       <c r="H375" t="s">
         <v>32</v>
@@ -10823,13 +10823,13 @@
         <v>53.7351968778933</v>
       </c>
       <c r="E376" t="n">
-        <v>40.5614277972737</v>
+        <v>40.5604403866137</v>
       </c>
       <c r="F376" t="n">
-        <v>39.974907181019</v>
+        <v>39.9737976180265</v>
       </c>
       <c r="G376" t="n">
-        <v>41.6898944043196</v>
+        <v>41.6891003614145</v>
       </c>
       <c r="H376" t="s">
         <v>32</v>
@@ -10849,13 +10849,13 @@
         <v>57.0057562724546</v>
       </c>
       <c r="E377" t="n">
-        <v>38.6454806220686</v>
+        <v>38.6441208159712</v>
       </c>
       <c r="F377" t="n">
-        <v>36.2043498266404</v>
+        <v>36.2024410007496</v>
       </c>
       <c r="G377" t="n">
-        <v>44.1078657835897</v>
+        <v>44.1074569061888</v>
       </c>
       <c r="H377" t="s">
         <v>32</v>
@@ -10875,13 +10875,13 @@
         <v>64.0757925697129</v>
       </c>
       <c r="E378" t="n">
-        <v>42.7957910130383</v>
+        <v>42.7951575613689</v>
       </c>
       <c r="F378" t="n">
-        <v>40.9645375814706</v>
+        <v>40.9636759080732</v>
       </c>
       <c r="G378" t="n">
-        <v>47.3813667777982</v>
+        <v>47.3810563740589</v>
       </c>
       <c r="H378" t="s">
         <v>32</v>
@@ -10901,13 +10901,13 @@
         <v>48.1053969260375</v>
       </c>
       <c r="E379" t="n">
-        <v>37.6750932084087</v>
+        <v>37.6710060088919</v>
       </c>
       <c r="F379" t="n">
-        <v>36.0308412107904</v>
+        <v>36.0268543198353</v>
       </c>
       <c r="G379" t="n">
-        <v>39.2662682657442</v>
+        <v>39.2624492174184</v>
       </c>
       <c r="H379" t="s">
         <v>32</v>
@@ -10927,13 +10927,13 @@
         <v>50.259444450829</v>
       </c>
       <c r="E380" t="n">
-        <v>39.4254244499235</v>
+        <v>39.4214366076623</v>
       </c>
       <c r="F380" t="n">
-        <v>37.8260409482168</v>
+        <v>37.8218788903174</v>
       </c>
       <c r="G380" t="n">
-        <v>40.9992292605477</v>
+        <v>40.9951081525537</v>
       </c>
       <c r="H380" t="s">
         <v>32</v>
@@ -10953,13 +10953,13 @@
         <v>53.3826896079623</v>
       </c>
       <c r="E381" t="n">
-        <v>41.700730565254</v>
+        <v>41.6969696223492</v>
       </c>
       <c r="F381" t="n">
-        <v>40.2659161368906</v>
+        <v>40.2620136408577</v>
       </c>
       <c r="G381" t="n">
-        <v>43.2772542323091</v>
+        <v>43.2735514109864</v>
       </c>
       <c r="H381" t="s">
         <v>32</v>
@@ -10979,13 +10979,13 @@
         <v>50.9122824949097</v>
       </c>
       <c r="E382" t="n">
-        <v>39.2537040989376</v>
+        <v>39.2506590479516</v>
       </c>
       <c r="F382" t="n">
-        <v>37.3429111277426</v>
+        <v>37.3399821507915</v>
       </c>
       <c r="G382" t="n">
-        <v>41.2300316377001</v>
+        <v>41.2265295436752</v>
       </c>
       <c r="H382" t="s">
         <v>32</v>
@@ -11005,13 +11005,13 @@
         <v>113.742211424882</v>
       </c>
       <c r="E383" t="n">
-        <v>77.9771577542272</v>
+        <v>78.0228821694863</v>
       </c>
       <c r="F383" t="n">
-        <v>39.8818080940257</v>
+        <v>39.8786592942581</v>
       </c>
       <c r="G383" t="n">
-        <v>92.9044137935813</v>
+        <v>92.9120617720035</v>
       </c>
       <c r="H383" t="s">
         <v>39</v>
@@ -11031,13 +11031,13 @@
         <v>28.3819905559443</v>
       </c>
       <c r="E384" t="n">
-        <v>21.573493606448</v>
+        <v>21.5722388562057</v>
       </c>
       <c r="F384" t="n">
-        <v>19.1821640569095</v>
+        <v>19.1807612939997</v>
       </c>
       <c r="G384" t="n">
-        <v>23.3953590841852</v>
+        <v>23.3938225417908</v>
       </c>
       <c r="H384" t="s">
         <v>32</v>
@@ -11057,13 +11057,13 @@
         <v>46.8490711143472</v>
       </c>
       <c r="E385" t="n">
-        <v>29.4264111704866</v>
+        <v>29.4251293723754</v>
       </c>
       <c r="F385" t="n">
-        <v>24.9295549187051</v>
+        <v>24.9280706382847</v>
       </c>
       <c r="G385" t="n">
-        <v>36.0119767417792</v>
+        <v>36.0113866471554</v>
       </c>
       <c r="H385" t="s">
         <v>32</v>
@@ -11083,13 +11083,13 @@
         <v>91.2232524663234</v>
       </c>
       <c r="E386" t="n">
-        <v>45.5734463796911</v>
+        <v>45.5731428492626</v>
       </c>
       <c r="F386" t="n">
-        <v>31.7587098760723</v>
+        <v>31.757454313218</v>
       </c>
       <c r="G386" t="n">
-        <v>52.8995820523543</v>
+        <v>52.899127249781</v>
       </c>
       <c r="H386" t="s">
         <v>31</v>
@@ -11109,13 +11109,13 @@
         <v>35.4156806158007</v>
       </c>
       <c r="E387" t="n">
-        <v>24.8214905025445</v>
+        <v>24.8202347913691</v>
       </c>
       <c r="F387" t="n">
-        <v>23.2054338603562</v>
+        <v>23.2042393036429</v>
       </c>
       <c r="G387" t="n">
-        <v>27.3160937404895</v>
+        <v>27.3151834569377</v>
       </c>
       <c r="H387" t="s">
         <v>32</v>
@@ -11135,13 +11135,13 @@
         <v>33.8255891313176</v>
       </c>
       <c r="E388" t="n">
-        <v>18.9205309057754</v>
+        <v>18.9199818864629</v>
       </c>
       <c r="F388" t="n">
-        <v>15.7649950596285</v>
+        <v>15.7641531630284</v>
       </c>
       <c r="G388" t="n">
-        <v>24.0910009121934</v>
+        <v>24.0901700245508</v>
       </c>
       <c r="H388" t="s">
         <v>32</v>
@@ -11161,13 +11161,13 @@
         <v>73.6003596695176</v>
       </c>
       <c r="E389" t="n">
-        <v>31.8333288291687</v>
+        <v>31.8333184835068</v>
       </c>
       <c r="F389" t="n">
-        <v>23.3419083728268</v>
+        <v>23.3417583123472</v>
       </c>
       <c r="G389" t="n">
-        <v>46.6116526248215</v>
+        <v>46.6115237884183</v>
       </c>
       <c r="H389" t="s">
         <v>32</v>
@@ -11187,13 +11187,13 @@
         <v>45.0741401827529</v>
       </c>
       <c r="E390" t="n">
-        <v>33.9055649200828</v>
+        <v>33.9028995225872</v>
       </c>
       <c r="F390" t="n">
-        <v>31.9215972128645</v>
+        <v>31.919185804641</v>
       </c>
       <c r="G390" t="n">
-        <v>36.2863718013317</v>
+        <v>36.2842682148045</v>
       </c>
       <c r="H390" t="s">
         <v>32</v>
@@ -11213,13 +11213,13 @@
         <v>42.1389448233679</v>
       </c>
       <c r="E391" t="n">
-        <v>32.1565743781186</v>
+        <v>32.1536990180336</v>
       </c>
       <c r="F391" t="n">
-        <v>28.7548690433819</v>
+        <v>28.7517251090901</v>
       </c>
       <c r="G391" t="n">
-        <v>34.7297273313068</v>
+        <v>34.726412652598</v>
       </c>
       <c r="H391" t="s">
         <v>32</v>
@@ -11239,13 +11239,13 @@
         <v>46.83130459868</v>
       </c>
       <c r="E392" t="n">
-        <v>36.0132546226248</v>
+        <v>36.0106737627129</v>
       </c>
       <c r="F392" t="n">
-        <v>33.9015434326304</v>
+        <v>33.8985388563397</v>
       </c>
       <c r="G392" t="n">
-        <v>37.8666752997799</v>
+        <v>37.8636111998437</v>
       </c>
       <c r="H392" t="s">
         <v>32</v>
@@ -11265,13 +11265,13 @@
         <v>37.1224008654684</v>
       </c>
       <c r="E393" t="n">
-        <v>28.9763744658765</v>
+        <v>28.9743145349336</v>
       </c>
       <c r="F393" t="n">
-        <v>28.1367927308236</v>
+        <v>28.1346388901957</v>
       </c>
       <c r="G393" t="n">
-        <v>30.3018554876963</v>
+        <v>30.3000875489961</v>
       </c>
       <c r="H393" t="s">
         <v>32</v>
@@ -11291,13 +11291,13 @@
         <v>38.9185349413761</v>
       </c>
       <c r="E394" t="n">
-        <v>30.2210187957371</v>
+        <v>30.2191187552534</v>
       </c>
       <c r="F394" t="n">
-        <v>29.3327660592939</v>
+        <v>29.3304717893254</v>
       </c>
       <c r="G394" t="n">
-        <v>31.804682648296</v>
+        <v>31.802812710087</v>
       </c>
       <c r="H394" t="s">
         <v>32</v>
@@ -11317,13 +11317,13 @@
         <v>40.777313663285</v>
       </c>
       <c r="E395" t="n">
-        <v>32.1494872726309</v>
+        <v>32.1475949473303</v>
       </c>
       <c r="F395" t="n">
-        <v>30.2944366906231</v>
+        <v>30.2919627934807</v>
       </c>
       <c r="G395" t="n">
-        <v>33.3000430981303</v>
+        <v>33.2980449112692</v>
       </c>
       <c r="H395" t="s">
         <v>32</v>
@@ -11343,13 +11343,13 @@
         <v>35.034490850882</v>
       </c>
       <c r="E396" t="n">
-        <v>27.3678905618858</v>
+        <v>27.3655588840751</v>
       </c>
       <c r="F396" t="n">
-        <v>23.6589697107854</v>
+        <v>23.6568346078188</v>
       </c>
       <c r="G396" t="n">
-        <v>29.2956171670996</v>
+        <v>29.2929884873229</v>
       </c>
       <c r="H396" t="s">
         <v>32</v>
@@ -11369,13 +11369,13 @@
         <v>414.252406172842</v>
       </c>
       <c r="E397" t="n">
-        <v>667.735141323016</v>
+        <v>770.451338666722</v>
       </c>
       <c r="F397" t="n">
-        <v>570.683080907972</v>
+        <v>676.378354563487</v>
       </c>
       <c r="G397" t="n">
-        <v>717.824677170792</v>
+        <v>820.318243328382</v>
       </c>
       <c r="H397" t="s">
         <v>40</v>
@@ -11395,13 +11395,13 @@
         <v>453.784772059143</v>
       </c>
       <c r="E398" t="n">
-        <v>537.220241644169</v>
+        <v>637.199941353236</v>
       </c>
       <c r="F398" t="n">
-        <v>241.983266010336</v>
+        <v>357.949672394267</v>
       </c>
       <c r="G398" t="n">
-        <v>872.583041505147</v>
+        <v>976.04785584602</v>
       </c>
       <c r="H398" t="s">
         <v>40</v>
@@ -11421,16 +11421,16 @@
         <v>347.175738730821</v>
       </c>
       <c r="E399" t="n">
-        <v>341.213781106045</v>
+        <v>368.469147911978</v>
       </c>
       <c r="F399" t="n">
-        <v>162.527381735555</v>
+        <v>174.016892976063</v>
       </c>
       <c r="G399" t="n">
-        <v>513.323823358855</v>
+        <v>547.403472768103</v>
       </c>
       <c r="H399" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="400">
@@ -11447,13 +11447,13 @@
         <v>390.560520329974</v>
       </c>
       <c r="E400" t="n">
-        <v>592.569435718479</v>
+        <v>689.407182943587</v>
       </c>
       <c r="F400" t="n">
-        <v>546.264282905762</v>
+        <v>654.395208993782</v>
       </c>
       <c r="G400" t="n">
-        <v>763.896971436887</v>
+        <v>795.701887479865</v>
       </c>
       <c r="H400" t="s">
         <v>40</v>
@@ -11473,13 +11473,13 @@
         <v>450.683224415138</v>
       </c>
       <c r="E401" t="n">
-        <v>829.815204642356</v>
+        <v>932.366965777102</v>
       </c>
       <c r="F401" t="n">
-        <v>817.000498376786</v>
+        <v>919.910647671757</v>
       </c>
       <c r="G401" t="n">
-        <v>910.758930338781</v>
+        <v>1013.9240784646</v>
       </c>
       <c r="H401" t="s">
         <v>40</v>
@@ -11499,16 +11499,16 @@
         <v>334.711458553448</v>
       </c>
       <c r="E402" t="n">
-        <v>328.266950558512</v>
+        <v>410.367008482418</v>
       </c>
       <c r="F402" t="n">
-        <v>158.445981816203</v>
+        <v>237.901590433694</v>
       </c>
       <c r="G402" t="n">
-        <v>544.275012531938</v>
+        <v>602.170514487706</v>
       </c>
       <c r="H402" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="403">
@@ -11525,13 +11525,13 @@
         <v>521.105434921559</v>
       </c>
       <c r="E403" t="n">
-        <v>892.472386587959</v>
+        <v>995.583754167371</v>
       </c>
       <c r="F403" t="n">
-        <v>831.644932640565</v>
+        <v>934.432255050845</v>
       </c>
       <c r="G403" t="n">
-        <v>1246.23784547992</v>
+        <v>1349.03619935047</v>
       </c>
       <c r="H403" t="s">
         <v>40</v>
@@ -11551,13 +11551,13 @@
         <v>533.994395456481</v>
       </c>
       <c r="E404" t="n">
-        <v>1008.5783767232</v>
+        <v>1111.39177972398</v>
       </c>
       <c r="F404" t="n">
-        <v>912.241735371368</v>
+        <v>1015.04784712472</v>
       </c>
       <c r="G404" t="n">
-        <v>1272.19053974994</v>
+        <v>1374.9977795143</v>
       </c>
       <c r="H404" t="s">
         <v>40</v>
@@ -11577,13 +11577,13 @@
         <v>411.420966089262</v>
       </c>
       <c r="E405" t="n">
-        <v>712.521767437087</v>
+        <v>813.251776652435</v>
       </c>
       <c r="F405" t="n">
-        <v>711.092978123101</v>
+        <v>811.137974160176</v>
       </c>
       <c r="G405" t="n">
-        <v>713.545405568682</v>
+        <v>814.883767455533</v>
       </c>
       <c r="H405" t="s">
         <v>40</v>
@@ -11603,16 +11603,16 @@
         <v>386.999871854576</v>
       </c>
       <c r="E406" t="n">
-        <v>639.7076553387</v>
+        <v>663.139331386957</v>
       </c>
       <c r="F406" t="n">
-        <v>373.616525237388</v>
+        <v>386.781143661783</v>
       </c>
       <c r="G406" t="n">
-        <v>959.819343180783</v>
+        <v>967.552340472669</v>
       </c>
       <c r="H406" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="407">
@@ -11629,16 +11629,16 @@
         <v>322.603312267945</v>
       </c>
       <c r="E407" t="n">
-        <v>605.249697409971</v>
+        <v>605.261035836161</v>
       </c>
       <c r="F407" t="n">
-        <v>601.412602546947</v>
+        <v>601.393785061442</v>
       </c>
       <c r="G407" t="n">
-        <v>606.993715111838</v>
+        <v>606.971926092712</v>
       </c>
       <c r="H407" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="408">
@@ -11655,16 +11655,16 @@
         <v>362.981981795859</v>
       </c>
       <c r="E408" t="n">
-        <v>599.529119766379</v>
+        <v>599.758893920497</v>
       </c>
       <c r="F408" t="n">
-        <v>480.668828430412</v>
+        <v>482.889011543622</v>
       </c>
       <c r="G408" t="n">
-        <v>764.429394591436</v>
+        <v>764.412211600341</v>
       </c>
       <c r="H408" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="409">
@@ -11681,16 +11681,16 @@
         <v>346.021791844087</v>
       </c>
       <c r="E409" t="n">
-        <v>372.302055040559</v>
+        <v>374.276837493662</v>
       </c>
       <c r="F409" t="n">
-        <v>188.060412660688</v>
+        <v>190.847465384385</v>
       </c>
       <c r="G409" t="n">
-        <v>543.816779941017</v>
+        <v>542.684366312171</v>
       </c>
       <c r="H409" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="410">
@@ -11707,13 +11707,13 @@
         <v>390.239333797865</v>
       </c>
       <c r="E410" t="n">
-        <v>581.928267068535</v>
+        <v>581.834711241959</v>
       </c>
       <c r="F410" t="n">
-        <v>370.732383239436</v>
+        <v>369.561041320383</v>
       </c>
       <c r="G410" t="n">
-        <v>677.849741090846</v>
+        <v>677.849171357225</v>
       </c>
       <c r="H410" t="s">
         <v>40</v>
@@ -11733,16 +11733,16 @@
         <v>360.069242037251</v>
       </c>
       <c r="E411" t="n">
-        <v>488.179751724533</v>
+        <v>488.17030851726</v>
       </c>
       <c r="F411" t="n">
-        <v>419.100487739315</v>
+        <v>419.086935083684</v>
       </c>
       <c r="G411" t="n">
-        <v>577.621822604802</v>
+        <v>577.593868694922</v>
       </c>
       <c r="H411" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="412">
@@ -11759,13 +11759,13 @@
         <v>488.81665534732</v>
       </c>
       <c r="E412" t="n">
-        <v>729.66225684695</v>
+        <v>729.201936330325</v>
       </c>
       <c r="F412" t="n">
-        <v>348.849385042635</v>
+        <v>347.943284876981</v>
       </c>
       <c r="G412" t="n">
-        <v>1145.66979172957</v>
+        <v>1145.66432681156</v>
       </c>
       <c r="H412" t="s">
         <v>40</v>
@@ -11785,13 +11785,13 @@
         <v>416.19442634294</v>
       </c>
       <c r="E413" t="n">
-        <v>644.787191360394</v>
+        <v>644.754880599503</v>
       </c>
       <c r="F413" t="n">
-        <v>421.087912542197</v>
+        <v>421.061398910264</v>
       </c>
       <c r="G413" t="n">
-        <v>900.215998004094</v>
+        <v>900.060194480589</v>
       </c>
       <c r="H413" t="s">
         <v>40</v>
@@ -11811,13 +11811,13 @@
         <v>398.9828233727</v>
       </c>
       <c r="E414" t="n">
-        <v>627.85664094855</v>
+        <v>627.688316497793</v>
       </c>
       <c r="F414" t="n">
-        <v>467.563223673923</v>
+        <v>467.176416600751</v>
       </c>
       <c r="G414" t="n">
-        <v>660.656378134559</v>
+        <v>660.448944790591</v>
       </c>
       <c r="H414" t="s">
         <v>40</v>
@@ -11837,13 +11837,13 @@
         <v>150.979242519745</v>
       </c>
       <c r="E415" t="n">
-        <v>47.3399507227271</v>
+        <v>47.3445737891128</v>
       </c>
       <c r="F415" t="n">
-        <v>45.8336789573985</v>
+        <v>45.8351850290054</v>
       </c>
       <c r="G415" t="n">
-        <v>48.9195341100618</v>
+        <v>48.9295045877653</v>
       </c>
       <c r="H415" t="s">
         <v>41</v>
@@ -11863,13 +11863,13 @@
         <v>150.151066240852</v>
       </c>
       <c r="E416" t="n">
-        <v>46.4741790365576</v>
+        <v>46.4790771648928</v>
       </c>
       <c r="F416" t="n">
-        <v>42.454041324442</v>
+        <v>42.4555602888836</v>
       </c>
       <c r="G416" t="n">
-        <v>48.8389844977389</v>
+        <v>48.8506597316914</v>
       </c>
       <c r="H416" t="s">
         <v>41</v>
@@ -11889,13 +11889,13 @@
         <v>144.567668433278</v>
       </c>
       <c r="E417" t="n">
-        <v>47.8009701594279</v>
+        <v>47.812145368633</v>
       </c>
       <c r="F417" t="n">
-        <v>46.7385240031746</v>
+        <v>46.7481786897473</v>
       </c>
       <c r="G417" t="n">
-        <v>48.9092921023956</v>
+        <v>48.9224478299939</v>
       </c>
       <c r="H417" t="s">
         <v>41</v>
@@ -11915,13 +11915,13 @@
         <v>145.078760447947</v>
       </c>
       <c r="E418" t="n">
-        <v>44.5531086248792</v>
+        <v>44.559565811126</v>
       </c>
       <c r="F418" t="n">
-        <v>43.4737379121568</v>
+        <v>43.4770610844896</v>
       </c>
       <c r="G418" t="n">
-        <v>48.1438169741159</v>
+        <v>48.1580466482907</v>
       </c>
       <c r="H418" t="s">
         <v>41</v>
@@ -11941,13 +11941,13 @@
         <v>133.127653620214</v>
       </c>
       <c r="E419" t="n">
-        <v>46.0912861275484</v>
+        <v>46.1042283207869</v>
       </c>
       <c r="F419" t="n">
-        <v>45.0003887495882</v>
+        <v>45.0112057778475</v>
       </c>
       <c r="G419" t="n">
-        <v>47.8577517513651</v>
+        <v>47.8740333615996</v>
       </c>
       <c r="H419" t="s">
         <v>41</v>
@@ -11967,13 +11967,13 @@
         <v>143.35283642012</v>
       </c>
       <c r="E420" t="n">
-        <v>50.1386278740003</v>
+        <v>50.155338979432</v>
       </c>
       <c r="F420" t="n">
-        <v>49.2873663464916</v>
+        <v>49.3024818212689</v>
       </c>
       <c r="G420" t="n">
-        <v>51.3797878608553</v>
+        <v>51.3986469135814</v>
       </c>
       <c r="H420" t="s">
         <v>41</v>
@@ -11993,13 +11993,13 @@
         <v>126.348161111839</v>
       </c>
       <c r="E421" t="n">
-        <v>46.8312256748426</v>
+        <v>46.8456256712464</v>
       </c>
       <c r="F421" t="n">
-        <v>45.3920286432442</v>
+        <v>45.4037435410626</v>
       </c>
       <c r="G421" t="n">
-        <v>48.0953889314692</v>
+        <v>48.1123887429039</v>
       </c>
       <c r="H421" t="s">
         <v>41</v>
@@ -12019,13 +12019,13 @@
         <v>137.683813196369</v>
       </c>
       <c r="E422" t="n">
-        <v>43.3045949972033</v>
+        <v>43.3124613257113</v>
       </c>
       <c r="F422" t="n">
-        <v>39.5872487479999</v>
+        <v>39.5892574905243</v>
       </c>
       <c r="G422" t="n">
-        <v>46.6121421568909</v>
+        <v>46.6242248942569</v>
       </c>
       <c r="H422" t="s">
         <v>41</v>
@@ -12045,13 +12045,13 @@
         <v>122.86012116574</v>
       </c>
       <c r="E423" t="n">
-        <v>44.5355061847341</v>
+        <v>44.5450947507413</v>
       </c>
       <c r="F423" t="n">
-        <v>42.0886224973174</v>
+        <v>42.0944602393843</v>
       </c>
       <c r="G423" t="n">
-        <v>45.5718549087185</v>
+        <v>45.5838705625415</v>
       </c>
       <c r="H423" t="s">
         <v>31</v>
@@ -12071,13 +12071,13 @@
         <v>129.387376026112</v>
       </c>
       <c r="E424" t="n">
-        <v>47.241250492376</v>
+        <v>47.2564580909054</v>
       </c>
       <c r="F424" t="n">
-        <v>46.5136968217701</v>
+        <v>46.5274879175058</v>
       </c>
       <c r="G424" t="n">
-        <v>48.0115644510947</v>
+        <v>48.0284836544863</v>
       </c>
       <c r="H424" t="s">
         <v>41</v>
@@ -12097,13 +12097,13 @@
         <v>142.054951267095</v>
       </c>
       <c r="E425" t="n">
-        <v>48.8440304069176</v>
+        <v>48.8600354985431</v>
       </c>
       <c r="F425" t="n">
-        <v>47.7192214822111</v>
+        <v>47.7332030223297</v>
       </c>
       <c r="G425" t="n">
-        <v>49.7388791458106</v>
+        <v>49.7563916207143</v>
       </c>
       <c r="H425" t="s">
         <v>41</v>
@@ -12123,13 +12123,13 @@
         <v>136.516324010085</v>
       </c>
       <c r="E426" t="n">
-        <v>47.287443280105</v>
+        <v>47.3015415133487</v>
       </c>
       <c r="F426" t="n">
-        <v>46.2482575694023</v>
+        <v>46.2604910636669</v>
       </c>
       <c r="G426" t="n">
-        <v>48.1914322076746</v>
+        <v>48.2078264422332</v>
       </c>
       <c r="H426" t="s">
         <v>41</v>
@@ -12149,13 +12149,13 @@
         <v>161.099310747345</v>
       </c>
       <c r="E427" t="n">
-        <v>57.9567988384089</v>
+        <v>57.9653206551329</v>
       </c>
       <c r="F427" t="n">
-        <v>55.0469427637074</v>
+        <v>55.0540781627161</v>
       </c>
       <c r="G427" t="n">
-        <v>61.6822888572183</v>
+        <v>61.6875843769229</v>
       </c>
       <c r="H427" t="s">
         <v>41</v>
@@ -12175,13 +12175,13 @@
         <v>155.563978976422</v>
       </c>
       <c r="E428" t="n">
-        <v>52.2835167257851</v>
+        <v>52.29466972056</v>
       </c>
       <c r="F428" t="n">
-        <v>49.7411612755001</v>
+        <v>49.7475720137019</v>
       </c>
       <c r="G428" t="n">
-        <v>55.5777644069041</v>
+        <v>55.5882612190678</v>
       </c>
       <c r="H428" t="s">
         <v>41</v>
@@ -12201,13 +12201,13 @@
         <v>150.522948815849</v>
       </c>
       <c r="E429" t="n">
-        <v>49.5287638463516</v>
+        <v>49.5371339958337</v>
       </c>
       <c r="F429" t="n">
-        <v>48.0467399506949</v>
+        <v>48.0508146115076</v>
       </c>
       <c r="G429" t="n">
-        <v>50.9219752016284</v>
+        <v>50.9342987732105</v>
       </c>
       <c r="H429" t="s">
         <v>41</v>
@@ -12227,13 +12227,13 @@
         <v>147.05183515566</v>
       </c>
       <c r="E430" t="n">
-        <v>49.8191860577662</v>
+        <v>49.8324932030099</v>
       </c>
       <c r="F430" t="n">
-        <v>49.0501555024483</v>
+        <v>49.0633309767683</v>
       </c>
       <c r="G430" t="n">
-        <v>50.6769501576639</v>
+        <v>50.6938869247114</v>
       </c>
       <c r="H430" t="s">
         <v>41</v>
@@ -12253,13 +12253,13 @@
         <v>169.687644069564</v>
       </c>
       <c r="E431" t="n">
-        <v>73.3117550842479</v>
+        <v>73.3118986111225</v>
       </c>
       <c r="F431" t="n">
-        <v>70.4699263079254</v>
+        <v>70.4689138891798</v>
       </c>
       <c r="G431" t="n">
-        <v>77.1661897483849</v>
+        <v>77.1755381504761</v>
       </c>
       <c r="H431" t="s">
         <v>33</v>
@@ -12279,13 +12279,13 @@
         <v>169.841442032393</v>
       </c>
       <c r="E432" t="n">
-        <v>70.8359451543376</v>
+        <v>70.8349275218112</v>
       </c>
       <c r="F432" t="n">
-        <v>64.8862459811127</v>
+        <v>64.8862586584049</v>
       </c>
       <c r="G432" t="n">
-        <v>73.2315263994941</v>
+        <v>73.2312631466546</v>
       </c>
       <c r="H432" t="s">
         <v>33</v>
@@ -12305,13 +12305,13 @@
         <v>169.89236555222</v>
       </c>
       <c r="E433" t="n">
-        <v>72.2992206188219</v>
+        <v>72.3010008621407</v>
       </c>
       <c r="F433" t="n">
-        <v>69.0862134517697</v>
+        <v>69.0871190067544</v>
       </c>
       <c r="G433" t="n">
-        <v>74.4699175611396</v>
+        <v>74.4734345493396</v>
       </c>
       <c r="H433" t="s">
         <v>33</v>
@@ -12331,13 +12331,13 @@
         <v>172.562366585145</v>
       </c>
       <c r="E434" t="n">
-        <v>71.2240209240623</v>
+        <v>71.2232022020487</v>
       </c>
       <c r="F434" t="n">
-        <v>67.2033807542091</v>
+        <v>67.2028753088617</v>
       </c>
       <c r="G434" t="n">
-        <v>76.8032278215894</v>
+        <v>76.8038046166876</v>
       </c>
       <c r="H434" t="s">
         <v>33</v>
@@ -12357,13 +12357,13 @@
         <v>166.399110542464</v>
       </c>
       <c r="E435" t="n">
-        <v>65.1209093415513</v>
+        <v>65.1266316281896</v>
       </c>
       <c r="F435" t="n">
-        <v>62.222650327775</v>
+        <v>62.2293135653241</v>
       </c>
       <c r="G435" t="n">
-        <v>68.5212847155252</v>
+        <v>68.5245094288194</v>
       </c>
       <c r="H435" t="s">
         <v>33</v>
@@ -12383,13 +12383,13 @@
         <v>161.845322206218</v>
       </c>
       <c r="E436" t="n">
-        <v>61.2816058818433</v>
+        <v>61.2841944637811</v>
       </c>
       <c r="F436" t="n">
-        <v>59.86691339726</v>
+        <v>59.8712332345845</v>
       </c>
       <c r="G436" t="n">
-        <v>62.682317607496</v>
+        <v>62.686653645785</v>
       </c>
       <c r="H436" t="s">
         <v>33</v>
@@ -12409,13 +12409,13 @@
         <v>136.550111416275</v>
       </c>
       <c r="E437" t="n">
-        <v>42.1931809681445</v>
+        <v>42.1931171573533</v>
       </c>
       <c r="F437" t="n">
-        <v>38.988274023541</v>
+        <v>38.988797321847</v>
       </c>
       <c r="G437" t="n">
-        <v>54.4821493778137</v>
+        <v>54.4817152559084</v>
       </c>
       <c r="H437" t="s">
         <v>31</v>
@@ -12435,13 +12435,13 @@
         <v>167.861420499735</v>
       </c>
       <c r="E438" t="n">
-        <v>64.0323305530222</v>
+        <v>64.0316978732196</v>
       </c>
       <c r="F438" t="n">
-        <v>45.8203281764186</v>
+        <v>45.8201551309771</v>
       </c>
       <c r="G438" t="n">
-        <v>81.9530608996702</v>
+        <v>81.951840401466</v>
       </c>
       <c r="H438" t="s">
         <v>33</v>
@@ -12461,13 +12461,13 @@
         <v>98.3682296862658</v>
       </c>
       <c r="E439" t="n">
-        <v>39.8110886690926</v>
+        <v>39.811009601763</v>
       </c>
       <c r="F439" t="n">
-        <v>37.9759635730738</v>
+        <v>37.9759621655908</v>
       </c>
       <c r="G439" t="n">
-        <v>49.2591965525553</v>
+        <v>49.2589191526416</v>
       </c>
       <c r="H439" t="s">
         <v>31</v>
@@ -12487,13 +12487,13 @@
         <v>152.025356389998</v>
       </c>
       <c r="E440" t="n">
-        <v>41.7723587735502</v>
+        <v>41.7743143314375</v>
       </c>
       <c r="F440" t="n">
-        <v>39.0438870567793</v>
+        <v>39.0445911666029</v>
       </c>
       <c r="G440" t="n">
-        <v>50.1389289836155</v>
+        <v>50.1386927995311</v>
       </c>
       <c r="H440" t="s">
         <v>41</v>
@@ -12513,13 +12513,13 @@
         <v>172.714978295564</v>
       </c>
       <c r="E441" t="n">
-        <v>70.5015438008319</v>
+        <v>70.5011894567475</v>
       </c>
       <c r="F441" t="n">
-        <v>54.903998030382</v>
+        <v>54.903747876275</v>
       </c>
       <c r="G441" t="n">
-        <v>88.2317806040533</v>
+        <v>88.2292896915741</v>
       </c>
       <c r="H441" t="s">
         <v>33</v>
@@ -12539,13 +12539,13 @@
         <v>170.02417900529</v>
       </c>
       <c r="E442" t="n">
-        <v>51.0378266003473</v>
+        <v>51.0376868469675</v>
       </c>
       <c r="F442" t="n">
-        <v>41.9192598238518</v>
+        <v>41.9195563687309</v>
       </c>
       <c r="G442" t="n">
-        <v>61.9818417950021</v>
+        <v>61.9817920387727</v>
       </c>
       <c r="H442" t="s">
         <v>41</v>
@@ -12565,13 +12565,13 @@
         <v>155.936406539207</v>
       </c>
       <c r="E443" t="n">
-        <v>50.6244080139874</v>
+        <v>50.6262272359955</v>
       </c>
       <c r="F443" t="n">
-        <v>49.3547854991525</v>
+        <v>49.3579150328707</v>
       </c>
       <c r="G443" t="n">
-        <v>53.5249692859963</v>
+        <v>53.5299852970235</v>
       </c>
       <c r="H443" t="s">
         <v>41</v>
@@ -12591,13 +12591,13 @@
         <v>152.921847590009</v>
       </c>
       <c r="E444" t="n">
-        <v>48.496197527357</v>
+        <v>48.4969633798292</v>
       </c>
       <c r="F444" t="n">
-        <v>47.1658958861212</v>
+        <v>47.1673391110111</v>
       </c>
       <c r="G444" t="n">
-        <v>49.9506346711188</v>
+        <v>49.9507027379252</v>
       </c>
       <c r="H444" t="s">
         <v>41</v>
@@ -12617,13 +12617,13 @@
         <v>162.027095810879</v>
       </c>
       <c r="E445" t="n">
-        <v>56.7167514342664</v>
+        <v>56.7166455033262</v>
       </c>
       <c r="F445" t="n">
-        <v>51.6822340523994</v>
+        <v>51.6822727234635</v>
       </c>
       <c r="G445" t="n">
-        <v>62.8779033165625</v>
+        <v>62.8774769737789</v>
       </c>
       <c r="H445" t="s">
         <v>41</v>
@@ -12643,13 +12643,13 @@
         <v>153.224728583558</v>
       </c>
       <c r="E446" t="n">
-        <v>51.0998797779398</v>
+        <v>51.0997656619234</v>
       </c>
       <c r="F446" t="n">
-        <v>47.1825953055029</v>
+        <v>47.1827716261456</v>
       </c>
       <c r="G446" t="n">
-        <v>55.875091635745</v>
+        <v>55.8749418394619</v>
       </c>
       <c r="H446" t="s">
         <v>41</v>
@@ -12669,13 +12669,13 @@
         <v>174.755230218674</v>
       </c>
       <c r="E447" t="n">
-        <v>75.845317595659</v>
+        <v>75.8438349630033</v>
       </c>
       <c r="F447" t="n">
-        <v>60.4535494301374</v>
+        <v>60.4534480844726</v>
       </c>
       <c r="G447" t="n">
-        <v>104.578768854398</v>
+        <v>104.600757335927</v>
       </c>
       <c r="H447" t="s">
         <v>33</v>
@@ -12695,13 +12695,13 @@
         <v>158.488239520411</v>
       </c>
       <c r="E448" t="n">
-        <v>103.399240879358</v>
+        <v>103.399230274337</v>
       </c>
       <c r="F448" t="n">
-        <v>90.7351907878376</v>
+        <v>90.7350467575728</v>
       </c>
       <c r="G448" t="n">
-        <v>111.889084580003</v>
+        <v>111.889104678927</v>
       </c>
       <c r="H448" t="s">
         <v>33</v>
@@ -12721,13 +12721,13 @@
         <v>142.625973587641</v>
       </c>
       <c r="E449" t="n">
-        <v>92.2014473558637</v>
+        <v>92.2014149392074</v>
       </c>
       <c r="F449" t="n">
-        <v>89.785847499011</v>
+        <v>89.7858237305151</v>
       </c>
       <c r="G449" t="n">
-        <v>96.040561592417</v>
+        <v>96.0405315628608</v>
       </c>
       <c r="H449" t="s">
         <v>33</v>
@@ -12747,13 +12747,13 @@
         <v>144.347300013618</v>
       </c>
       <c r="E450" t="n">
-        <v>91.9674172833597</v>
+        <v>91.9673965887363</v>
       </c>
       <c r="F450" t="n">
-        <v>90.3001815826585</v>
+        <v>90.3001723749642</v>
       </c>
       <c r="G450" t="n">
-        <v>98.6006583401667</v>
+        <v>98.6006498280361</v>
       </c>
       <c r="H450" t="s">
         <v>33</v>
@@ -12773,13 +12773,13 @@
         <v>129.449326160808</v>
       </c>
       <c r="E451" t="n">
-        <v>62.5547223623773</v>
+        <v>62.5547100327241</v>
       </c>
       <c r="F451" t="n">
-        <v>58.3640219683937</v>
+        <v>58.3639987345426</v>
       </c>
       <c r="G451" t="n">
-        <v>67.78723839311</v>
+        <v>67.787224307947</v>
       </c>
       <c r="H451" t="s">
         <v>33</v>
@@ -12799,13 +12799,13 @@
         <v>158.365626845602</v>
       </c>
       <c r="E452" t="n">
-        <v>98.6987114082576</v>
+        <v>98.6987125680387</v>
       </c>
       <c r="F452" t="n">
-        <v>92.7276345726932</v>
+        <v>92.7276345539022</v>
       </c>
       <c r="G452" t="n">
-        <v>106.572837942158</v>
+        <v>106.572834779756</v>
       </c>
       <c r="H452" t="s">
         <v>33</v>
@@ -12825,13 +12825,13 @@
         <v>163.219836252165</v>
       </c>
       <c r="E453" t="n">
-        <v>96.6849609964704</v>
+        <v>96.6849421842774</v>
       </c>
       <c r="F453" t="n">
-        <v>89.7023051244574</v>
+        <v>89.7022878755016</v>
       </c>
       <c r="G453" t="n">
-        <v>107.334185038446</v>
+        <v>107.334171300021</v>
       </c>
       <c r="H453" t="s">
         <v>33</v>
@@ -12851,13 +12851,13 @@
         <v>161.347529555825</v>
       </c>
       <c r="E454" t="n">
-        <v>76.30624684768</v>
+        <v>76.306134467193</v>
       </c>
       <c r="F454" t="n">
-        <v>60.5305396525758</v>
+        <v>60.5304953445859</v>
       </c>
       <c r="G454" t="n">
-        <v>93.0103624765834</v>
+        <v>93.0102884373838</v>
       </c>
       <c r="H454" t="s">
         <v>33</v>
@@ -12877,13 +12877,13 @@
         <v>139.716708685736</v>
       </c>
       <c r="E455" t="n">
-        <v>89.6760681668596</v>
+        <v>89.6760293711274</v>
       </c>
       <c r="F455" t="n">
-        <v>86.3976949495971</v>
+        <v>86.3976371991099</v>
       </c>
       <c r="G455" t="n">
-        <v>91.20471524059</v>
+        <v>91.2046680359964</v>
       </c>
       <c r="H455" t="s">
         <v>33</v>
@@ -12903,13 +12903,13 @@
         <v>137.833585828114</v>
       </c>
       <c r="E456" t="n">
-        <v>90.3157775659328</v>
+        <v>90.3157778071957</v>
       </c>
       <c r="F456" t="n">
-        <v>89.5531653467817</v>
+        <v>89.5531660266581</v>
       </c>
       <c r="G456" t="n">
-        <v>92.1048324648847</v>
+        <v>92.1048274013558</v>
       </c>
       <c r="H456" t="s">
         <v>33</v>
@@ -12929,13 +12929,13 @@
         <v>140.854642707401</v>
       </c>
       <c r="E457" t="n">
-        <v>89.0820644199157</v>
+        <v>89.0820664089058</v>
       </c>
       <c r="F457" t="n">
-        <v>88.2698825419779</v>
+        <v>88.2698839667844</v>
       </c>
       <c r="G457" t="n">
-        <v>91.204732266911</v>
+        <v>91.2047329613818</v>
       </c>
       <c r="H457" t="s">
         <v>33</v>
@@ -12955,13 +12955,13 @@
         <v>139.3174275968</v>
       </c>
       <c r="E458" t="n">
-        <v>86.9384477021944</v>
+        <v>86.9384290676406</v>
       </c>
       <c r="F458" t="n">
-        <v>81.486558531856</v>
+        <v>81.4865160321242</v>
       </c>
       <c r="G458" t="n">
-        <v>87.8081861487809</v>
+        <v>87.8081449055968</v>
       </c>
       <c r="H458" t="s">
         <v>33</v>
@@ -12981,13 +12981,13 @@
         <v>136.91878446223</v>
       </c>
       <c r="E459" t="n">
-        <v>88.7563647757195</v>
+        <v>88.7563568190342</v>
       </c>
       <c r="F459" t="n">
-        <v>87.8172629784956</v>
+        <v>87.8172374310498</v>
       </c>
       <c r="G459" t="n">
-        <v>90.5528170541207</v>
+        <v>90.5527996118706</v>
       </c>
       <c r="H459" t="s">
         <v>33</v>
@@ -13007,13 +13007,13 @@
         <v>141.204511038688</v>
       </c>
       <c r="E460" t="n">
-        <v>87.6775106399587</v>
+        <v>87.677499879049</v>
       </c>
       <c r="F460" t="n">
-        <v>84.5274710312431</v>
+        <v>84.5274475294399</v>
       </c>
       <c r="G460" t="n">
-        <v>88.4029898929913</v>
+        <v>88.4029931741547</v>
       </c>
       <c r="H460" t="s">
         <v>33</v>
@@ -13033,13 +13033,13 @@
         <v>150.876581236219</v>
       </c>
       <c r="E461" t="n">
-        <v>95.4845986422897</v>
+        <v>95.484593231521</v>
       </c>
       <c r="F461" t="n">
-        <v>92.0444602810138</v>
+        <v>92.0444575638695</v>
       </c>
       <c r="G461" t="n">
-        <v>102.230922710371</v>
+        <v>102.230907088851</v>
       </c>
       <c r="H461" t="s">
         <v>33</v>
@@ -13059,13 +13059,13 @@
         <v>143.426945855923</v>
       </c>
       <c r="E462" t="n">
-        <v>91.2758465277673</v>
+        <v>91.2758466813839</v>
       </c>
       <c r="F462" t="n">
-        <v>89.9635954962613</v>
+        <v>89.9635970271112</v>
       </c>
       <c r="G462" t="n">
-        <v>93.1199550356057</v>
+        <v>93.1199551481292</v>
       </c>
       <c r="H462" t="s">
         <v>33</v>
@@ -13085,13 +13085,13 @@
         <v>140.166669683354</v>
       </c>
       <c r="E463" t="n">
-        <v>64.0346090516122</v>
+        <v>64.0341454923882</v>
       </c>
       <c r="F463" t="n">
-        <v>59.0003514859513</v>
+        <v>58.994778788467</v>
       </c>
       <c r="G463" t="n">
-        <v>71.0046671926827</v>
+        <v>71.0087199634403</v>
       </c>
       <c r="H463" t="s">
         <v>33</v>
@@ -13111,13 +13111,13 @@
         <v>190.931128885735</v>
       </c>
       <c r="E464" t="n">
-        <v>73.1213116352892</v>
+        <v>73.0115200902336</v>
       </c>
       <c r="F464" t="n">
-        <v>30.4527060306912</v>
+        <v>30.4092746544147</v>
       </c>
       <c r="G464" t="n">
-        <v>137.260711906241</v>
+        <v>136.871406267251</v>
       </c>
       <c r="H464" t="s">
         <v>33</v>
@@ -13137,13 +13137,13 @@
         <v>154.852540429763</v>
       </c>
       <c r="E465" t="n">
-        <v>89.9813580259744</v>
+        <v>89.9763186146907</v>
       </c>
       <c r="F465" t="n">
-        <v>84.7249923909391</v>
+        <v>84.6853088008795</v>
       </c>
       <c r="G465" t="n">
-        <v>93.8527087418988</v>
+        <v>93.81516920806379</v>
       </c>
       <c r="H465" t="s">
         <v>33</v>
@@ -13163,16 +13163,16 @@
         <v>312.525141685973</v>
       </c>
       <c r="E466" t="n">
-        <v>155.159723262991</v>
+        <v>160.030556401784</v>
       </c>
       <c r="F466" t="n">
-        <v>17.2525105741863</v>
+        <v>17.1356724614251</v>
       </c>
       <c r="G466" t="n">
-        <v>444.562231975702</v>
+        <v>443.572849475545</v>
       </c>
       <c r="H466" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="467">
@@ -13189,13 +13189,13 @@
         <v>141.428260007081</v>
       </c>
       <c r="E467" t="n">
-        <v>75.4953443915168</v>
+        <v>75.484099955031</v>
       </c>
       <c r="F467" t="n">
-        <v>73.7250198449128</v>
+        <v>73.6961177082266</v>
       </c>
       <c r="G467" t="n">
-        <v>77.815681442097</v>
+        <v>77.7588032712731</v>
       </c>
       <c r="H467" t="s">
         <v>33</v>
@@ -13215,13 +13215,13 @@
         <v>152.432539241765</v>
       </c>
       <c r="E468" t="n">
-        <v>80.6811090009513</v>
+        <v>81.293612627196</v>
       </c>
       <c r="F468" t="n">
-        <v>53.9993446606503</v>
+        <v>53.8147103781764</v>
       </c>
       <c r="G468" t="n">
-        <v>199.095485580767</v>
+        <v>199.700951649371</v>
       </c>
       <c r="H468" t="s">
         <v>33</v>
@@ -13241,16 +13241,16 @@
         <v>135.416993339485</v>
       </c>
       <c r="E469" t="n">
-        <v>259.426123692343</v>
+        <v>259.348020325962</v>
       </c>
       <c r="F469" t="n">
-        <v>175.744365015828</v>
+        <v>175.452757689503</v>
       </c>
       <c r="G469" t="n">
-        <v>284.324939709592</v>
+        <v>284.326077094452</v>
       </c>
       <c r="H469" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="470">
@@ -13267,13 +13267,13 @@
         <v>25.1801581001985</v>
       </c>
       <c r="E470" t="n">
-        <v>9.87489517304641</v>
+        <v>9.84879983342148</v>
       </c>
       <c r="F470" t="n">
-        <v>9.58142183340374</v>
+        <v>9.55347484884635</v>
       </c>
       <c r="G470" t="n">
-        <v>10.4965453204179</v>
+        <v>10.47668085654</v>
       </c>
       <c r="H470" t="s">
         <v>32</v>
@@ -13293,13 +13293,13 @@
         <v>30.7421288836869</v>
       </c>
       <c r="E471" t="n">
-        <v>10.5770915180864</v>
+        <v>10.5484968766356</v>
       </c>
       <c r="F471" t="n">
-        <v>9.43955394456964</v>
+        <v>9.40197638157213</v>
       </c>
       <c r="G471" t="n">
-        <v>12.1548959153779</v>
+        <v>12.1297002119056</v>
       </c>
       <c r="H471" t="s">
         <v>32</v>
@@ -13319,13 +13319,13 @@
         <v>43.1063598084389</v>
       </c>
       <c r="E472" t="n">
-        <v>18.3985093108555</v>
+        <v>18.3944274478755</v>
       </c>
       <c r="F472" t="n">
-        <v>13.7738703941541</v>
+        <v>13.7618114104293</v>
       </c>
       <c r="G472" t="n">
-        <v>27.5679351059027</v>
+        <v>27.55164695912</v>
       </c>
       <c r="H472" t="s">
         <v>32</v>
@@ -13345,13 +13345,13 @@
         <v>38.7385194874229</v>
       </c>
       <c r="E473" t="n">
-        <v>13.2700986022329</v>
+        <v>13.2686525508703</v>
       </c>
       <c r="F473" t="n">
-        <v>9.93517584792573</v>
+        <v>9.90982224393144</v>
       </c>
       <c r="G473" t="n">
-        <v>16.202364436728</v>
+        <v>16.1905947361757</v>
       </c>
       <c r="H473" t="s">
         <v>32</v>
@@ -13371,13 +13371,13 @@
         <v>32.2813795622179</v>
       </c>
       <c r="E474" t="n">
-        <v>9.53095975608124</v>
+        <v>9.49530156379802</v>
       </c>
       <c r="F474" t="n">
-        <v>9.1852830687352</v>
+        <v>9.15184206639378</v>
       </c>
       <c r="G474" t="n">
-        <v>12.5136190575805</v>
+        <v>12.4923199484942</v>
       </c>
       <c r="H474" t="s">
         <v>32</v>
@@ -13397,13 +13397,13 @@
         <v>24.5730369141888</v>
       </c>
       <c r="E475" t="n">
-        <v>9.37269660388085</v>
+        <v>9.34384555508893</v>
       </c>
       <c r="F475" t="n">
-        <v>9.15418282568726</v>
+        <v>9.12219535156953</v>
       </c>
       <c r="G475" t="n">
-        <v>9.7056817842049</v>
+        <v>9.68184983147944</v>
       </c>
       <c r="H475" t="s">
         <v>32</v>
@@ -13423,13 +13423,13 @@
         <v>37.1495457727829</v>
       </c>
       <c r="E476" t="n">
-        <v>15.6028439250479</v>
+        <v>15.5961548836602</v>
       </c>
       <c r="F476" t="n">
-        <v>12.221114705537</v>
+        <v>12.2069943468097</v>
       </c>
       <c r="G476" t="n">
-        <v>23.8205974162976</v>
+        <v>23.8054572115209</v>
       </c>
       <c r="H476" t="s">
         <v>32</v>
@@ -13449,13 +13449,13 @@
         <v>36.6412422999309</v>
       </c>
       <c r="E477" t="n">
-        <v>9.45417412364395</v>
+        <v>9.40737265976838</v>
       </c>
       <c r="F477" t="n">
-        <v>9.0953110550754</v>
+        <v>9.05838012439142</v>
       </c>
       <c r="G477" t="n">
-        <v>12.7641854474439</v>
+        <v>12.6859556867006</v>
       </c>
       <c r="H477" t="s">
         <v>32</v>
@@ -13475,13 +13475,13 @@
         <v>31.3459529603241</v>
       </c>
       <c r="E478" t="n">
-        <v>13.5327023681587</v>
+        <v>13.5242663933097</v>
       </c>
       <c r="F478" t="n">
-        <v>10.7761224475865</v>
+        <v>10.7597515194107</v>
       </c>
       <c r="G478" t="n">
-        <v>16.4452978404076</v>
+        <v>16.4396402007091</v>
       </c>
       <c r="H478" t="s">
         <v>32</v>
@@ -13501,13 +13501,13 @@
         <v>26.3075679161683</v>
       </c>
       <c r="E479" t="n">
-        <v>10.782300236638</v>
+        <v>10.7657887503261</v>
       </c>
       <c r="F479" t="n">
-        <v>10.0275315904637</v>
+        <v>10.0062590850633</v>
       </c>
       <c r="G479" t="n">
-        <v>12.2143020270802</v>
+        <v>12.2033151915215</v>
       </c>
       <c r="H479" t="s">
         <v>32</v>
@@ -13527,13 +13527,13 @@
         <v>24.1937490841977</v>
       </c>
       <c r="E480" t="n">
-        <v>9.79386542055386</v>
+        <v>9.77138690596689</v>
       </c>
       <c r="F480" t="n">
-        <v>9.3843374830567</v>
+        <v>9.35780901325074</v>
       </c>
       <c r="G480" t="n">
-        <v>10.2349185725403</v>
+        <v>10.2157653489613</v>
       </c>
       <c r="H480" t="s">
         <v>32</v>
@@ -13553,13 +13553,13 @@
         <v>30.5219813979425</v>
       </c>
       <c r="E481" t="n">
-        <v>12.5689506951845</v>
+        <v>12.5541190389632</v>
       </c>
       <c r="F481" t="n">
-        <v>11.704324776485</v>
+        <v>11.6856472078044</v>
       </c>
       <c r="G481" t="n">
-        <v>14.6513472299729</v>
+        <v>14.6432171867036</v>
       </c>
       <c r="H481" t="s">
         <v>32</v>
@@ -13579,13 +13579,13 @@
         <v>27.7497110207207</v>
       </c>
       <c r="E482" t="n">
-        <v>12.1028512927891</v>
+        <v>12.0911065659919</v>
       </c>
       <c r="F482" t="n">
-        <v>11.3216033378852</v>
+        <v>11.3051441413534</v>
       </c>
       <c r="G482" t="n">
-        <v>13.3051973073426</v>
+        <v>13.2978617727725</v>
       </c>
       <c r="H482" t="s">
         <v>32</v>
@@ -13605,13 +13605,13 @@
         <v>51.6312874867556</v>
       </c>
       <c r="E483" t="n">
-        <v>12.644355531147</v>
+        <v>12.5623574153514</v>
       </c>
       <c r="F483" t="n">
-        <v>9.6983764058225</v>
+        <v>9.63791138088322</v>
       </c>
       <c r="G483" t="n">
-        <v>18.2904489126012</v>
+        <v>18.1133752602963</v>
       </c>
       <c r="H483" t="s">
         <v>32</v>
@@ -13631,13 +13631,13 @@
         <v>24.5006721862698</v>
       </c>
       <c r="E484" t="n">
-        <v>9.34159734979653</v>
+        <v>9.31453430897614</v>
       </c>
       <c r="F484" t="n">
-        <v>9.17268944596447</v>
+        <v>9.14148975223054</v>
       </c>
       <c r="G484" t="n">
-        <v>9.77815595493917</v>
+        <v>9.75621832027775</v>
       </c>
       <c r="H484" t="s">
         <v>32</v>
@@ -13657,13 +13657,13 @@
         <v>25.3875851264669</v>
       </c>
       <c r="E485" t="n">
-        <v>9.61867873789993</v>
+        <v>9.59124013006272</v>
       </c>
       <c r="F485" t="n">
-        <v>9.27594361959177</v>
+        <v>9.2440453690142</v>
       </c>
       <c r="G485" t="n">
-        <v>10.0335142203604</v>
+        <v>10.0117666092775</v>
       </c>
       <c r="H485" t="s">
         <v>32</v>
@@ -13683,13 +13683,13 @@
         <v>111.6980485723</v>
       </c>
       <c r="E486" t="n">
-        <v>65.3775068047721</v>
+        <v>65.3665316577884</v>
       </c>
       <c r="F486" t="n">
-        <v>54.4695723204705</v>
+        <v>54.4509445943029</v>
       </c>
       <c r="G486" t="n">
-        <v>73.2969196028907</v>
+        <v>73.3409056218563</v>
       </c>
       <c r="H486" t="s">
         <v>39</v>
@@ -13709,13 +13709,13 @@
         <v>32.0365319036197</v>
       </c>
       <c r="E487" t="n">
-        <v>10.5627258581491</v>
+        <v>10.5453009538599</v>
       </c>
       <c r="F487" t="n">
-        <v>9.84223323115816</v>
+        <v>9.82024369265434</v>
       </c>
       <c r="G487" t="n">
-        <v>18.7486506085565</v>
+        <v>18.7325089024481</v>
       </c>
       <c r="H487" t="s">
         <v>32</v>
@@ -13735,13 +13735,13 @@
         <v>26.8703589493803</v>
       </c>
       <c r="E488" t="n">
-        <v>10.9507855483545</v>
+        <v>10.9314409947237</v>
       </c>
       <c r="F488" t="n">
-        <v>10.2077501838296</v>
+        <v>10.1826322617364</v>
       </c>
       <c r="G488" t="n">
-        <v>11.6824587697364</v>
+        <v>11.6651768635128</v>
       </c>
       <c r="H488" t="s">
         <v>32</v>
@@ -13761,13 +13761,13 @@
         <v>112.877959569746</v>
       </c>
       <c r="E489" t="n">
-        <v>27.7688885937517</v>
+        <v>27.7464213623805</v>
       </c>
       <c r="F489" t="n">
-        <v>15.3890757072573</v>
+        <v>15.3914113657693</v>
       </c>
       <c r="G489" t="n">
-        <v>84.5343695654541</v>
+        <v>84.4528905856681</v>
       </c>
       <c r="H489" t="s">
         <v>32</v>
@@ -13787,13 +13787,13 @@
         <v>34.3721622456092</v>
       </c>
       <c r="E490" t="n">
-        <v>13.7239212370338</v>
+        <v>13.7038766584386</v>
       </c>
       <c r="F490" t="n">
-        <v>12.2920312383102</v>
+        <v>12.2715175091458</v>
       </c>
       <c r="G490" t="n">
-        <v>15.5648762420095</v>
+        <v>15.5540688701202</v>
       </c>
       <c r="H490" t="s">
         <v>32</v>
@@ -13813,13 +13813,13 @@
         <v>53.9240024454004</v>
       </c>
       <c r="E491" t="n">
-        <v>17.7582338871603</v>
+        <v>17.7561652778622</v>
       </c>
       <c r="F491" t="n">
-        <v>14.9216195276917</v>
+        <v>14.91689749361</v>
       </c>
       <c r="G491" t="n">
-        <v>30.5555448252244</v>
+        <v>30.5591382619251</v>
       </c>
       <c r="H491" t="s">
         <v>32</v>
@@ -13839,13 +13839,13 @@
         <v>107.641229060401</v>
       </c>
       <c r="E492" t="n">
-        <v>28.0234381703288</v>
+        <v>27.8958865233718</v>
       </c>
       <c r="F492" t="n">
-        <v>11.3733326603104</v>
+        <v>11.2785279194703</v>
       </c>
       <c r="G492" t="n">
-        <v>64.7542718863012</v>
+        <v>65.1487918025507</v>
       </c>
       <c r="H492" t="s">
         <v>31</v>
@@ -13865,13 +13865,13 @@
         <v>44.9650094721953</v>
       </c>
       <c r="E493" t="n">
-        <v>19.3243248701892</v>
+        <v>19.3231188920058</v>
       </c>
       <c r="F493" t="n">
-        <v>15.6248248737764</v>
+        <v>15.6247782869477</v>
       </c>
       <c r="G493" t="n">
-        <v>24.9815729572081</v>
+        <v>24.9825495423651</v>
       </c>
       <c r="H493" t="s">
         <v>32</v>
@@ -13891,13 +13891,13 @@
         <v>51.9545934937581</v>
       </c>
       <c r="E494" t="n">
-        <v>14.3054670596734</v>
+        <v>14.2783848704892</v>
       </c>
       <c r="F494" t="n">
-        <v>11.11908655504</v>
+        <v>11.0734612770531</v>
       </c>
       <c r="G494" t="n">
-        <v>26.2424654080527</v>
+        <v>26.2594422444515</v>
       </c>
       <c r="H494" t="s">
         <v>32</v>
@@ -13917,16 +13917,16 @@
         <v>289.901872090225</v>
       </c>
       <c r="E495" t="n">
-        <v>218.60556603794</v>
+        <v>218.6018716912</v>
       </c>
       <c r="F495" t="n">
-        <v>218.12885069059</v>
+        <v>218.12581256021</v>
       </c>
       <c r="G495" t="n">
-        <v>219.812778391887</v>
+        <v>219.808999777657</v>
       </c>
       <c r="H495" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="496">
@@ -13943,16 +13943,16 @@
         <v>301.097554505959</v>
       </c>
       <c r="E496" t="n">
-        <v>223.520568183504</v>
+        <v>223.518381987785</v>
       </c>
       <c r="F496" t="n">
-        <v>216.597954809969</v>
+        <v>216.592884687002</v>
       </c>
       <c r="G496" t="n">
-        <v>228.324340524294</v>
+        <v>228.327609486454</v>
       </c>
       <c r="H496" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="497">
@@ -13969,16 +13969,16 @@
         <v>297.385392069364</v>
       </c>
       <c r="E497" t="n">
-        <v>215.830560728656</v>
+        <v>215.829171224953</v>
       </c>
       <c r="F497" t="n">
-        <v>212.174658493834</v>
+        <v>212.172951651337</v>
       </c>
       <c r="G497" t="n">
-        <v>219.876376394973</v>
+        <v>219.876095942591</v>
       </c>
       <c r="H497" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="498">
@@ -13995,16 +13995,16 @@
         <v>284.483056655594</v>
       </c>
       <c r="E498" t="n">
-        <v>218.543368491207</v>
+        <v>218.542185657154</v>
       </c>
       <c r="F498" t="n">
-        <v>217.883774034179</v>
+        <v>217.882831900271</v>
       </c>
       <c r="G498" t="n">
-        <v>219.057065489407</v>
+        <v>219.054828313652</v>
       </c>
       <c r="H498" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="499">
@@ -14021,16 +14021,16 @@
         <v>288.490149564272</v>
       </c>
       <c r="E499" t="n">
-        <v>220.501169320893</v>
+        <v>220.498397179105</v>
       </c>
       <c r="F499" t="n">
-        <v>219.656212944959</v>
+        <v>219.653431082292</v>
       </c>
       <c r="G499" t="n">
-        <v>222.588313940027</v>
+        <v>222.586213511671</v>
       </c>
       <c r="H499" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="500">
@@ -14047,16 +14047,16 @@
         <v>293.643063387089</v>
       </c>
       <c r="E500" t="n">
-        <v>222.486288344244</v>
+        <v>222.486179295195</v>
       </c>
       <c r="F500" t="n">
-        <v>219.703310297679</v>
+        <v>219.703130703943</v>
       </c>
       <c r="G500" t="n">
-        <v>228.741844704427</v>
+        <v>228.738601270725</v>
       </c>
       <c r="H500" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="501">
@@ -14073,16 +14073,16 @@
         <v>311.032441856043</v>
       </c>
       <c r="E501" t="n">
-        <v>234.770205927238</v>
+        <v>234.754115333393</v>
       </c>
       <c r="F501" t="n">
-        <v>207.191470047741</v>
+        <v>207.189337655738</v>
       </c>
       <c r="G501" t="n">
-        <v>264.500843793219</v>
+        <v>264.493958139026</v>
       </c>
       <c r="H501" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="502">
@@ -14099,16 +14099,16 @@
         <v>340.701443313887</v>
       </c>
       <c r="E502" t="n">
-        <v>194.844891597979</v>
+        <v>194.837951449128</v>
       </c>
       <c r="F502" t="n">
-        <v>164.092818243476</v>
+        <v>164.087046376444</v>
       </c>
       <c r="G502" t="n">
-        <v>222.020421093814</v>
+        <v>222.01810298511</v>
       </c>
       <c r="H502" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="503">
@@ -14125,16 +14125,16 @@
         <v>289.191318320511</v>
       </c>
       <c r="E503" t="n">
-        <v>218.833606455009</v>
+        <v>218.833067626784</v>
       </c>
       <c r="F503" t="n">
-        <v>217.616970487788</v>
+        <v>217.615955072484</v>
       </c>
       <c r="G503" t="n">
-        <v>220.653245088728</v>
+        <v>220.653126100807</v>
       </c>
       <c r="H503" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="504">
@@ -14151,16 +14151,16 @@
         <v>286.426003310804</v>
       </c>
       <c r="E504" t="n">
-        <v>217.623516981736</v>
+        <v>217.622378704492</v>
       </c>
       <c r="F504" t="n">
-        <v>216.686956237098</v>
+        <v>216.684349593537</v>
       </c>
       <c r="G504" t="n">
-        <v>218.298819247688</v>
+        <v>218.298211576851</v>
       </c>
       <c r="H504" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="505">
@@ -14177,16 +14177,16 @@
         <v>291.190853484391</v>
       </c>
       <c r="E505" t="n">
-        <v>217.531289576994</v>
+        <v>217.52863090681</v>
       </c>
       <c r="F505" t="n">
-        <v>215.36956446615</v>
+        <v>215.365482768351</v>
       </c>
       <c r="G505" t="n">
-        <v>218.210057195634</v>
+        <v>218.205613251975</v>
       </c>
       <c r="H505" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="506">
@@ -14203,16 +14203,16 @@
         <v>265.819335145183</v>
       </c>
       <c r="E506" t="n">
-        <v>207.289729613312</v>
+        <v>207.284141910847</v>
       </c>
       <c r="F506" t="n">
-        <v>157.047246322431</v>
+        <v>157.040657443705</v>
       </c>
       <c r="G506" t="n">
-        <v>252.25391809568</v>
+        <v>252.240415783112</v>
       </c>
       <c r="H506" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="507">
@@ -14229,16 +14229,16 @@
         <v>314.721896640745</v>
       </c>
       <c r="E507" t="n">
-        <v>243.468355724126</v>
+        <v>243.450185915679</v>
       </c>
       <c r="F507" t="n">
-        <v>193.955114620813</v>
+        <v>193.953000518073</v>
       </c>
       <c r="G507" t="n">
-        <v>279.400468212478</v>
+        <v>279.373709611084</v>
       </c>
       <c r="H507" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="508">
@@ -14255,16 +14255,16 @@
         <v>169.394824947185</v>
       </c>
       <c r="E508" t="n">
-        <v>155.702129187906</v>
+        <v>155.701996746656</v>
       </c>
       <c r="F508" t="n">
-        <v>151.921737368994</v>
+        <v>151.92157943436</v>
       </c>
       <c r="G508" t="n">
-        <v>160.445970851671</v>
+        <v>160.44534287084</v>
       </c>
       <c r="H508" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="509">
@@ -14281,16 +14281,16 @@
         <v>274.990300585837</v>
       </c>
       <c r="E509" t="n">
-        <v>182.272404750622</v>
+        <v>182.269244855891</v>
       </c>
       <c r="F509" t="n">
-        <v>139.599179518451</v>
+        <v>139.598321091593</v>
       </c>
       <c r="G509" t="n">
-        <v>206.854599012375</v>
+        <v>206.844755640448</v>
       </c>
       <c r="H509" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="510">
@@ -14307,16 +14307,16 @@
         <v>258.611263043049</v>
       </c>
       <c r="E510" t="n">
-        <v>165.671483685436</v>
+        <v>165.669734166897</v>
       </c>
       <c r="F510" t="n">
-        <v>138.971433572629</v>
+        <v>138.971079688946</v>
       </c>
       <c r="G510" t="n">
-        <v>185.307244757569</v>
+        <v>185.301486118008</v>
       </c>
       <c r="H510" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="511">
@@ -14333,16 +14333,16 @@
         <v>283.129956114783</v>
       </c>
       <c r="E511" t="n">
-        <v>277.77481363332</v>
+        <v>277.769640740981</v>
       </c>
       <c r="F511" t="n">
-        <v>207.190899836537</v>
+        <v>207.188642288347</v>
       </c>
       <c r="G511" t="n">
-        <v>332.490778834253</v>
+        <v>332.483494730311</v>
       </c>
       <c r="H511" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="512">
@@ -14359,16 +14359,16 @@
         <v>180.339288502004</v>
       </c>
       <c r="E512" t="n">
-        <v>137.181883199593</v>
+        <v>137.180283725216</v>
       </c>
       <c r="F512" t="n">
-        <v>105.719024728991</v>
+        <v>105.717969853947</v>
       </c>
       <c r="G512" t="n">
-        <v>157.180350405617</v>
+        <v>157.179112283708</v>
       </c>
       <c r="H512" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="513">
@@ -14385,16 +14385,16 @@
         <v>265.848293943446</v>
       </c>
       <c r="E513" t="n">
-        <v>280.433187581699</v>
+        <v>280.400427138678</v>
       </c>
       <c r="F513" t="n">
-        <v>273.89504608701</v>
+        <v>273.863139627579</v>
       </c>
       <c r="G513" t="n">
-        <v>288.284779075831</v>
+        <v>288.25602025384</v>
       </c>
       <c r="H513" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="514">
@@ -14411,16 +14411,16 @@
         <v>239.46586211295</v>
       </c>
       <c r="E514" t="n">
-        <v>120.179752123914</v>
+        <v>120.199212070976</v>
       </c>
       <c r="F514" t="n">
-        <v>93.2358134710352</v>
+        <v>93.2318688239113</v>
       </c>
       <c r="G514" t="n">
-        <v>138.217612680376</v>
+        <v>138.243495842223</v>
       </c>
       <c r="H514" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="515">
@@ -14437,13 +14437,13 @@
         <v>182.019720473498</v>
       </c>
       <c r="E515" t="n">
-        <v>89.5444944309324</v>
+        <v>89.5444315690693</v>
       </c>
       <c r="F515" t="n">
-        <v>85.6581035091309</v>
+        <v>85.6571828988731</v>
       </c>
       <c r="G515" t="n">
-        <v>95.6392444999829</v>
+        <v>95.6380983174912</v>
       </c>
       <c r="H515" t="s">
         <v>33</v>
@@ -14463,13 +14463,13 @@
         <v>162.294163847048</v>
       </c>
       <c r="E516" t="n">
-        <v>87.9532478033896</v>
+        <v>87.9532312168435</v>
       </c>
       <c r="F516" t="n">
-        <v>85.6241391776724</v>
+        <v>85.6238515627854</v>
       </c>
       <c r="G516" t="n">
-        <v>91.9968013711009</v>
+        <v>91.9968120191393</v>
       </c>
       <c r="H516" t="s">
         <v>33</v>
@@ -14489,13 +14489,13 @@
         <v>265.553894561298</v>
       </c>
       <c r="E517" t="n">
-        <v>94.9606436805517</v>
+        <v>94.9600954784231</v>
       </c>
       <c r="F517" t="n">
-        <v>72.4561699830901</v>
+        <v>72.4559498966011</v>
       </c>
       <c r="G517" t="n">
-        <v>128.92794611716</v>
+        <v>128.923214772911</v>
       </c>
       <c r="H517" t="s">
         <v>33</v>
@@ -14515,16 +14515,16 @@
         <v>217.836378523926</v>
       </c>
       <c r="E518" t="n">
-        <v>128.404083538658</v>
+        <v>128.400945512076</v>
       </c>
       <c r="F518" t="n">
-        <v>101.01214893757</v>
+        <v>101.010302186018</v>
       </c>
       <c r="G518" t="n">
-        <v>174.205854554378</v>
+        <v>174.202116063614</v>
       </c>
       <c r="H518" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="519">
@@ -14541,16 +14541,16 @@
         <v>214.731739520838</v>
       </c>
       <c r="E519" t="n">
-        <v>172.430648751861</v>
+        <v>172.421667646742</v>
       </c>
       <c r="F519" t="n">
-        <v>164.286297022278</v>
+        <v>164.284947569442</v>
       </c>
       <c r="G519" t="n">
-        <v>179.121707427804</v>
+        <v>179.122901494977</v>
       </c>
       <c r="H519" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="520">
@@ -14567,16 +14567,16 @@
         <v>209.820778995637</v>
       </c>
       <c r="E520" t="n">
-        <v>172.099124974504</v>
+        <v>172.099977785657</v>
       </c>
       <c r="F520" t="n">
-        <v>168.460118318203</v>
+        <v>168.45860067734</v>
       </c>
       <c r="G520" t="n">
-        <v>175.539208490738</v>
+        <v>175.542701707072</v>
       </c>
       <c r="H520" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="521">
@@ -14593,16 +14593,16 @@
         <v>206.138550792841</v>
       </c>
       <c r="E521" t="n">
-        <v>176.93909281785</v>
+        <v>176.940400938687</v>
       </c>
       <c r="F521" t="n">
-        <v>174.916400913079</v>
+        <v>174.914031799771</v>
       </c>
       <c r="G521" t="n">
-        <v>179.049280390508</v>
+        <v>179.049727928346</v>
       </c>
       <c r="H521" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="522">
@@ -14619,16 +14619,16 @@
         <v>208.04936034343</v>
       </c>
       <c r="E522" t="n">
-        <v>179.330227685873</v>
+        <v>179.339957379831</v>
       </c>
       <c r="F522" t="n">
-        <v>178.403568791859</v>
+        <v>178.410559029107</v>
       </c>
       <c r="G522" t="n">
-        <v>180.663562736081</v>
+        <v>180.679359694166</v>
       </c>
       <c r="H522" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="523">
@@ -14645,16 +14645,16 @@
         <v>202.240380725761</v>
       </c>
       <c r="E523" t="n">
-        <v>179.245429481673</v>
+        <v>179.242277778257</v>
       </c>
       <c r="F523" t="n">
-        <v>175.669822899215</v>
+        <v>175.663587603661</v>
       </c>
       <c r="G523" t="n">
-        <v>181.689667601422</v>
+        <v>181.700584605721</v>
       </c>
       <c r="H523" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="524">
@@ -14671,16 +14671,16 @@
         <v>203.809830563973</v>
       </c>
       <c r="E524" t="n">
-        <v>180.501702964902</v>
+        <v>180.512509224224</v>
       </c>
       <c r="F524" t="n">
-        <v>175.598427411701</v>
+        <v>175.591483672217</v>
       </c>
       <c r="G524" t="n">
-        <v>182.250603635066</v>
+        <v>182.276220137841</v>
       </c>
       <c r="H524" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="525">
@@ -14697,16 +14697,16 @@
         <v>271.371821816703</v>
       </c>
       <c r="E525" t="n">
-        <v>169.951258790339</v>
+        <v>170.039876375643</v>
       </c>
       <c r="F525" t="n">
-        <v>138.343571264341</v>
+        <v>138.367304274288</v>
       </c>
       <c r="G525" t="n">
-        <v>222.659428491562</v>
+        <v>223.690387299693</v>
       </c>
       <c r="H525" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="526">
@@ -14723,16 +14723,16 @@
         <v>240.347117492256</v>
       </c>
       <c r="E526" t="n">
-        <v>145.829033958206</v>
+        <v>145.823993067396</v>
       </c>
       <c r="F526" t="n">
-        <v>139.077259149381</v>
+        <v>139.072111886418</v>
       </c>
       <c r="G526" t="n">
-        <v>149.672923799527</v>
+        <v>149.669297845665</v>
       </c>
       <c r="H526" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="527">
@@ -14749,16 +14749,16 @@
         <v>229.244169608626</v>
       </c>
       <c r="E527" t="n">
-        <v>149.669891475846</v>
+        <v>149.669419023491</v>
       </c>
       <c r="F527" t="n">
-        <v>147.164508318919</v>
+        <v>147.16218205717</v>
       </c>
       <c r="G527" t="n">
-        <v>153.159013231115</v>
+        <v>153.154994510586</v>
       </c>
       <c r="H527" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="528">
@@ -14775,16 +14775,16 @@
         <v>273.996250085424</v>
       </c>
       <c r="E528" t="n">
-        <v>140.538525951944</v>
+        <v>140.537963204511</v>
       </c>
       <c r="F528" t="n">
-        <v>112.882248272619</v>
+        <v>112.880773225827</v>
       </c>
       <c r="G528" t="n">
-        <v>173.327699492166</v>
+        <v>173.347760828321</v>
       </c>
       <c r="H528" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="529">
@@ -14801,16 +14801,16 @@
         <v>228.555369049642</v>
       </c>
       <c r="E529" t="n">
-        <v>147.332379478266</v>
+        <v>147.331140402662</v>
       </c>
       <c r="F529" t="n">
-        <v>145.598448636443</v>
+        <v>145.595613342779</v>
       </c>
       <c r="G529" t="n">
-        <v>150.410917393767</v>
+        <v>150.410894530288</v>
       </c>
       <c r="H529" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="530">
